--- a/Data/Fiscal Data/BTr-Monthly-Debt-Stock-2009-to-current.xlsx
+++ b/Data/Fiscal Data/BTr-Monthly-Debt-Stock-2009-to-current.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/236e6b124acc9753/Documents/Indicators/Data/Fiscal Data/NG Outstanding Debt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R Projects\PH-Econ-Data\Data\Fiscal Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{B75CE391-019B-4544-8B21-71DBF0746443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EF593C5-F8CE-4B77-8C2E-820CC7A7A5DC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F94AF54-5CBC-4BA7-A1EC-9EB2C23072E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="1620" windowWidth="13830" windowHeight="9120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12855" yWindow="1365" windowWidth="15540" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2021" sheetId="14" r:id="rId1"/>
@@ -1137,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9061F1E7-8550-4A80-8C52-E95CE64AC367}">
   <dimension ref="A1:S189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43:M44"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1307,15 +1307,15 @@
       </c>
       <c r="N8" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12054772</v>
       </c>
       <c r="O8" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12074737</v>
       </c>
       <c r="P8" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12349910</v>
       </c>
       <c r="Q8" s="17">
         <f t="shared" si="0"/>
@@ -1387,15 +1387,15 @@
       </c>
       <c r="N10" s="101">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11610465</v>
       </c>
       <c r="O10" s="101">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11642519</v>
       </c>
       <c r="P10" s="101">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11917047</v>
       </c>
       <c r="Q10" s="101">
         <f t="shared" si="1"/>
@@ -1467,15 +1467,15 @@
       </c>
       <c r="N12" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8119598</v>
       </c>
       <c r="O12" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8220304</v>
       </c>
       <c r="P12" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8387753</v>
       </c>
       <c r="Q12" s="23">
         <f t="shared" si="2"/>
@@ -1526,15 +1526,15 @@
       </c>
       <c r="N13" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>540156</v>
       </c>
       <c r="O13" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>540156</v>
       </c>
       <c r="P13" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>540156</v>
       </c>
       <c r="Q13" s="23">
         <f t="shared" si="3"/>
@@ -1585,15 +1585,15 @@
       </c>
       <c r="N14" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>540156</v>
       </c>
       <c r="O14" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>540156</v>
       </c>
       <c r="P14" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>540156</v>
       </c>
       <c r="Q14" s="25">
         <f t="shared" si="4"/>
@@ -1636,9 +1636,15 @@
       <c r="M15" s="26">
         <v>540156</v>
       </c>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
+      <c r="N15" s="26">
+        <v>540156</v>
+      </c>
+      <c r="O15" s="26">
+        <v>540156</v>
+      </c>
+      <c r="P15" s="26">
+        <v>540156</v>
+      </c>
       <c r="Q15" s="26"/>
       <c r="R15" s="26"/>
       <c r="S15" s="26"/>
@@ -1671,9 +1677,15 @@
       <c r="M16" s="26">
         <v>156</v>
       </c>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
+      <c r="N16" s="26">
+        <v>156</v>
+      </c>
+      <c r="O16" s="26">
+        <v>156</v>
+      </c>
+      <c r="P16" s="26">
+        <v>156</v>
+      </c>
       <c r="Q16" s="26"/>
       <c r="R16" s="26"/>
       <c r="S16" s="26"/>
@@ -1706,9 +1718,15 @@
       <c r="M17" s="26">
         <v>540000</v>
       </c>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
+      <c r="N17" s="26">
+        <v>540000</v>
+      </c>
+      <c r="O17" s="26">
+        <v>540000</v>
+      </c>
+      <c r="P17" s="26">
+        <v>540000</v>
+      </c>
       <c r="Q17" s="26"/>
       <c r="R17" s="26"/>
       <c r="S17" s="26"/>
@@ -1741,9 +1759,15 @@
       <c r="M18" s="26">
         <v>0</v>
       </c>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
+      <c r="N18" s="26">
+        <v>0</v>
+      </c>
+      <c r="O18" s="26">
+        <v>0</v>
+      </c>
+      <c r="P18" s="26">
+        <v>0</v>
+      </c>
       <c r="Q18" s="26"/>
       <c r="R18" s="26"/>
       <c r="S18" s="26"/>
@@ -1835,9 +1859,15 @@
       <c r="M20" s="26">
         <v>0</v>
       </c>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
+      <c r="N20" s="26">
+        <v>0</v>
+      </c>
+      <c r="O20" s="26">
+        <v>0</v>
+      </c>
+      <c r="P20" s="26">
+        <v>0</v>
+      </c>
       <c r="Q20" s="26"/>
       <c r="R20" s="26"/>
       <c r="S20" s="26"/>
@@ -1870,9 +1900,15 @@
       <c r="M21" s="26">
         <v>0</v>
       </c>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
+      <c r="N21" s="26">
+        <v>0</v>
+      </c>
+      <c r="O21" s="26">
+        <v>0</v>
+      </c>
+      <c r="P21" s="26">
+        <v>0</v>
+      </c>
       <c r="Q21" s="26"/>
       <c r="R21" s="26"/>
       <c r="S21" s="26"/>
@@ -1992,9 +2028,15 @@
       <c r="M25" s="28">
         <v>7398401</v>
       </c>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
+      <c r="N25" s="28">
+        <v>7579442</v>
+      </c>
+      <c r="O25" s="28">
+        <v>7680148</v>
+      </c>
+      <c r="P25" s="28">
+        <v>7847597</v>
+      </c>
       <c r="Q25" s="28"/>
       <c r="R25" s="28"/>
       <c r="S25" s="28"/>
@@ -2056,15 +2098,15 @@
       </c>
       <c r="N27" s="23">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3490867</v>
       </c>
       <c r="O27" s="23">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3422215</v>
       </c>
       <c r="P27" s="23">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3529294</v>
       </c>
       <c r="Q27" s="23">
         <f t="shared" si="6"/>
@@ -2115,15 +2157,15 @@
       </c>
       <c r="N28" s="25">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1471994</v>
       </c>
       <c r="O28" s="25">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1471188</v>
       </c>
       <c r="P28" s="25">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1542150</v>
       </c>
       <c r="Q28" s="25">
         <f t="shared" si="7"/>
@@ -2174,15 +2216,15 @@
       </c>
       <c r="N29" s="30">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1471994</v>
       </c>
       <c r="O29" s="30">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1471188</v>
       </c>
       <c r="P29" s="30">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1542150</v>
       </c>
       <c r="Q29" s="30">
         <f t="shared" si="8"/>
@@ -2225,9 +2267,15 @@
       <c r="M30" s="28">
         <v>1398146</v>
       </c>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
+      <c r="N30" s="28">
+        <v>1454336</v>
+      </c>
+      <c r="O30" s="28">
+        <v>1453960</v>
+      </c>
+      <c r="P30" s="28">
+        <v>1525143</v>
+      </c>
       <c r="Q30" s="28"/>
       <c r="R30" s="28"/>
       <c r="S30" s="28"/>
@@ -2260,9 +2308,15 @@
       <c r="M31" s="28">
         <v>16918</v>
       </c>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
+      <c r="N31" s="28">
+        <v>17658</v>
+      </c>
+      <c r="O31" s="28">
+        <v>17228</v>
+      </c>
+      <c r="P31" s="28">
+        <v>17007</v>
+      </c>
       <c r="Q31" s="28"/>
       <c r="R31" s="28"/>
       <c r="S31" s="28"/>
@@ -2351,9 +2405,15 @@
       <c r="M34" s="28">
         <v>1812412</v>
       </c>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28"/>
+      <c r="N34" s="28">
+        <v>2018873</v>
+      </c>
+      <c r="O34" s="28">
+        <v>1951027</v>
+      </c>
+      <c r="P34" s="28">
+        <v>1987144</v>
+      </c>
       <c r="Q34" s="28"/>
       <c r="R34" s="28"/>
       <c r="S34" s="28"/>
@@ -2432,15 +2492,15 @@
       </c>
       <c r="N37" s="105">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>444307</v>
       </c>
       <c r="O37" s="105">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>432218</v>
       </c>
       <c r="P37" s="105">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>432863</v>
       </c>
       <c r="Q37" s="105">
         <f t="shared" si="9"/>
@@ -2491,15 +2551,15 @@
       </c>
       <c r="N38" s="35">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>242653</v>
       </c>
       <c r="O38" s="35">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>233113</v>
       </c>
       <c r="P38" s="35">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>232969</v>
       </c>
       <c r="Q38" s="35">
         <f t="shared" si="10"/>
@@ -2542,9 +2602,15 @@
       <c r="M39" s="38">
         <v>243940</v>
       </c>
-      <c r="N39" s="38"/>
-      <c r="O39" s="38"/>
-      <c r="P39" s="38"/>
+      <c r="N39" s="38">
+        <v>242517</v>
+      </c>
+      <c r="O39" s="38">
+        <v>232977</v>
+      </c>
+      <c r="P39" s="38">
+        <v>232833</v>
+      </c>
       <c r="Q39" s="38"/>
       <c r="R39" s="38"/>
       <c r="S39" s="38"/>
@@ -2577,9 +2643,15 @@
       <c r="M40" s="38">
         <v>136</v>
       </c>
-      <c r="N40" s="38"/>
-      <c r="O40" s="38"/>
-      <c r="P40" s="38"/>
+      <c r="N40" s="38">
+        <v>136</v>
+      </c>
+      <c r="O40" s="38">
+        <v>136</v>
+      </c>
+      <c r="P40" s="38">
+        <v>136</v>
+      </c>
       <c r="Q40" s="38"/>
       <c r="R40" s="38"/>
       <c r="S40" s="38"/>
@@ -2640,15 +2712,15 @@
       </c>
       <c r="N42" s="35">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>201654</v>
       </c>
       <c r="O42" s="35">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>199105</v>
       </c>
       <c r="P42" s="35">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>199894</v>
       </c>
       <c r="Q42" s="35">
         <f t="shared" si="11"/>
@@ -2685,9 +2757,15 @@
       <c r="M43" s="38">
         <v>190357</v>
       </c>
-      <c r="N43" s="38"/>
-      <c r="O43" s="38"/>
-      <c r="P43" s="38"/>
+      <c r="N43" s="38">
+        <v>197357</v>
+      </c>
+      <c r="O43" s="38">
+        <v>194848</v>
+      </c>
+      <c r="P43" s="38">
+        <v>195542</v>
+      </c>
       <c r="Q43" s="38"/>
       <c r="R43" s="38"/>
       <c r="S43" s="38"/>
@@ -2714,9 +2792,15 @@
       <c r="M44" s="38">
         <v>4167</v>
       </c>
-      <c r="N44" s="38"/>
-      <c r="O44" s="38"/>
-      <c r="P44" s="38"/>
+      <c r="N44" s="38">
+        <v>4297</v>
+      </c>
+      <c r="O44" s="38">
+        <v>4257</v>
+      </c>
+      <c r="P44" s="38">
+        <v>4352</v>
+      </c>
       <c r="Q44" s="38"/>
       <c r="R44" s="38"/>
       <c r="S44" s="38"/>

--- a/Data/Fiscal Data/BTr-Monthly-Debt-Stock-2009-to-current.xlsx
+++ b/Data/Fiscal Data/BTr-Monthly-Debt-Stock-2009-to-current.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R Projects\PH-Econ-Data\Data\Fiscal Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F94AF54-5CBC-4BA7-A1EC-9EB2C23072E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C6E019-41C5-4DB7-91D5-388104184A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12855" yWindow="1365" windowWidth="15540" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3795" yWindow="2175" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2021" sheetId="14" r:id="rId1"/>
@@ -1319,15 +1319,15 @@
       </c>
       <c r="Q8" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12397996</v>
       </c>
       <c r="R8" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12349675</v>
       </c>
       <c r="S8" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12152466</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="18" customFormat="1">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="Q10" s="101">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11971532</v>
       </c>
       <c r="R10" s="101">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11931828</v>
       </c>
       <c r="S10" s="101">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11728549</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="6.95" customHeight="1">
@@ -1479,15 +1479,15 @@
       </c>
       <c r="Q12" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8468408</v>
       </c>
       <c r="R12" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8441502</v>
       </c>
       <c r="S12" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8170414</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1538,15 +1538,15 @@
       </c>
       <c r="Q13" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>540156</v>
       </c>
       <c r="R13" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>540156</v>
       </c>
       <c r="S13" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1597,15 +1597,15 @@
       </c>
       <c r="Q14" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>540156</v>
       </c>
       <c r="R14" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>540156</v>
       </c>
       <c r="S14" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1645,9 +1645,15 @@
       <c r="P15" s="26">
         <v>540156</v>
       </c>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
+      <c r="Q15" s="26">
+        <v>540156</v>
+      </c>
+      <c r="R15" s="26">
+        <v>540156</v>
+      </c>
+      <c r="S15" s="26">
+        <v>156</v>
+      </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="14"/>
@@ -1686,9 +1692,15 @@
       <c r="P16" s="26">
         <v>156</v>
       </c>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
+      <c r="Q16" s="26">
+        <v>156</v>
+      </c>
+      <c r="R16" s="26">
+        <v>156</v>
+      </c>
+      <c r="S16" s="26">
+        <v>156</v>
+      </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="14"/>
@@ -1727,9 +1739,15 @@
       <c r="P17" s="26">
         <v>540000</v>
       </c>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
+      <c r="Q17" s="26">
+        <v>540000</v>
+      </c>
+      <c r="R17" s="26">
+        <v>540000</v>
+      </c>
+      <c r="S17" s="26">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="14"/>
@@ -1768,9 +1786,15 @@
       <c r="P18" s="26">
         <v>0</v>
       </c>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
+      <c r="Q18" s="26">
+        <v>0</v>
+      </c>
+      <c r="R18" s="26">
+        <v>0</v>
+      </c>
+      <c r="S18" s="26">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="14"/>
@@ -1868,9 +1892,15 @@
       <c r="P20" s="26">
         <v>0</v>
       </c>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
+      <c r="Q20" s="26">
+        <v>0</v>
+      </c>
+      <c r="R20" s="26">
+        <v>0</v>
+      </c>
+      <c r="S20" s="26">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="14"/>
@@ -1909,9 +1939,15 @@
       <c r="P21" s="26">
         <v>0</v>
       </c>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
+      <c r="Q21" s="26">
+        <v>0</v>
+      </c>
+      <c r="R21" s="26">
+        <v>0</v>
+      </c>
+      <c r="S21" s="26">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:19" hidden="1">
       <c r="A22" s="14"/>
@@ -2037,9 +2073,15 @@
       <c r="P25" s="28">
         <v>7847597</v>
       </c>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28"/>
+      <c r="Q25" s="28">
+        <v>7928252</v>
+      </c>
+      <c r="R25" s="28">
+        <v>7901346</v>
+      </c>
+      <c r="S25" s="28">
+        <v>8170258</v>
+      </c>
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="14"/>
@@ -2110,15 +2152,15 @@
       </c>
       <c r="Q27" s="23">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3503124</v>
       </c>
       <c r="R27" s="23">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3490326</v>
       </c>
       <c r="S27" s="23">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3558135</v>
       </c>
     </row>
     <row r="28" spans="1:19" s="29" customFormat="1">
@@ -2169,15 +2211,15 @@
       </c>
       <c r="Q28" s="25">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1529576</v>
       </c>
       <c r="R28" s="25">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1527793</v>
       </c>
       <c r="S28" s="25">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1574246</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -2228,15 +2270,15 @@
       </c>
       <c r="Q29" s="30">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1529576</v>
       </c>
       <c r="R29" s="30">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1527793</v>
       </c>
       <c r="S29" s="30">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1574246</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -2276,9 +2318,15 @@
       <c r="P30" s="28">
         <v>1525143</v>
       </c>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="28"/>
-      <c r="S30" s="28"/>
+      <c r="Q30" s="28">
+        <v>1513279</v>
+      </c>
+      <c r="R30" s="28">
+        <v>1511439</v>
+      </c>
+      <c r="S30" s="28">
+        <v>1558131</v>
+      </c>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="14"/>
@@ -2317,9 +2365,15 @@
       <c r="P31" s="28">
         <v>17007</v>
       </c>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="28"/>
-      <c r="S31" s="28"/>
+      <c r="Q31" s="28">
+        <v>16297</v>
+      </c>
+      <c r="R31" s="28">
+        <v>16354</v>
+      </c>
+      <c r="S31" s="28">
+        <v>16115</v>
+      </c>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="14"/>
@@ -2352,9 +2406,15 @@
       <c r="N32" s="25"/>
       <c r="O32" s="25"/>
       <c r="P32" s="25"/>
-      <c r="Q32" s="25"/>
-      <c r="R32" s="25"/>
-      <c r="S32" s="25"/>
+      <c r="Q32" s="25">
+        <v>0</v>
+      </c>
+      <c r="R32" s="25">
+        <v>0</v>
+      </c>
+      <c r="S32" s="25">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:19" ht="6.95" customHeight="1">
       <c r="A33" s="14"/>
@@ -2414,9 +2474,15 @@
       <c r="P34" s="28">
         <v>1987144</v>
       </c>
-      <c r="Q34" s="28"/>
-      <c r="R34" s="28"/>
-      <c r="S34" s="28"/>
+      <c r="Q34" s="28">
+        <v>1973548</v>
+      </c>
+      <c r="R34" s="28">
+        <v>1962533</v>
+      </c>
+      <c r="S34" s="28">
+        <v>1983889</v>
+      </c>
     </row>
     <row r="35" spans="1:19">
       <c r="A35" s="14"/>
@@ -2504,15 +2570,15 @@
       </c>
       <c r="Q37" s="105">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>426464</v>
       </c>
       <c r="R37" s="105">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>417847</v>
       </c>
       <c r="S37" s="105">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>423917</v>
       </c>
     </row>
     <row r="38" spans="1:19" s="37" customFormat="1" ht="14.25" customHeight="1">
@@ -2563,15 +2629,15 @@
       </c>
       <c r="Q38" s="35">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>194026</v>
       </c>
       <c r="R38" s="35">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>189083</v>
       </c>
       <c r="S38" s="35">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>195075</v>
       </c>
     </row>
     <row r="39" spans="1:19" s="29" customFormat="1">
@@ -2611,9 +2677,15 @@
       <c r="P39" s="38">
         <v>232833</v>
       </c>
-      <c r="Q39" s="38"/>
-      <c r="R39" s="38"/>
-      <c r="S39" s="38"/>
+      <c r="Q39" s="38">
+        <v>193890</v>
+      </c>
+      <c r="R39" s="38">
+        <v>188947</v>
+      </c>
+      <c r="S39" s="38">
+        <v>194939</v>
+      </c>
     </row>
     <row r="40" spans="1:19" s="29" customFormat="1" ht="12.75" customHeight="1">
       <c r="A40" s="27"/>
@@ -2652,9 +2724,15 @@
       <c r="P40" s="38">
         <v>136</v>
       </c>
-      <c r="Q40" s="38"/>
-      <c r="R40" s="38"/>
-      <c r="S40" s="38"/>
+      <c r="Q40" s="38">
+        <v>136</v>
+      </c>
+      <c r="R40" s="38">
+        <v>136</v>
+      </c>
+      <c r="S40" s="38">
+        <v>136</v>
+      </c>
     </row>
     <row r="41" spans="1:19">
       <c r="A41" s="14"/>
@@ -2724,15 +2802,15 @@
       </c>
       <c r="Q42" s="35">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>232438</v>
       </c>
       <c r="R42" s="35">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>228764</v>
       </c>
       <c r="S42" s="35">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>228842</v>
       </c>
     </row>
     <row r="43" spans="1:19" s="40" customFormat="1">
@@ -2766,9 +2844,15 @@
       <c r="P43" s="38">
         <v>195542</v>
       </c>
-      <c r="Q43" s="38"/>
-      <c r="R43" s="38"/>
-      <c r="S43" s="38"/>
+      <c r="Q43" s="38">
+        <v>228113</v>
+      </c>
+      <c r="R43" s="38">
+        <v>224455</v>
+      </c>
+      <c r="S43" s="38">
+        <v>224482</v>
+      </c>
     </row>
     <row r="44" spans="1:19" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="E44" s="42" t="s">
@@ -2801,9 +2885,15 @@
       <c r="P44" s="38">
         <v>4352</v>
       </c>
-      <c r="Q44" s="38"/>
-      <c r="R44" s="38"/>
-      <c r="S44" s="38"/>
+      <c r="Q44" s="38">
+        <v>4325</v>
+      </c>
+      <c r="R44" s="38">
+        <v>4309</v>
+      </c>
+      <c r="S44" s="38">
+        <v>4360</v>
+      </c>
     </row>
     <row r="47" spans="1:19">
       <c r="A47" s="43"/>

--- a/Data/Fiscal Data/BTr-Monthly-Debt-Stock-2009-to-current.xlsx
+++ b/Data/Fiscal Data/BTr-Monthly-Debt-Stock-2009-to-current.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R Projects\PH-Econ-Data\Data\Fiscal Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AD77DD-F581-47ED-A8B9-D216386F0E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8088E456-1810-4088-A139-EA8EA7E0C4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13875" yWindow="2430" windowWidth="12345" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6870" yWindow="3495" windowWidth="18570" windowHeight="10815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2022" sheetId="15" r:id="rId1"/>
@@ -1145,7 +1145,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50786131-2AB4-4B56-BC3B-96AAC9C5A935}">
   <dimension ref="A1:S189"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -1301,15 +1303,15 @@
       </c>
       <c r="K8" s="17">
         <f>+K10+K37</f>
-        <v>0</v>
+        <v>13176615</v>
       </c>
       <c r="L8" s="17">
         <f>+L10+L37</f>
-        <v>0</v>
+        <v>12895488</v>
       </c>
       <c r="M8" s="17">
         <f t="shared" ref="M8:S8" si="0">+M10+M37</f>
-        <v>0</v>
+        <v>13205756</v>
       </c>
       <c r="N8" s="17">
         <f t="shared" si="0"/>
@@ -1381,15 +1383,15 @@
       </c>
       <c r="K10" s="101">
         <f>+K12+K27</f>
-        <v>0</v>
+        <v>12763187</v>
       </c>
       <c r="L10" s="101">
         <f>+L12+L27</f>
-        <v>0</v>
+        <v>12495772</v>
       </c>
       <c r="M10" s="101">
         <f t="shared" ref="M10:S10" si="1">+M12+M27</f>
-        <v>0</v>
+        <v>12791829</v>
       </c>
       <c r="N10" s="101">
         <f t="shared" si="1"/>
@@ -1461,15 +1463,15 @@
       </c>
       <c r="K12" s="23">
         <f>+K13+K25</f>
-        <v>0</v>
+        <v>8935854</v>
       </c>
       <c r="L12" s="23">
         <f>+L13+L25</f>
-        <v>0</v>
+        <v>8665450</v>
       </c>
       <c r="M12" s="23">
         <f t="shared" ref="M12:S12" si="2">+M13+M25</f>
-        <v>0</v>
+        <v>8767110</v>
       </c>
       <c r="N12" s="23">
         <f t="shared" si="2"/>
@@ -1520,15 +1522,15 @@
       </c>
       <c r="K13" s="23">
         <f>K14+K19</f>
-        <v>0</v>
+        <v>300156</v>
       </c>
       <c r="L13" s="23">
         <f>L14+L19</f>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="M13" s="23">
         <f t="shared" ref="M13:S13" si="3">M14+M19</f>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="N13" s="23">
         <f t="shared" si="3"/>
@@ -1579,15 +1581,15 @@
       </c>
       <c r="K14" s="25">
         <f>K15+K18</f>
-        <v>0</v>
+        <v>300156</v>
       </c>
       <c r="L14" s="25">
         <f>L15+L18</f>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="M14" s="25">
         <f t="shared" ref="M14:S14" si="4">M15+M18</f>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="N14" s="25">
         <f t="shared" si="4"/>
@@ -1633,9 +1635,15 @@
       <c r="J15" s="26">
         <v>300156</v>
       </c>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
+      <c r="K15" s="26">
+        <v>300156</v>
+      </c>
+      <c r="L15" s="26">
+        <v>156</v>
+      </c>
+      <c r="M15" s="26">
+        <v>156</v>
+      </c>
       <c r="N15" s="26"/>
       <c r="O15" s="26"/>
       <c r="P15" s="26"/>
@@ -1662,9 +1670,15 @@
       <c r="J16" s="26">
         <v>156</v>
       </c>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
+      <c r="K16" s="26">
+        <v>156</v>
+      </c>
+      <c r="L16" s="26">
+        <v>156</v>
+      </c>
+      <c r="M16" s="26">
+        <v>156</v>
+      </c>
       <c r="N16" s="26"/>
       <c r="O16" s="26"/>
       <c r="P16" s="26"/>
@@ -1691,9 +1705,15 @@
       <c r="J17" s="26">
         <v>300000</v>
       </c>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
+      <c r="K17" s="26">
+        <v>300000</v>
+      </c>
+      <c r="L17" s="26">
+        <v>0</v>
+      </c>
+      <c r="M17" s="26">
+        <v>0</v>
+      </c>
       <c r="N17" s="26"/>
       <c r="O17" s="26"/>
       <c r="P17" s="26"/>
@@ -1720,9 +1740,15 @@
       <c r="J18" s="26">
         <v>0</v>
       </c>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
+      <c r="K18" s="26">
+        <v>0</v>
+      </c>
+      <c r="L18" s="26">
+        <v>0</v>
+      </c>
+      <c r="M18" s="26">
+        <v>0</v>
+      </c>
       <c r="N18" s="26"/>
       <c r="O18" s="26"/>
       <c r="P18" s="26"/>
@@ -1741,31 +1767,25 @@
       <c r="F19" s="24"/>
       <c r="G19" s="24"/>
       <c r="H19" s="25">
-        <f>SUM(H20:H23)</f>
         <v>0</v>
       </c>
       <c r="I19" s="25">
-        <f>SUM(I20:I23)</f>
         <v>0</v>
       </c>
       <c r="J19" s="25">
-        <f>SUM(J20:J23)</f>
         <v>0</v>
       </c>
       <c r="K19" s="25">
-        <f>SUM(K20:K23)</f>
         <v>0</v>
       </c>
       <c r="L19" s="25">
-        <f>SUM(L20:L23)</f>
         <v>0</v>
       </c>
       <c r="M19" s="25">
-        <f t="shared" ref="M19:S19" si="5">SUM(M20:M23)</f>
         <v>0</v>
       </c>
       <c r="N19" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="M19:S19" si="5">SUM(N20:N23)</f>
         <v>0</v>
       </c>
       <c r="O19" s="25">
@@ -1941,9 +1961,15 @@
       <c r="J25" s="28">
         <v>8568495</v>
       </c>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
+      <c r="K25" s="28">
+        <v>8635698</v>
+      </c>
+      <c r="L25" s="28">
+        <v>8665294</v>
+      </c>
+      <c r="M25" s="28">
+        <v>8766954</v>
+      </c>
       <c r="N25" s="28"/>
       <c r="O25" s="28"/>
       <c r="P25" s="28"/>
@@ -1996,15 +2022,15 @@
       </c>
       <c r="K27" s="23">
         <f>K28+K34</f>
-        <v>0</v>
+        <v>3827333</v>
       </c>
       <c r="L27" s="23">
         <f>L28+L34</f>
-        <v>0</v>
+        <v>3830322</v>
       </c>
       <c r="M27" s="23">
         <f t="shared" ref="M27:S27" si="6">M28+M34</f>
-        <v>0</v>
+        <v>4024719</v>
       </c>
       <c r="N27" s="23">
         <f t="shared" si="6"/>
@@ -2055,15 +2081,15 @@
       </c>
       <c r="K28" s="25">
         <f>K29+K32</f>
-        <v>0</v>
+        <v>1675248</v>
       </c>
       <c r="L28" s="25">
         <f>L29+L32</f>
-        <v>0</v>
+        <v>1690029</v>
       </c>
       <c r="M28" s="25">
         <f t="shared" ref="M28:S28" si="7">M29+M32</f>
-        <v>0</v>
+        <v>1795604</v>
       </c>
       <c r="N28" s="25">
         <f t="shared" si="7"/>
@@ -2114,15 +2140,15 @@
       </c>
       <c r="K29" s="30">
         <f>+K30+K31</f>
-        <v>0</v>
+        <v>1675248</v>
       </c>
       <c r="L29" s="30">
         <f>+L30+L31</f>
-        <v>0</v>
+        <v>1690029</v>
       </c>
       <c r="M29" s="30">
         <f t="shared" ref="M29:S29" si="8">+M30+M31</f>
-        <v>0</v>
+        <v>1795604</v>
       </c>
       <c r="N29" s="30">
         <f t="shared" si="8"/>
@@ -2168,9 +2194,15 @@
       <c r="J30" s="28">
         <v>1671980</v>
       </c>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
+      <c r="K30" s="28">
+        <v>1661314</v>
+      </c>
+      <c r="L30" s="28">
+        <v>1675941</v>
+      </c>
+      <c r="M30" s="28">
+        <v>1781701</v>
+      </c>
       <c r="N30" s="28"/>
       <c r="O30" s="28"/>
       <c r="P30" s="28"/>
@@ -2197,9 +2229,15 @@
       <c r="J31" s="28">
         <v>14950</v>
       </c>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
+      <c r="K31" s="28">
+        <v>13934</v>
+      </c>
+      <c r="L31" s="28">
+        <v>14088</v>
+      </c>
+      <c r="M31" s="28">
+        <v>13903</v>
+      </c>
       <c r="N31" s="28"/>
       <c r="O31" s="28"/>
       <c r="P31" s="28"/>
@@ -2226,9 +2264,15 @@
       <c r="J32" s="25">
         <v>0</v>
       </c>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
+      <c r="K32" s="25">
+        <v>0</v>
+      </c>
+      <c r="L32" s="25">
+        <v>0</v>
+      </c>
+      <c r="M32" s="25">
+        <v>0</v>
+      </c>
       <c r="N32" s="25"/>
       <c r="O32" s="25"/>
       <c r="P32" s="25"/>
@@ -2276,9 +2320,15 @@
       <c r="J34" s="28">
         <v>2124204</v>
       </c>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
+      <c r="K34" s="28">
+        <v>2152085</v>
+      </c>
+      <c r="L34" s="28">
+        <v>2140293</v>
+      </c>
+      <c r="M34" s="28">
+        <v>2229115</v>
+      </c>
       <c r="N34" s="28"/>
       <c r="O34" s="28"/>
       <c r="P34" s="28"/>
@@ -2348,15 +2398,15 @@
       </c>
       <c r="K37" s="105">
         <f>+K38+K42</f>
-        <v>0</v>
+        <v>413428</v>
       </c>
       <c r="L37" s="105">
         <f>+L38+L42</f>
-        <v>0</v>
+        <v>399716</v>
       </c>
       <c r="M37" s="105">
         <f t="shared" ref="M37:S37" si="9">+M38+M42</f>
-        <v>0</v>
+        <v>413927</v>
       </c>
       <c r="N37" s="105">
         <f t="shared" si="9"/>
@@ -2407,15 +2457,15 @@
       </c>
       <c r="K38" s="35">
         <f>+K39+K40</f>
-        <v>0</v>
+        <v>194292</v>
       </c>
       <c r="L38" s="35">
         <f>+L39+L40</f>
-        <v>0</v>
+        <v>185885</v>
       </c>
       <c r="M38" s="35">
         <f t="shared" ref="M38:S38" si="10">+M39+M40</f>
-        <v>0</v>
+        <v>195224</v>
       </c>
       <c r="N38" s="35">
         <f t="shared" si="10"/>
@@ -2461,9 +2511,15 @@
       <c r="J39" s="38">
         <v>187999</v>
       </c>
-      <c r="K39" s="38"/>
-      <c r="L39" s="38"/>
-      <c r="M39" s="38"/>
+      <c r="K39" s="38">
+        <v>194156</v>
+      </c>
+      <c r="L39" s="38">
+        <v>185749</v>
+      </c>
+      <c r="M39" s="38">
+        <v>195088</v>
+      </c>
       <c r="N39" s="38"/>
       <c r="O39" s="38"/>
       <c r="P39" s="38"/>
@@ -2490,9 +2546,15 @@
       <c r="J40" s="38">
         <v>136</v>
       </c>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="38"/>
+      <c r="K40" s="38">
+        <v>136</v>
+      </c>
+      <c r="L40" s="38">
+        <v>136</v>
+      </c>
+      <c r="M40" s="38">
+        <v>136</v>
+      </c>
       <c r="N40" s="38"/>
       <c r="O40" s="38"/>
       <c r="P40" s="38"/>
@@ -2544,15 +2606,15 @@
       </c>
       <c r="K42" s="35">
         <f>+K43+K44</f>
-        <v>0</v>
+        <v>219136</v>
       </c>
       <c r="L42" s="35">
         <f>+L43+L44</f>
-        <v>0</v>
+        <v>213831</v>
       </c>
       <c r="M42" s="35">
         <f t="shared" ref="M42:S42" si="11">+M43+M44</f>
-        <v>0</v>
+        <v>218703</v>
       </c>
       <c r="N42" s="35">
         <f t="shared" si="11"/>
@@ -2592,9 +2654,15 @@
       <c r="J43" s="38">
         <v>218470</v>
       </c>
-      <c r="K43" s="38"/>
-      <c r="L43" s="38"/>
-      <c r="M43" s="38"/>
+      <c r="K43" s="38">
+        <v>214661</v>
+      </c>
+      <c r="L43" s="38">
+        <v>209349</v>
+      </c>
+      <c r="M43" s="38">
+        <v>214003</v>
+      </c>
       <c r="N43" s="38"/>
       <c r="O43" s="38"/>
       <c r="P43" s="38"/>
@@ -2615,9 +2683,15 @@
       <c r="J44" s="38">
         <v>4439</v>
       </c>
-      <c r="K44" s="38"/>
-      <c r="L44" s="38"/>
-      <c r="M44" s="38"/>
+      <c r="K44" s="38">
+        <v>4475</v>
+      </c>
+      <c r="L44" s="38">
+        <v>4482</v>
+      </c>
+      <c r="M44" s="38">
+        <v>4700</v>
+      </c>
       <c r="N44" s="38"/>
       <c r="O44" s="38"/>
       <c r="P44" s="38"/>
@@ -13327,7 +13401,7 @@
   <dimension ref="A1:S189"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/Data/Fiscal Data/BTr-Monthly-Debt-Stock-2009-to-current.xlsx
+++ b/Data/Fiscal Data/BTr-Monthly-Debt-Stock-2009-to-current.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R Projects\PH-Econ-Data\Data\Fiscal Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8088E456-1810-4088-A139-EA8EA7E0C4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E3598E-B0D3-4112-A301-CDC720C48A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6870" yWindow="3495" windowWidth="18570" windowHeight="10815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1605" yWindow="2055" windowWidth="13380" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2022" sheetId="15" r:id="rId1"/>
@@ -1145,9 +1145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50786131-2AB4-4B56-BC3B-96AAC9C5A935}">
   <dimension ref="A1:S189"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -1315,15 +1313,15 @@
       </c>
       <c r="N8" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13295917</v>
       </c>
       <c r="O8" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13414313</v>
       </c>
       <c r="P8" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13914320</v>
       </c>
       <c r="Q8" s="17">
         <f t="shared" si="0"/>
@@ -1395,15 +1393,15 @@
       </c>
       <c r="N10" s="101">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12887918</v>
       </c>
       <c r="O10" s="101">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13021554</v>
       </c>
       <c r="P10" s="101">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13517100</v>
       </c>
       <c r="Q10" s="101">
         <f t="shared" si="1"/>
@@ -1475,15 +1473,15 @@
       </c>
       <c r="N12" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8832181</v>
       </c>
       <c r="O12" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8943389</v>
       </c>
       <c r="P12" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9300660</v>
       </c>
       <c r="Q12" s="23">
         <f t="shared" si="2"/>
@@ -1534,15 +1532,15 @@
       </c>
       <c r="N13" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="O13" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="P13" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="Q13" s="23">
         <f t="shared" si="3"/>
@@ -1593,15 +1591,15 @@
       </c>
       <c r="N14" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="O14" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="P14" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="Q14" s="25">
         <f t="shared" si="4"/>
@@ -1644,9 +1642,15 @@
       <c r="M15" s="26">
         <v>156</v>
       </c>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
+      <c r="N15" s="26">
+        <v>156</v>
+      </c>
+      <c r="O15" s="26">
+        <v>156</v>
+      </c>
+      <c r="P15" s="26">
+        <v>156</v>
+      </c>
       <c r="Q15" s="26"/>
       <c r="R15" s="26"/>
       <c r="S15" s="26"/>
@@ -1679,9 +1683,15 @@
       <c r="M16" s="26">
         <v>156</v>
       </c>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
+      <c r="N16" s="26">
+        <v>156</v>
+      </c>
+      <c r="O16" s="26">
+        <v>156</v>
+      </c>
+      <c r="P16" s="26">
+        <v>156</v>
+      </c>
       <c r="Q16" s="26"/>
       <c r="R16" s="26"/>
       <c r="S16" s="26"/>
@@ -1714,9 +1724,15 @@
       <c r="M17" s="26">
         <v>0</v>
       </c>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
+      <c r="N17" s="26">
+        <v>0</v>
+      </c>
+      <c r="O17" s="26">
+        <v>0</v>
+      </c>
+      <c r="P17" s="26">
+        <v>0</v>
+      </c>
       <c r="Q17" s="26"/>
       <c r="R17" s="26"/>
       <c r="S17" s="26"/>
@@ -1749,9 +1765,15 @@
       <c r="M18" s="26">
         <v>0</v>
       </c>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
+      <c r="N18" s="26">
+        <v>0</v>
+      </c>
+      <c r="O18" s="26">
+        <v>0</v>
+      </c>
+      <c r="P18" s="26">
+        <v>0</v>
+      </c>
       <c r="Q18" s="26"/>
       <c r="R18" s="26"/>
       <c r="S18" s="26"/>
@@ -1785,19 +1807,16 @@
         <v>0</v>
       </c>
       <c r="N19" s="25">
-        <f t="shared" ref="M19:S19" si="5">SUM(N20:N23)</f>
         <v>0</v>
       </c>
       <c r="O19" s="25">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P19" s="25">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q19" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="N19:S19" si="5">SUM(Q20:Q23)</f>
         <v>0</v>
       </c>
       <c r="R19" s="25">
@@ -1970,9 +1989,15 @@
       <c r="M25" s="28">
         <v>8766954</v>
       </c>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
+      <c r="N25" s="28">
+        <v>8832025</v>
+      </c>
+      <c r="O25" s="28">
+        <v>8943233</v>
+      </c>
+      <c r="P25" s="28">
+        <v>9300504</v>
+      </c>
       <c r="Q25" s="28"/>
       <c r="R25" s="28"/>
       <c r="S25" s="28"/>
@@ -2034,15 +2059,15 @@
       </c>
       <c r="N27" s="23">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4055737</v>
       </c>
       <c r="O27" s="23">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4078165</v>
       </c>
       <c r="P27" s="23">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4216440</v>
       </c>
       <c r="Q27" s="23">
         <f t="shared" si="6"/>
@@ -2093,15 +2118,15 @@
       </c>
       <c r="N28" s="25">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1816698</v>
       </c>
       <c r="O28" s="25">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1826918</v>
       </c>
       <c r="P28" s="25">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1890917</v>
       </c>
       <c r="Q28" s="25">
         <f t="shared" si="7"/>
@@ -2152,15 +2177,15 @@
       </c>
       <c r="N29" s="30">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1816698</v>
       </c>
       <c r="O29" s="30">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1826918</v>
       </c>
       <c r="P29" s="30">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1890917</v>
       </c>
       <c r="Q29" s="30">
         <f t="shared" si="8"/>
@@ -2203,9 +2228,15 @@
       <c r="M30" s="28">
         <v>1781701</v>
       </c>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
+      <c r="N30" s="28">
+        <v>1802465</v>
+      </c>
+      <c r="O30" s="28">
+        <v>1813260</v>
+      </c>
+      <c r="P30" s="28">
+        <v>1877554</v>
+      </c>
       <c r="Q30" s="28"/>
       <c r="R30" s="28"/>
       <c r="S30" s="28"/>
@@ -2238,9 +2269,15 @@
       <c r="M31" s="28">
         <v>13903</v>
       </c>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
+      <c r="N31" s="28">
+        <v>14233</v>
+      </c>
+      <c r="O31" s="28">
+        <v>13658</v>
+      </c>
+      <c r="P31" s="28">
+        <v>13363</v>
+      </c>
       <c r="Q31" s="28"/>
       <c r="R31" s="28"/>
       <c r="S31" s="28"/>
@@ -2273,9 +2310,15 @@
       <c r="M32" s="25">
         <v>0</v>
       </c>
-      <c r="N32" s="25"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="25"/>
+      <c r="N32" s="25">
+        <v>0</v>
+      </c>
+      <c r="O32" s="25">
+        <v>0</v>
+      </c>
+      <c r="P32" s="25">
+        <v>0</v>
+      </c>
       <c r="Q32" s="25"/>
       <c r="R32" s="25"/>
       <c r="S32" s="25"/>
@@ -2329,9 +2372,15 @@
       <c r="M34" s="28">
         <v>2229115</v>
       </c>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28"/>
+      <c r="N34" s="28">
+        <v>2239039</v>
+      </c>
+      <c r="O34" s="28">
+        <v>2251247</v>
+      </c>
+      <c r="P34" s="28">
+        <v>2325523</v>
+      </c>
       <c r="Q34" s="28"/>
       <c r="R34" s="28"/>
       <c r="S34" s="28"/>
@@ -2410,15 +2459,15 @@
       </c>
       <c r="N37" s="105">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>407999</v>
       </c>
       <c r="O37" s="105">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>392759</v>
       </c>
       <c r="P37" s="105">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>397220</v>
       </c>
       <c r="Q37" s="105">
         <f t="shared" si="9"/>
@@ -2469,15 +2518,15 @@
       </c>
       <c r="N38" s="35">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>186657</v>
       </c>
       <c r="O38" s="35">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>182231</v>
       </c>
       <c r="P38" s="35">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>182218</v>
       </c>
       <c r="Q38" s="35">
         <f t="shared" si="10"/>
@@ -2520,9 +2569,15 @@
       <c r="M39" s="38">
         <v>195088</v>
       </c>
-      <c r="N39" s="38"/>
-      <c r="O39" s="38"/>
-      <c r="P39" s="38"/>
+      <c r="N39" s="38">
+        <v>186521</v>
+      </c>
+      <c r="O39" s="38">
+        <v>182095</v>
+      </c>
+      <c r="P39" s="38">
+        <v>182082</v>
+      </c>
       <c r="Q39" s="38"/>
       <c r="R39" s="38"/>
       <c r="S39" s="38"/>
@@ -2555,9 +2610,15 @@
       <c r="M40" s="38">
         <v>136</v>
       </c>
-      <c r="N40" s="38"/>
-      <c r="O40" s="38"/>
-      <c r="P40" s="38"/>
+      <c r="N40" s="38">
+        <v>136</v>
+      </c>
+      <c r="O40" s="38">
+        <v>136</v>
+      </c>
+      <c r="P40" s="38">
+        <v>136</v>
+      </c>
       <c r="Q40" s="38"/>
       <c r="R40" s="38"/>
       <c r="S40" s="38"/>
@@ -2618,15 +2679,15 @@
       </c>
       <c r="N42" s="35">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>221342</v>
       </c>
       <c r="O42" s="35">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>210528</v>
       </c>
       <c r="P42" s="35">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>215002</v>
       </c>
       <c r="Q42" s="35">
         <f t="shared" si="11"/>
@@ -2663,9 +2724,15 @@
       <c r="M43" s="38">
         <v>214003</v>
       </c>
-      <c r="N43" s="38"/>
-      <c r="O43" s="38"/>
-      <c r="P43" s="38"/>
+      <c r="N43" s="38">
+        <v>216613</v>
+      </c>
+      <c r="O43" s="38">
+        <v>205727</v>
+      </c>
+      <c r="P43" s="38">
+        <v>209991</v>
+      </c>
       <c r="Q43" s="38"/>
       <c r="R43" s="38"/>
       <c r="S43" s="38"/>
@@ -2692,9 +2759,15 @@
       <c r="M44" s="38">
         <v>4700</v>
       </c>
-      <c r="N44" s="38"/>
-      <c r="O44" s="38"/>
-      <c r="P44" s="38"/>
+      <c r="N44" s="38">
+        <v>4729</v>
+      </c>
+      <c r="O44" s="38">
+        <v>4801</v>
+      </c>
+      <c r="P44" s="38">
+        <v>5011</v>
+      </c>
       <c r="Q44" s="38"/>
       <c r="R44" s="38"/>
       <c r="S44" s="38"/>

--- a/Data/Fiscal Data/BTr-Monthly-Debt-Stock-2009-to-current.xlsx
+++ b/Data/Fiscal Data/BTr-Monthly-Debt-Stock-2009-to-current.xlsx
@@ -1,47 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R-Projects\PH-Econ-Data\Data\Fiscal Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A39E8AD-86F3-46BA-8EED-CDC341E684B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894676ED-90E1-4928-98CD-E68704EF85B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2022" sheetId="15" r:id="rId1"/>
-    <sheet name="2021" sheetId="14" r:id="rId2"/>
-    <sheet name="2020" sheetId="1" r:id="rId3"/>
-    <sheet name="2019" sheetId="3" r:id="rId4"/>
-    <sheet name="2018" sheetId="2" r:id="rId5"/>
-    <sheet name="2017" sheetId="4" r:id="rId6"/>
-    <sheet name="2016" sheetId="5" r:id="rId7"/>
-    <sheet name="2015" sheetId="6" r:id="rId8"/>
-    <sheet name="2014" sheetId="7" r:id="rId9"/>
-    <sheet name="2013" sheetId="9" r:id="rId10"/>
-    <sheet name="2012" sheetId="10" r:id="rId11"/>
-    <sheet name="2011" sheetId="11" r:id="rId12"/>
-    <sheet name="2010" sheetId="12" r:id="rId13"/>
-    <sheet name="2009" sheetId="13" r:id="rId14"/>
+    <sheet name="2023" sheetId="16" r:id="rId1"/>
+    <sheet name="2022" sheetId="15" r:id="rId2"/>
+    <sheet name="2021" sheetId="14" r:id="rId3"/>
+    <sheet name="2020" sheetId="1" r:id="rId4"/>
+    <sheet name="2019" sheetId="3" r:id="rId5"/>
+    <sheet name="2018" sheetId="2" r:id="rId6"/>
+    <sheet name="2017" sheetId="4" r:id="rId7"/>
+    <sheet name="2016" sheetId="5" r:id="rId8"/>
+    <sheet name="2015" sheetId="6" r:id="rId9"/>
+    <sheet name="2014" sheetId="7" r:id="rId10"/>
+    <sheet name="2013" sheetId="9" r:id="rId11"/>
+    <sheet name="2012" sheetId="10" r:id="rId12"/>
+    <sheet name="2011" sheetId="11" r:id="rId13"/>
+    <sheet name="2010" sheetId="12" r:id="rId14"/>
+    <sheet name="2009" sheetId="13" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="13">'2009'!$A$1:$L$53</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="12">'2010'!$A$1:$L$53</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="11">'2011'!$A$1:$L$53</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="10">'2012'!$A$1:$L$55</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">'2013'!$A$1:$L$55</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">'2014'!$A$1:$L$50</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'2015'!$A$1:$L$50</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'2016'!$A$1:$L$48</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'2017'!$A$1:$L$48</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'2018'!$A$1:$L$48</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'2020'!$A$1:$L$53</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'2021'!$A$1:$L$53</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2022'!$A$1:$L$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="14">'2009'!$A$1:$L$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="13">'2010'!$A$1:$L$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">'2011'!$A$1:$L$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">'2012'!$A$1:$L$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">'2013'!$A$1:$L$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">'2014'!$A$1:$L$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'2015'!$A$1:$L$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'2016'!$A$1:$L$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'2017'!$A$1:$L$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'2018'!$A$1:$L$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'2020'!$A$1:$L$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'2021'!$A$1:$L$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'2022'!$A$1:$L$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2023'!$A$1:$L$53</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="76">
   <si>
     <t xml:space="preserve">National Government Outstanding Debt Stock </t>
   </si>
@@ -287,6 +289,9 @@
   </si>
   <si>
     <t xml:space="preserve">CY 2022      </t>
+  </si>
+  <si>
+    <t>CY 2023</t>
   </si>
 </sst>
 </file>
@@ -1102,11 +1107,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50786131-2AB4-4B56-BC3B-96AAC9C5A935}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54508508-E2B6-44BA-8283-F784171A6B05}">
   <dimension ref="A1:S189"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A8" sqref="A8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1168,7 +1173,7 @@
         <v>4</v>
       </c>
       <c r="H5" s="79" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
@@ -1246,51 +1251,51 @@
       <c r="G8" s="82"/>
       <c r="H8" s="14">
         <f>+H10+H37</f>
-        <v>12452188</v>
+        <v>14092329</v>
       </c>
       <c r="I8" s="14">
         <f>+I10+I37</f>
-        <v>12509704</v>
+        <v>14139944</v>
       </c>
       <c r="J8" s="14">
         <f>+J10+J37</f>
-        <v>13090829</v>
+        <v>14241014</v>
       </c>
       <c r="K8" s="14">
         <f>+K10+K37</f>
-        <v>13176615</v>
+        <v>0</v>
       </c>
       <c r="L8" s="14">
         <f>+L10+L37</f>
-        <v>12895488</v>
+        <v>0</v>
       </c>
       <c r="M8" s="14">
         <f t="shared" ref="M8:S8" si="0">+M10+M37</f>
-        <v>13205756</v>
+        <v>0</v>
       </c>
       <c r="N8" s="14">
         <f t="shared" si="0"/>
-        <v>13295917</v>
+        <v>0</v>
       </c>
       <c r="O8" s="14">
         <f t="shared" si="0"/>
-        <v>13414313</v>
+        <v>0</v>
       </c>
       <c r="P8" s="14">
         <f t="shared" si="0"/>
-        <v>13914320</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="14">
         <f t="shared" si="0"/>
-        <v>14027553</v>
+        <v>0</v>
       </c>
       <c r="R8" s="14">
         <f t="shared" si="0"/>
-        <v>14032164</v>
+        <v>0</v>
       </c>
       <c r="S8" s="14">
         <f t="shared" si="0"/>
-        <v>13817906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="15" customFormat="1">
@@ -1318,51 +1323,51 @@
       <c r="G10" s="83"/>
       <c r="H10" s="72">
         <f>+H12+H27</f>
-        <v>12029672</v>
+        <v>13698494</v>
       </c>
       <c r="I10" s="72">
         <f>+I12+I27</f>
-        <v>12093500</v>
+        <v>13752754</v>
       </c>
       <c r="J10" s="72">
         <f>+J12+J27</f>
-        <v>12679785</v>
+        <v>13856896</v>
       </c>
       <c r="K10" s="72">
         <f>+K12+K27</f>
-        <v>12763187</v>
+        <v>0</v>
       </c>
       <c r="L10" s="72">
         <f>+L12+L27</f>
-        <v>12495772</v>
+        <v>0</v>
       </c>
       <c r="M10" s="72">
         <f t="shared" ref="M10:S10" si="1">+M12+M27</f>
-        <v>12791829</v>
+        <v>0</v>
       </c>
       <c r="N10" s="72">
         <f t="shared" si="1"/>
-        <v>12887918</v>
+        <v>0</v>
       </c>
       <c r="O10" s="72">
         <f t="shared" si="1"/>
-        <v>13021554</v>
+        <v>0</v>
       </c>
       <c r="P10" s="72">
         <f t="shared" si="1"/>
-        <v>13517100</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="72">
         <f t="shared" si="1"/>
-        <v>13641019</v>
+        <v>0</v>
       </c>
       <c r="R10" s="72">
         <f t="shared" si="1"/>
-        <v>13644164</v>
+        <v>0</v>
       </c>
       <c r="S10" s="72">
         <f t="shared" si="1"/>
-        <v>13418860</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="6.95" customHeight="1">
@@ -1395,51 +1400,51 @@
       <c r="G12" s="18"/>
       <c r="H12" s="19">
         <f>+H13+H25</f>
-        <v>8367788</v>
+        <v>9384941</v>
       </c>
       <c r="I12" s="19">
         <f>+I13+I25</f>
-        <v>8413204</v>
+        <v>9442162</v>
       </c>
       <c r="J12" s="19">
         <f>+J13+J25</f>
-        <v>8868651</v>
+        <v>9513160</v>
       </c>
       <c r="K12" s="19">
         <f>+K13+K25</f>
-        <v>8935854</v>
+        <v>0</v>
       </c>
       <c r="L12" s="19">
         <f>+L13+L25</f>
-        <v>8665450</v>
+        <v>0</v>
       </c>
       <c r="M12" s="19">
         <f t="shared" ref="M12:S12" si="2">+M13+M25</f>
-        <v>8767110</v>
+        <v>0</v>
       </c>
       <c r="N12" s="19">
         <f t="shared" si="2"/>
-        <v>8832181</v>
+        <v>0</v>
       </c>
       <c r="O12" s="19">
         <f t="shared" si="2"/>
-        <v>8943389</v>
+        <v>0</v>
       </c>
       <c r="P12" s="19">
         <f t="shared" si="2"/>
-        <v>9300660</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="19">
         <f t="shared" si="2"/>
-        <v>9355236</v>
+        <v>0</v>
       </c>
       <c r="R12" s="19">
         <f t="shared" si="2"/>
-        <v>9427967</v>
+        <v>0</v>
       </c>
       <c r="S12" s="19">
         <f t="shared" si="2"/>
-        <v>9208387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1452,51 +1457,51 @@
       <c r="G13" s="18"/>
       <c r="H13" s="19">
         <f>H14+H19</f>
-        <v>300156</v>
+        <v>156</v>
       </c>
       <c r="I13" s="19">
         <f>I14+I19</f>
-        <v>300156</v>
+        <v>156</v>
       </c>
       <c r="J13" s="19">
         <f>J14+J19</f>
-        <v>300156</v>
+        <v>156</v>
       </c>
       <c r="K13" s="19">
         <f>K14+K19</f>
-        <v>300156</v>
+        <v>0</v>
       </c>
       <c r="L13" s="19">
         <f>L14+L19</f>
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="M13" s="19">
         <f t="shared" ref="M13:S13" si="3">M14+M19</f>
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="N13" s="19">
         <f t="shared" si="3"/>
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="O13" s="19">
         <f t="shared" si="3"/>
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="P13" s="19">
         <f t="shared" si="3"/>
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="19">
         <f t="shared" si="3"/>
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="R13" s="19">
         <f t="shared" si="3"/>
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="S13" s="19">
         <f t="shared" si="3"/>
-        <v>156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1509,51 +1514,51 @@
       <c r="G14" s="20"/>
       <c r="H14" s="21">
         <f>H15+H18</f>
-        <v>300156</v>
+        <v>156</v>
       </c>
       <c r="I14" s="21">
         <f>I15+I18</f>
-        <v>300156</v>
+        <v>156</v>
       </c>
       <c r="J14" s="21">
         <f>J15+J18</f>
-        <v>300156</v>
+        <v>156</v>
       </c>
       <c r="K14" s="21">
         <f>K15+K18</f>
-        <v>300156</v>
+        <v>0</v>
       </c>
       <c r="L14" s="21">
         <f>L15+L18</f>
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="M14" s="21">
         <f t="shared" ref="M14:S14" si="4">M15+M18</f>
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="N14" s="21">
         <f t="shared" si="4"/>
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="O14" s="21">
         <f t="shared" si="4"/>
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="P14" s="21">
         <f t="shared" si="4"/>
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="21">
         <f t="shared" si="4"/>
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="R14" s="21">
         <f t="shared" si="4"/>
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="S14" s="21">
         <f t="shared" si="4"/>
-        <v>156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1565,41 +1570,23 @@
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="22">
-        <v>300156</v>
+        <v>156</v>
       </c>
       <c r="I15" s="22">
-        <v>300156</v>
+        <v>156</v>
       </c>
       <c r="J15" s="22">
-        <v>300156</v>
-      </c>
-      <c r="K15" s="22">
-        <v>300156</v>
-      </c>
-      <c r="L15" s="22">
         <v>156</v>
       </c>
-      <c r="M15" s="22">
-        <v>156</v>
-      </c>
-      <c r="N15" s="22">
-        <v>156</v>
-      </c>
-      <c r="O15" s="22">
-        <v>156</v>
-      </c>
-      <c r="P15" s="22">
-        <v>156</v>
-      </c>
-      <c r="Q15" s="22">
-        <v>156</v>
-      </c>
-      <c r="R15" s="22">
-        <v>156</v>
-      </c>
-      <c r="S15" s="22">
-        <v>156</v>
-      </c>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
     </row>
     <row r="16" spans="1:19">
       <c r="C16" s="20"/>
@@ -1618,33 +1605,15 @@
       <c r="J16" s="22">
         <v>156</v>
       </c>
-      <c r="K16" s="22">
-        <v>156</v>
-      </c>
-      <c r="L16" s="22">
-        <v>156</v>
-      </c>
-      <c r="M16" s="22">
-        <v>156</v>
-      </c>
-      <c r="N16" s="22">
-        <v>156</v>
-      </c>
-      <c r="O16" s="22">
-        <v>156</v>
-      </c>
-      <c r="P16" s="22">
-        <v>156</v>
-      </c>
-      <c r="Q16" s="22">
-        <v>156</v>
-      </c>
-      <c r="R16" s="22">
-        <v>156</v>
-      </c>
-      <c r="S16" s="22">
-        <v>156</v>
-      </c>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
     </row>
     <row r="17" spans="3:19">
       <c r="C17" s="20"/>
@@ -1655,41 +1624,23 @@
         <v>17</v>
       </c>
       <c r="H17" s="22">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="I17" s="22">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="J17" s="22">
-        <v>300000</v>
-      </c>
-      <c r="K17" s="22">
-        <v>300000</v>
-      </c>
-      <c r="L17" s="22">
-        <v>0</v>
-      </c>
-      <c r="M17" s="22">
-        <v>0</v>
-      </c>
-      <c r="N17" s="22">
-        <v>0</v>
-      </c>
-      <c r="O17" s="22">
-        <v>0</v>
-      </c>
-      <c r="P17" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="22">
-        <v>0</v>
-      </c>
-      <c r="R17" s="22">
-        <v>0</v>
-      </c>
-      <c r="S17" s="22">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
     </row>
     <row r="18" spans="3:19">
       <c r="C18" s="20"/>
@@ -1708,33 +1659,15 @@
       <c r="J18" s="22">
         <v>0</v>
       </c>
-      <c r="K18" s="22">
-        <v>0</v>
-      </c>
-      <c r="L18" s="22">
-        <v>0</v>
-      </c>
-      <c r="M18" s="22">
-        <v>0</v>
-      </c>
-      <c r="N18" s="22">
-        <v>0</v>
-      </c>
-      <c r="O18" s="22">
-        <v>0</v>
-      </c>
-      <c r="P18" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="22">
-        <v>0</v>
-      </c>
-      <c r="R18" s="22">
-        <v>0</v>
-      </c>
-      <c r="S18" s="22">
-        <v>0</v>
-      </c>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
     </row>
     <row r="19" spans="3:19">
       <c r="C19" s="20"/>
@@ -1789,9 +1722,15 @@
         <v>20</v>
       </c>
       <c r="G20" s="20"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
+      <c r="H20" s="22">
+        <v>0</v>
+      </c>
+      <c r="I20" s="22">
+        <v>0</v>
+      </c>
+      <c r="J20" s="22">
+        <v>0</v>
+      </c>
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
@@ -1810,9 +1749,15 @@
         <v>21</v>
       </c>
       <c r="G21" s="20"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
+      <c r="H21" s="22">
+        <v>0</v>
+      </c>
+      <c r="I21" s="22">
+        <v>0</v>
+      </c>
+      <c r="J21" s="22">
+        <v>0</v>
+      </c>
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
       <c r="M21" s="22"/>
@@ -1913,41 +1858,23 @@
       <c r="F25" s="20"/>
       <c r="G25" s="20"/>
       <c r="H25" s="22">
-        <v>8067632</v>
+        <v>9384785</v>
       </c>
       <c r="I25" s="22">
-        <v>8113048</v>
+        <v>9442006</v>
       </c>
       <c r="J25" s="24">
-        <v>8568495</v>
-      </c>
-      <c r="K25" s="24">
-        <v>8635698</v>
-      </c>
-      <c r="L25" s="24">
-        <v>8665294</v>
-      </c>
-      <c r="M25" s="24">
-        <v>8766954</v>
-      </c>
-      <c r="N25" s="24">
-        <v>8832025</v>
-      </c>
-      <c r="O25" s="24">
-        <v>8943233</v>
-      </c>
-      <c r="P25" s="24">
-        <v>9300504</v>
-      </c>
-      <c r="Q25" s="24">
-        <v>9355080</v>
-      </c>
-      <c r="R25" s="24">
-        <v>9427811</v>
-      </c>
-      <c r="S25" s="24">
-        <v>9208231</v>
-      </c>
+        <v>9513004</v>
+      </c>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
     </row>
     <row r="26" spans="3:19">
       <c r="C26" s="20"/>
@@ -1978,51 +1905,51 @@
       <c r="G27" s="18"/>
       <c r="H27" s="19">
         <f>H28+H34</f>
-        <v>3661884</v>
+        <v>4313553</v>
       </c>
       <c r="I27" s="19">
         <f>I28+I34</f>
-        <v>3680296</v>
+        <v>4310592</v>
       </c>
       <c r="J27" s="19">
         <f>J28+J34</f>
-        <v>3811134</v>
+        <v>4343736</v>
       </c>
       <c r="K27" s="19">
         <f>K28+K34</f>
-        <v>3827333</v>
+        <v>0</v>
       </c>
       <c r="L27" s="19">
         <f>L28+L34</f>
-        <v>3830322</v>
+        <v>0</v>
       </c>
       <c r="M27" s="19">
         <f t="shared" ref="M27:S27" si="5">M28+M34</f>
-        <v>4024719</v>
+        <v>0</v>
       </c>
       <c r="N27" s="19">
         <f t="shared" si="5"/>
-        <v>4055737</v>
+        <v>0</v>
       </c>
       <c r="O27" s="19">
         <f t="shared" si="5"/>
-        <v>4078165</v>
+        <v>0</v>
       </c>
       <c r="P27" s="19">
         <f t="shared" si="5"/>
-        <v>4216440</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="19">
         <f t="shared" si="5"/>
-        <v>4285783</v>
+        <v>0</v>
       </c>
       <c r="R27" s="19">
         <f t="shared" si="5"/>
-        <v>4216197</v>
+        <v>0</v>
       </c>
       <c r="S27" s="19">
         <f t="shared" si="5"/>
-        <v>4210473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="3:19" s="23" customFormat="1">
@@ -2035,51 +1962,51 @@
       <c r="G28" s="20"/>
       <c r="H28" s="21">
         <f>H29+H32</f>
-        <v>1673954</v>
+        <v>1868183</v>
       </c>
       <c r="I28" s="21">
         <f>I29+I32</f>
-        <v>1684137</v>
+        <v>1883078</v>
       </c>
       <c r="J28" s="21">
         <f>J29+J32</f>
-        <v>1686930</v>
+        <v>1947472</v>
       </c>
       <c r="K28" s="21">
         <f>K29+K32</f>
-        <v>1675248</v>
+        <v>0</v>
       </c>
       <c r="L28" s="21">
         <f>L29+L32</f>
-        <v>1690029</v>
+        <v>0</v>
       </c>
       <c r="M28" s="21">
         <f t="shared" ref="M28:S28" si="6">M29+M32</f>
-        <v>1795604</v>
+        <v>0</v>
       </c>
       <c r="N28" s="21">
         <f t="shared" si="6"/>
-        <v>1816698</v>
+        <v>0</v>
       </c>
       <c r="O28" s="21">
         <f t="shared" si="6"/>
-        <v>1826918</v>
+        <v>0</v>
       </c>
       <c r="P28" s="21">
         <f t="shared" si="6"/>
-        <v>1890917</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="21">
         <f t="shared" si="6"/>
-        <v>1867412</v>
+        <v>0</v>
       </c>
       <c r="R28" s="21">
         <f t="shared" si="6"/>
-        <v>1868100</v>
+        <v>0</v>
       </c>
       <c r="S28" s="21">
         <f t="shared" si="6"/>
-        <v>1883023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="3:19">
@@ -2092,51 +2019,51 @@
       <c r="G29" s="20"/>
       <c r="H29" s="25">
         <f>+H30+H31</f>
-        <v>1673954</v>
+        <v>1868183</v>
       </c>
       <c r="I29" s="25">
         <f>+I30+I31</f>
-        <v>1684137</v>
+        <v>1883078</v>
       </c>
       <c r="J29" s="25">
         <f>+J30+J31</f>
-        <v>1686930</v>
+        <v>1947472</v>
       </c>
       <c r="K29" s="25">
         <f>+K30+K31</f>
-        <v>1675248</v>
+        <v>0</v>
       </c>
       <c r="L29" s="25">
         <f>+L30+L31</f>
-        <v>1690029</v>
+        <v>0</v>
       </c>
       <c r="M29" s="25">
         <f t="shared" ref="M29:S29" si="7">+M30+M31</f>
-        <v>1795604</v>
+        <v>0</v>
       </c>
       <c r="N29" s="25">
         <f t="shared" si="7"/>
-        <v>1816698</v>
+        <v>0</v>
       </c>
       <c r="O29" s="25">
         <f t="shared" si="7"/>
-        <v>1826918</v>
+        <v>0</v>
       </c>
       <c r="P29" s="25">
         <f t="shared" si="7"/>
-        <v>1890917</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="25">
         <f t="shared" si="7"/>
-        <v>1867412</v>
+        <v>0</v>
       </c>
       <c r="R29" s="25">
         <f t="shared" si="7"/>
-        <v>1868100</v>
+        <v>0</v>
       </c>
       <c r="S29" s="25">
         <f t="shared" si="7"/>
-        <v>1883023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="3:19">
@@ -2148,41 +2075,23 @@
       </c>
       <c r="G30" s="20"/>
       <c r="H30" s="22">
-        <v>1657745</v>
+        <v>1854710</v>
       </c>
       <c r="I30" s="22">
-        <v>1668100</v>
+        <v>1870244</v>
       </c>
       <c r="J30" s="24">
-        <v>1671980</v>
-      </c>
-      <c r="K30" s="24">
-        <v>1661314</v>
-      </c>
-      <c r="L30" s="24">
-        <v>1675941</v>
-      </c>
-      <c r="M30" s="24">
-        <v>1781701</v>
-      </c>
-      <c r="N30" s="24">
-        <v>1802465</v>
-      </c>
-      <c r="O30" s="24">
-        <v>1813260</v>
-      </c>
-      <c r="P30" s="24">
-        <v>1877554</v>
-      </c>
-      <c r="Q30" s="24">
-        <v>1854675</v>
-      </c>
-      <c r="R30" s="24">
-        <v>1854770</v>
-      </c>
-      <c r="S30" s="24">
-        <v>1869315</v>
-      </c>
+        <v>1934917</v>
+      </c>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="24"/>
+      <c r="S30" s="24"/>
     </row>
     <row r="31" spans="3:19">
       <c r="C31" s="20"/>
@@ -2193,41 +2102,23 @@
       </c>
       <c r="G31" s="20"/>
       <c r="H31" s="22">
-        <v>16209</v>
+        <v>13473</v>
       </c>
       <c r="I31" s="22">
-        <v>16037</v>
+        <v>12834</v>
       </c>
       <c r="J31" s="24">
-        <v>14950</v>
-      </c>
-      <c r="K31" s="24">
-        <v>13934</v>
-      </c>
-      <c r="L31" s="24">
-        <v>14088</v>
-      </c>
-      <c r="M31" s="24">
-        <v>13903</v>
-      </c>
-      <c r="N31" s="24">
-        <v>14233</v>
-      </c>
-      <c r="O31" s="24">
-        <v>13658</v>
-      </c>
-      <c r="P31" s="24">
-        <v>13363</v>
-      </c>
-      <c r="Q31" s="24">
-        <v>12737</v>
-      </c>
-      <c r="R31" s="24">
-        <v>13330</v>
-      </c>
-      <c r="S31" s="24">
-        <v>13708</v>
-      </c>
+        <v>12555</v>
+      </c>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="24"/>
+      <c r="S31" s="24"/>
     </row>
     <row r="32" spans="3:19">
       <c r="C32" s="20"/>
@@ -2302,41 +2193,23 @@
       <c r="F34" s="20"/>
       <c r="G34" s="20"/>
       <c r="H34" s="22">
-        <v>1987930</v>
+        <v>2445370</v>
       </c>
       <c r="I34" s="22">
-        <v>1996159</v>
+        <v>2427514</v>
       </c>
       <c r="J34" s="24">
-        <v>2124204</v>
-      </c>
-      <c r="K34" s="24">
-        <v>2152085</v>
-      </c>
-      <c r="L34" s="24">
-        <v>2140293</v>
-      </c>
-      <c r="M34" s="24">
-        <v>2229115</v>
-      </c>
-      <c r="N34" s="24">
-        <v>2239039</v>
-      </c>
-      <c r="O34" s="24">
-        <v>2251247</v>
-      </c>
-      <c r="P34" s="24">
-        <v>2325523</v>
-      </c>
-      <c r="Q34" s="24">
-        <v>2418371</v>
-      </c>
-      <c r="R34" s="24">
-        <v>2348097</v>
-      </c>
-      <c r="S34" s="24">
-        <v>2327450</v>
-      </c>
+        <v>2396264</v>
+      </c>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="24"/>
+      <c r="S34" s="24"/>
     </row>
     <row r="35" spans="1:19">
       <c r="C35" s="18"/>
@@ -2369,51 +2242,51 @@
       <c r="G37" s="74"/>
       <c r="H37" s="75">
         <f>+H38+H42</f>
-        <v>422516</v>
+        <v>393835</v>
       </c>
       <c r="I37" s="75">
         <f>+I38+I42</f>
-        <v>416204</v>
+        <v>387190</v>
       </c>
       <c r="J37" s="75">
         <f>+J38+J42</f>
-        <v>411044</v>
+        <v>384118</v>
       </c>
       <c r="K37" s="75">
         <f>+K38+K42</f>
-        <v>413428</v>
+        <v>0</v>
       </c>
       <c r="L37" s="75">
         <f>+L38+L42</f>
-        <v>399716</v>
+        <v>0</v>
       </c>
       <c r="M37" s="75">
         <f t="shared" ref="M37:S37" si="8">+M38+M42</f>
-        <v>413927</v>
+        <v>0</v>
       </c>
       <c r="N37" s="75">
         <f t="shared" si="8"/>
-        <v>407999</v>
+        <v>0</v>
       </c>
       <c r="O37" s="75">
         <f t="shared" si="8"/>
-        <v>392759</v>
+        <v>0</v>
       </c>
       <c r="P37" s="75">
         <f t="shared" si="8"/>
-        <v>397220</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="75">
         <f t="shared" si="8"/>
-        <v>386534</v>
+        <v>0</v>
       </c>
       <c r="R37" s="75">
         <f t="shared" si="8"/>
-        <v>388000</v>
+        <v>0</v>
       </c>
       <c r="S37" s="75">
         <f t="shared" si="8"/>
-        <v>399046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:19" s="30" customFormat="1" ht="14.25" customHeight="1">
@@ -2422,51 +2295,51 @@
       </c>
       <c r="H38" s="29">
         <f>+H39+H40</f>
-        <v>192957</v>
+        <v>204654</v>
       </c>
       <c r="I38" s="29">
         <f>+I39+I40</f>
-        <v>188890</v>
+        <v>202093</v>
       </c>
       <c r="J38" s="29">
         <f>+J39+J40</f>
-        <v>188135</v>
+        <v>202083</v>
       </c>
       <c r="K38" s="29">
         <f>+K39+K40</f>
-        <v>194292</v>
+        <v>0</v>
       </c>
       <c r="L38" s="29">
         <f>+L39+L40</f>
-        <v>185885</v>
+        <v>0</v>
       </c>
       <c r="M38" s="29">
         <f t="shared" ref="M38:S38" si="9">+M39+M40</f>
-        <v>195224</v>
+        <v>0</v>
       </c>
       <c r="N38" s="29">
         <f t="shared" si="9"/>
-        <v>186657</v>
+        <v>0</v>
       </c>
       <c r="O38" s="29">
         <f t="shared" si="9"/>
-        <v>182231</v>
+        <v>0</v>
       </c>
       <c r="P38" s="29">
         <f t="shared" si="9"/>
-        <v>182218</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="29">
         <f t="shared" si="9"/>
-        <v>174920</v>
+        <v>0</v>
       </c>
       <c r="R38" s="29">
         <f t="shared" si="9"/>
-        <v>179579</v>
+        <v>0</v>
       </c>
       <c r="S38" s="29">
         <f t="shared" si="9"/>
-        <v>205765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:19" s="23" customFormat="1">
@@ -2474,41 +2347,23 @@
         <v>28</v>
       </c>
       <c r="H39" s="31">
-        <v>192821</v>
+        <v>204518</v>
       </c>
       <c r="I39" s="31">
-        <v>188754</v>
+        <v>201957</v>
       </c>
       <c r="J39" s="31">
-        <v>187999</v>
-      </c>
-      <c r="K39" s="31">
-        <v>194156</v>
-      </c>
-      <c r="L39" s="31">
-        <v>185749</v>
-      </c>
-      <c r="M39" s="31">
-        <v>195088</v>
-      </c>
-      <c r="N39" s="31">
-        <v>186521</v>
-      </c>
-      <c r="O39" s="31">
-        <v>182095</v>
-      </c>
-      <c r="P39" s="31">
-        <v>182082</v>
-      </c>
-      <c r="Q39" s="31">
-        <v>174784</v>
-      </c>
-      <c r="R39" s="31">
-        <v>179443</v>
-      </c>
-      <c r="S39" s="31">
-        <v>205629</v>
-      </c>
+        <v>201947</v>
+      </c>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="31"/>
+      <c r="R39" s="31"/>
+      <c r="S39" s="31"/>
     </row>
     <row r="40" spans="1:19" s="23" customFormat="1" ht="12.75" customHeight="1">
       <c r="E40" s="23" t="s">
@@ -2523,33 +2378,15 @@
       <c r="J40" s="31">
         <v>136</v>
       </c>
-      <c r="K40" s="31">
-        <v>136</v>
-      </c>
-      <c r="L40" s="31">
-        <v>136</v>
-      </c>
-      <c r="M40" s="31">
-        <v>136</v>
-      </c>
-      <c r="N40" s="31">
-        <v>136</v>
-      </c>
-      <c r="O40" s="31">
-        <v>136</v>
-      </c>
-      <c r="P40" s="31">
-        <v>136</v>
-      </c>
-      <c r="Q40" s="31">
-        <v>136</v>
-      </c>
-      <c r="R40" s="31">
-        <v>136</v>
-      </c>
-      <c r="S40" s="31">
-        <v>136</v>
-      </c>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="31"/>
+      <c r="Q40" s="31"/>
+      <c r="R40" s="31"/>
+      <c r="S40" s="31"/>
     </row>
     <row r="41" spans="1:19">
       <c r="E41" s="15"/>
@@ -2574,51 +2411,51 @@
       </c>
       <c r="H42" s="29">
         <f>+H43+H44</f>
-        <v>229559</v>
+        <v>189181</v>
       </c>
       <c r="I42" s="29">
         <f>+I43+I44</f>
-        <v>227314</v>
+        <v>185097</v>
       </c>
       <c r="J42" s="29">
         <f>+J43+J44</f>
-        <v>222909</v>
+        <v>182035</v>
       </c>
       <c r="K42" s="29">
         <f>+K43+K44</f>
-        <v>219136</v>
+        <v>0</v>
       </c>
       <c r="L42" s="29">
         <f>+L43+L44</f>
-        <v>213831</v>
+        <v>0</v>
       </c>
       <c r="M42" s="29">
         <f t="shared" ref="M42:S42" si="10">+M43+M44</f>
-        <v>218703</v>
+        <v>0</v>
       </c>
       <c r="N42" s="29">
         <f t="shared" si="10"/>
-        <v>221342</v>
+        <v>0</v>
       </c>
       <c r="O42" s="29">
         <f t="shared" si="10"/>
-        <v>210528</v>
+        <v>0</v>
       </c>
       <c r="P42" s="29">
         <f t="shared" si="10"/>
-        <v>215002</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="29">
         <f t="shared" si="10"/>
-        <v>211614</v>
+        <v>0</v>
       </c>
       <c r="R42" s="29">
         <f t="shared" si="10"/>
-        <v>208421</v>
+        <v>0</v>
       </c>
       <c r="S42" s="29">
         <f t="shared" si="10"/>
-        <v>193281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:19" s="31" customFormat="1">
@@ -2626,40 +2463,13 @@
         <v>28</v>
       </c>
       <c r="H43" s="31">
-        <v>225185</v>
+        <v>184515</v>
       </c>
       <c r="I43" s="31">
-        <v>222919</v>
+        <v>180377</v>
       </c>
       <c r="J43" s="31">
-        <v>218470</v>
-      </c>
-      <c r="K43" s="31">
-        <v>214661</v>
-      </c>
-      <c r="L43" s="31">
-        <v>209349</v>
-      </c>
-      <c r="M43" s="31">
-        <v>214003</v>
-      </c>
-      <c r="N43" s="31">
-        <v>216613</v>
-      </c>
-      <c r="O43" s="31">
-        <v>205727</v>
-      </c>
-      <c r="P43" s="31">
-        <v>209991</v>
-      </c>
-      <c r="Q43" s="31">
-        <v>206654</v>
-      </c>
-      <c r="R43" s="31">
-        <v>203583</v>
-      </c>
-      <c r="S43" s="31">
-        <v>188510</v>
+        <v>177391</v>
       </c>
     </row>
     <row r="44" spans="1:19" s="31" customFormat="1" ht="12.75" customHeight="1">
@@ -2667,40 +2477,13 @@
         <v>29</v>
       </c>
       <c r="H44" s="31">
-        <v>4374</v>
+        <v>4666</v>
       </c>
       <c r="I44" s="31">
-        <v>4395</v>
+        <v>4720</v>
       </c>
       <c r="J44" s="31">
-        <v>4439</v>
-      </c>
-      <c r="K44" s="31">
-        <v>4475</v>
-      </c>
-      <c r="L44" s="31">
-        <v>4482</v>
-      </c>
-      <c r="M44" s="31">
-        <v>4700</v>
-      </c>
-      <c r="N44" s="31">
-        <v>4729</v>
-      </c>
-      <c r="O44" s="31">
-        <v>4801</v>
-      </c>
-      <c r="P44" s="31">
-        <v>5011</v>
-      </c>
-      <c r="Q44" s="31">
-        <v>4960</v>
-      </c>
-      <c r="R44" s="31">
-        <v>4838</v>
-      </c>
-      <c r="S44" s="31">
-        <v>4771</v>
+        <v>4644</v>
       </c>
     </row>
     <row r="47" spans="1:19">
@@ -2796,6 +2579,1735 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:T187"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:S34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="5" width="1.140625" customWidth="1"/>
+    <col min="6" max="6" width="2.5703125" customWidth="1"/>
+    <col min="7" max="7" width="31.7109375" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="11" width="9.85546875" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" customWidth="1"/>
+    <col min="18" max="19" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="15.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:19" ht="16.5" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:19" ht="12" customHeight="1">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:19" ht="18" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="93" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
+    </row>
+    <row r="6" spans="1:19" ht="18" customHeight="1">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="9" customHeight="1">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="1:19" s="15" customFormat="1">
+      <c r="A8" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="14">
+        <f t="shared" ref="H8:S8" si="0">+H10+H34</f>
+        <v>6073233.2460000003</v>
+      </c>
+      <c r="I8" s="14">
+        <f t="shared" si="0"/>
+        <v>6065942</v>
+      </c>
+      <c r="J8" s="14">
+        <f t="shared" si="0"/>
+        <v>6099839.7369999997</v>
+      </c>
+      <c r="K8" s="14">
+        <f t="shared" si="0"/>
+        <v>6108352.3650000002</v>
+      </c>
+      <c r="L8" s="14">
+        <f t="shared" si="0"/>
+        <v>6097088</v>
+      </c>
+      <c r="M8" s="14">
+        <f t="shared" si="0"/>
+        <v>6113128</v>
+      </c>
+      <c r="N8" s="14">
+        <f t="shared" si="0"/>
+        <v>6139890</v>
+      </c>
+      <c r="O8" s="14">
+        <f t="shared" si="0"/>
+        <v>6170771</v>
+      </c>
+      <c r="P8" s="14">
+        <f t="shared" si="0"/>
+        <v>6179354</v>
+      </c>
+      <c r="Q8" s="14">
+        <f t="shared" si="0"/>
+        <v>6159960</v>
+      </c>
+      <c r="R8" s="14">
+        <f t="shared" si="0"/>
+        <v>6148521</v>
+      </c>
+      <c r="S8" s="14">
+        <f t="shared" si="0"/>
+        <v>6286314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="15" customFormat="1">
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+    </row>
+    <row r="10" spans="1:19" ht="12.75" customHeight="1">
+      <c r="B10" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="72">
+        <f>+H12+H25+1</f>
+        <v>5593748</v>
+      </c>
+      <c r="I10" s="72">
+        <f t="shared" ref="I10:S10" si="1">+I12+I25</f>
+        <v>5591534</v>
+      </c>
+      <c r="J10" s="72">
+        <f t="shared" si="1"/>
+        <v>5628425</v>
+      </c>
+      <c r="K10" s="72">
+        <f t="shared" si="1"/>
+        <v>5640224</v>
+      </c>
+      <c r="L10" s="72">
+        <f t="shared" si="1"/>
+        <v>5632603</v>
+      </c>
+      <c r="M10" s="72">
+        <f t="shared" si="1"/>
+        <v>5650882</v>
+      </c>
+      <c r="N10" s="72">
+        <f t="shared" si="1"/>
+        <v>5683003</v>
+      </c>
+      <c r="O10" s="72">
+        <f t="shared" si="1"/>
+        <v>5713545</v>
+      </c>
+      <c r="P10" s="72">
+        <f t="shared" si="1"/>
+        <v>5723006</v>
+      </c>
+      <c r="Q10" s="72">
+        <f t="shared" si="1"/>
+        <v>5713604</v>
+      </c>
+      <c r="R10" s="72">
+        <f t="shared" si="1"/>
+        <v>5716299</v>
+      </c>
+      <c r="S10" s="72">
+        <f t="shared" si="1"/>
+        <v>5735242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="6.95" customHeight="1">
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="C12" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="19">
+        <f t="shared" ref="H12:S12" si="2">+H13+H23</f>
+        <v>3620441</v>
+      </c>
+      <c r="I12" s="19">
+        <f t="shared" si="2"/>
+        <v>3644286</v>
+      </c>
+      <c r="J12" s="19">
+        <f t="shared" si="2"/>
+        <v>3662321</v>
+      </c>
+      <c r="K12" s="19">
+        <f t="shared" si="2"/>
+        <v>3686262</v>
+      </c>
+      <c r="L12" s="19">
+        <f t="shared" si="2"/>
+        <v>3705871</v>
+      </c>
+      <c r="M12" s="19">
+        <f t="shared" si="2"/>
+        <v>3731795</v>
+      </c>
+      <c r="N12" s="19">
+        <f t="shared" si="2"/>
+        <v>3757031</v>
+      </c>
+      <c r="O12" s="19">
+        <f t="shared" si="2"/>
+        <v>3777846</v>
+      </c>
+      <c r="P12" s="19">
+        <f t="shared" si="2"/>
+        <v>3759345</v>
+      </c>
+      <c r="Q12" s="19">
+        <f t="shared" si="2"/>
+        <v>3756047</v>
+      </c>
+      <c r="R12" s="19">
+        <f t="shared" si="2"/>
+        <v>3789325</v>
+      </c>
+      <c r="S12" s="19">
+        <f t="shared" si="2"/>
+        <v>3820603</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="C13" s="18"/>
+      <c r="D13" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19">
+        <f t="shared" ref="H13:S13" si="3">H14+H17</f>
+        <v>598</v>
+      </c>
+      <c r="I13" s="19">
+        <f t="shared" si="3"/>
+        <v>598</v>
+      </c>
+      <c r="J13" s="19">
+        <f t="shared" si="3"/>
+        <v>598</v>
+      </c>
+      <c r="K13" s="19">
+        <f t="shared" si="3"/>
+        <v>598</v>
+      </c>
+      <c r="L13" s="19">
+        <f t="shared" si="3"/>
+        <v>598</v>
+      </c>
+      <c r="M13" s="19">
+        <f t="shared" si="3"/>
+        <v>598</v>
+      </c>
+      <c r="N13" s="19">
+        <f t="shared" si="3"/>
+        <v>598</v>
+      </c>
+      <c r="O13" s="19">
+        <f t="shared" si="3"/>
+        <v>598</v>
+      </c>
+      <c r="P13" s="19">
+        <f t="shared" si="3"/>
+        <v>598</v>
+      </c>
+      <c r="Q13" s="19">
+        <f t="shared" si="3"/>
+        <v>598</v>
+      </c>
+      <c r="R13" s="19">
+        <f t="shared" si="3"/>
+        <v>598</v>
+      </c>
+      <c r="S13" s="19">
+        <f t="shared" si="3"/>
+        <v>598</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21">
+        <f t="shared" ref="H14:S14" si="4">H15+H16</f>
+        <v>156</v>
+      </c>
+      <c r="I14" s="21">
+        <f t="shared" si="4"/>
+        <v>156</v>
+      </c>
+      <c r="J14" s="21">
+        <f t="shared" si="4"/>
+        <v>156</v>
+      </c>
+      <c r="K14" s="21">
+        <f t="shared" si="4"/>
+        <v>156</v>
+      </c>
+      <c r="L14" s="21">
+        <f t="shared" si="4"/>
+        <v>156</v>
+      </c>
+      <c r="M14" s="21">
+        <f t="shared" si="4"/>
+        <v>156</v>
+      </c>
+      <c r="N14" s="21">
+        <f t="shared" si="4"/>
+        <v>156</v>
+      </c>
+      <c r="O14" s="21">
+        <f t="shared" si="4"/>
+        <v>156</v>
+      </c>
+      <c r="P14" s="21">
+        <f t="shared" si="4"/>
+        <v>156</v>
+      </c>
+      <c r="Q14" s="21">
+        <f t="shared" si="4"/>
+        <v>156</v>
+      </c>
+      <c r="R14" s="21">
+        <f t="shared" si="4"/>
+        <v>156</v>
+      </c>
+      <c r="S14" s="21">
+        <f t="shared" si="4"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="20"/>
+      <c r="H15" s="22">
+        <v>156</v>
+      </c>
+      <c r="I15" s="22">
+        <v>156</v>
+      </c>
+      <c r="J15" s="22">
+        <v>156</v>
+      </c>
+      <c r="K15" s="22">
+        <v>156</v>
+      </c>
+      <c r="L15" s="22">
+        <v>156</v>
+      </c>
+      <c r="M15" s="22">
+        <v>156</v>
+      </c>
+      <c r="N15" s="22">
+        <v>156</v>
+      </c>
+      <c r="O15" s="22">
+        <v>156</v>
+      </c>
+      <c r="P15" s="22">
+        <v>156</v>
+      </c>
+      <c r="Q15" s="22">
+        <v>156</v>
+      </c>
+      <c r="R15" s="22">
+        <v>156</v>
+      </c>
+      <c r="S15" s="22">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="22">
+        <v>0</v>
+      </c>
+      <c r="I16" s="22">
+        <v>0</v>
+      </c>
+      <c r="J16" s="22">
+        <v>0</v>
+      </c>
+      <c r="K16" s="22">
+        <v>0</v>
+      </c>
+      <c r="L16" s="22">
+        <v>0</v>
+      </c>
+      <c r="M16" s="22">
+        <v>0</v>
+      </c>
+      <c r="N16" s="22">
+        <v>0</v>
+      </c>
+      <c r="O16" s="22">
+        <v>0</v>
+      </c>
+      <c r="P16" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="22">
+        <v>0</v>
+      </c>
+      <c r="R16" s="22">
+        <v>0</v>
+      </c>
+      <c r="S16" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:19">
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="21">
+        <f t="shared" ref="H17:S17" si="5">SUM(H18:H21)</f>
+        <v>442</v>
+      </c>
+      <c r="I17" s="21">
+        <f t="shared" si="5"/>
+        <v>442</v>
+      </c>
+      <c r="J17" s="21">
+        <f t="shared" si="5"/>
+        <v>442</v>
+      </c>
+      <c r="K17" s="21">
+        <f t="shared" si="5"/>
+        <v>442</v>
+      </c>
+      <c r="L17" s="21">
+        <f t="shared" si="5"/>
+        <v>442</v>
+      </c>
+      <c r="M17" s="21">
+        <f t="shared" si="5"/>
+        <v>442</v>
+      </c>
+      <c r="N17" s="21">
+        <f t="shared" si="5"/>
+        <v>442</v>
+      </c>
+      <c r="O17" s="21">
+        <f t="shared" si="5"/>
+        <v>442</v>
+      </c>
+      <c r="P17" s="21">
+        <f t="shared" si="5"/>
+        <v>442</v>
+      </c>
+      <c r="Q17" s="21">
+        <f t="shared" si="5"/>
+        <v>442</v>
+      </c>
+      <c r="R17" s="21">
+        <f t="shared" si="5"/>
+        <v>442</v>
+      </c>
+      <c r="S17" s="21">
+        <f t="shared" si="5"/>
+        <v>442</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19">
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="20"/>
+      <c r="H18" s="56">
+        <v>0</v>
+      </c>
+      <c r="I18" s="56">
+        <v>0</v>
+      </c>
+      <c r="J18" s="56">
+        <v>0</v>
+      </c>
+      <c r="K18" s="56">
+        <v>0</v>
+      </c>
+      <c r="L18" s="56">
+        <v>0</v>
+      </c>
+      <c r="M18" s="56">
+        <v>0</v>
+      </c>
+      <c r="N18" s="56">
+        <v>0</v>
+      </c>
+      <c r="O18" s="56">
+        <v>0</v>
+      </c>
+      <c r="P18" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="56">
+        <v>0</v>
+      </c>
+      <c r="R18" s="56">
+        <v>0</v>
+      </c>
+      <c r="S18" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19">
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="20"/>
+      <c r="H19" s="56">
+        <v>442</v>
+      </c>
+      <c r="I19" s="56">
+        <v>442</v>
+      </c>
+      <c r="J19" s="22">
+        <v>442</v>
+      </c>
+      <c r="K19" s="22">
+        <v>442</v>
+      </c>
+      <c r="L19" s="22">
+        <v>442</v>
+      </c>
+      <c r="M19" s="22">
+        <v>442</v>
+      </c>
+      <c r="N19" s="22">
+        <v>442</v>
+      </c>
+      <c r="O19" s="22">
+        <v>442</v>
+      </c>
+      <c r="P19" s="22">
+        <v>442</v>
+      </c>
+      <c r="Q19" s="22">
+        <v>442</v>
+      </c>
+      <c r="R19" s="22">
+        <v>442</v>
+      </c>
+      <c r="S19" s="22">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="20" spans="3:19" hidden="1">
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="20"/>
+      <c r="H20" s="22">
+        <v>0</v>
+      </c>
+      <c r="I20" s="22">
+        <v>0</v>
+      </c>
+      <c r="J20" s="22">
+        <v>0</v>
+      </c>
+      <c r="K20" s="22">
+        <v>0</v>
+      </c>
+      <c r="L20" s="22">
+        <v>0</v>
+      </c>
+      <c r="M20" s="22">
+        <v>0</v>
+      </c>
+      <c r="N20" s="22">
+        <v>0</v>
+      </c>
+      <c r="O20" s="22">
+        <v>0</v>
+      </c>
+      <c r="P20" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="22">
+        <v>0</v>
+      </c>
+      <c r="R20" s="22">
+        <v>0</v>
+      </c>
+      <c r="S20" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" hidden="1">
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="20"/>
+      <c r="H21" s="22">
+        <v>0</v>
+      </c>
+      <c r="I21" s="22">
+        <v>0</v>
+      </c>
+      <c r="J21" s="22">
+        <v>0</v>
+      </c>
+      <c r="K21" s="22">
+        <v>0</v>
+      </c>
+      <c r="L21" s="22">
+        <v>0</v>
+      </c>
+      <c r="M21" s="22">
+        <v>0</v>
+      </c>
+      <c r="N21" s="22">
+        <v>0</v>
+      </c>
+      <c r="O21" s="22">
+        <v>0</v>
+      </c>
+      <c r="P21" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="22">
+        <v>0</v>
+      </c>
+      <c r="R21" s="22">
+        <v>0</v>
+      </c>
+      <c r="S21" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" ht="6.95" customHeight="1">
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+    </row>
+    <row r="23" spans="3:19" s="23" customFormat="1">
+      <c r="C23" s="20"/>
+      <c r="D23" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="67">
+        <v>3619843</v>
+      </c>
+      <c r="I23" s="67">
+        <v>3643688</v>
+      </c>
+      <c r="J23" s="67">
+        <v>3661723</v>
+      </c>
+      <c r="K23" s="67">
+        <v>3685664</v>
+      </c>
+      <c r="L23" s="67">
+        <v>3705273</v>
+      </c>
+      <c r="M23" s="67">
+        <v>3731197</v>
+      </c>
+      <c r="N23" s="67">
+        <v>3756433</v>
+      </c>
+      <c r="O23" s="67">
+        <v>3777248</v>
+      </c>
+      <c r="P23" s="67">
+        <v>3758747</v>
+      </c>
+      <c r="Q23" s="67">
+        <v>3755449</v>
+      </c>
+      <c r="R23" s="67">
+        <v>3788727</v>
+      </c>
+      <c r="S23" s="67">
+        <v>3820005</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19">
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+    </row>
+    <row r="25" spans="3:19">
+      <c r="C25" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="19">
+        <f>H26+H32</f>
+        <v>1973306</v>
+      </c>
+      <c r="I25" s="19">
+        <f>I26+I32</f>
+        <v>1947248</v>
+      </c>
+      <c r="J25" s="19">
+        <f>J26+J32</f>
+        <v>1966104</v>
+      </c>
+      <c r="K25" s="19">
+        <f>K26+K32</f>
+        <v>1953962</v>
+      </c>
+      <c r="L25" s="19">
+        <f>L26+L32</f>
+        <v>1926732</v>
+      </c>
+      <c r="M25" s="19">
+        <f t="shared" ref="M25:S25" si="6">M26+M32</f>
+        <v>1919087</v>
+      </c>
+      <c r="N25" s="19">
+        <f t="shared" si="6"/>
+        <v>1925972</v>
+      </c>
+      <c r="O25" s="19">
+        <f t="shared" si="6"/>
+        <v>1935699</v>
+      </c>
+      <c r="P25" s="19">
+        <f t="shared" si="6"/>
+        <v>1963661</v>
+      </c>
+      <c r="Q25" s="19">
+        <f t="shared" si="6"/>
+        <v>1957557</v>
+      </c>
+      <c r="R25" s="19">
+        <f t="shared" si="6"/>
+        <v>1926974</v>
+      </c>
+      <c r="S25" s="19">
+        <f t="shared" si="6"/>
+        <v>1914639</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" s="23" customFormat="1">
+      <c r="C26" s="20"/>
+      <c r="D26" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="21">
+        <f>H27+H30</f>
+        <v>719517</v>
+      </c>
+      <c r="I26" s="21">
+        <f t="shared" ref="I26:S26" si="7">I27+I30</f>
+        <v>706979</v>
+      </c>
+      <c r="J26" s="21">
+        <f t="shared" si="7"/>
+        <v>719843</v>
+      </c>
+      <c r="K26" s="21">
+        <f t="shared" si="7"/>
+        <v>717437</v>
+      </c>
+      <c r="L26" s="21">
+        <f t="shared" si="7"/>
+        <v>705212</v>
+      </c>
+      <c r="M26" s="21">
+        <f t="shared" si="7"/>
+        <v>701064</v>
+      </c>
+      <c r="N26" s="21">
+        <f t="shared" si="7"/>
+        <v>717784</v>
+      </c>
+      <c r="O26" s="21">
+        <f t="shared" si="7"/>
+        <v>720888</v>
+      </c>
+      <c r="P26" s="21">
+        <f t="shared" si="7"/>
+        <v>719956</v>
+      </c>
+      <c r="Q26" s="21">
+        <f t="shared" si="7"/>
+        <v>716424</v>
+      </c>
+      <c r="R26" s="21">
+        <f t="shared" si="7"/>
+        <v>690366</v>
+      </c>
+      <c r="S26" s="21">
+        <f t="shared" si="7"/>
+        <v>683215</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19">
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="25">
+        <f t="shared" ref="H27:S27" si="8">+H28+H29</f>
+        <v>719517</v>
+      </c>
+      <c r="I27" s="25">
+        <f t="shared" si="8"/>
+        <v>706979</v>
+      </c>
+      <c r="J27" s="25">
+        <f t="shared" si="8"/>
+        <v>719843</v>
+      </c>
+      <c r="K27" s="25">
+        <f t="shared" si="8"/>
+        <v>717437</v>
+      </c>
+      <c r="L27" s="25">
+        <f t="shared" si="8"/>
+        <v>705212</v>
+      </c>
+      <c r="M27" s="25">
+        <f t="shared" si="8"/>
+        <v>701064</v>
+      </c>
+      <c r="N27" s="25">
+        <f t="shared" si="8"/>
+        <v>717784</v>
+      </c>
+      <c r="O27" s="25">
+        <f t="shared" si="8"/>
+        <v>720888</v>
+      </c>
+      <c r="P27" s="25">
+        <f t="shared" si="8"/>
+        <v>719956</v>
+      </c>
+      <c r="Q27" s="25">
+        <f t="shared" si="8"/>
+        <v>716424</v>
+      </c>
+      <c r="R27" s="25">
+        <f t="shared" si="8"/>
+        <v>690366</v>
+      </c>
+      <c r="S27" s="25">
+        <f t="shared" si="8"/>
+        <v>683215</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19">
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="20"/>
+      <c r="H28" s="69">
+        <v>679732</v>
+      </c>
+      <c r="I28" s="69">
+        <v>668000</v>
+      </c>
+      <c r="J28" s="69">
+        <v>681297</v>
+      </c>
+      <c r="K28" s="69">
+        <v>679391</v>
+      </c>
+      <c r="L28" s="69">
+        <v>668233</v>
+      </c>
+      <c r="M28" s="69">
+        <v>664477</v>
+      </c>
+      <c r="N28" s="69">
+        <v>682078</v>
+      </c>
+      <c r="O28" s="69">
+        <v>685599</v>
+      </c>
+      <c r="P28" s="69">
+        <v>685804</v>
+      </c>
+      <c r="Q28" s="69">
+        <v>682532</v>
+      </c>
+      <c r="R28" s="69">
+        <v>658825</v>
+      </c>
+      <c r="S28" s="69">
+        <v>652675</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19">
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="20"/>
+      <c r="H29" s="69">
+        <v>39785</v>
+      </c>
+      <c r="I29" s="69">
+        <v>38979</v>
+      </c>
+      <c r="J29" s="69">
+        <v>38546</v>
+      </c>
+      <c r="K29" s="69">
+        <v>38046</v>
+      </c>
+      <c r="L29" s="69">
+        <v>36979</v>
+      </c>
+      <c r="M29" s="69">
+        <v>36587</v>
+      </c>
+      <c r="N29" s="69">
+        <v>35706</v>
+      </c>
+      <c r="O29" s="69">
+        <v>35289</v>
+      </c>
+      <c r="P29" s="69">
+        <v>34152</v>
+      </c>
+      <c r="Q29" s="69">
+        <v>33892</v>
+      </c>
+      <c r="R29" s="69">
+        <v>31541</v>
+      </c>
+      <c r="S29" s="69">
+        <v>30540</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19">
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="21">
+        <v>0</v>
+      </c>
+      <c r="I30" s="21">
+        <v>0</v>
+      </c>
+      <c r="J30" s="21">
+        <v>0</v>
+      </c>
+      <c r="K30" s="21">
+        <v>0</v>
+      </c>
+      <c r="L30" s="21">
+        <v>0</v>
+      </c>
+      <c r="M30" s="21">
+        <v>0</v>
+      </c>
+      <c r="N30" s="21">
+        <v>0</v>
+      </c>
+      <c r="O30" s="21">
+        <v>0</v>
+      </c>
+      <c r="P30" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="21">
+        <v>0</v>
+      </c>
+      <c r="R30" s="21">
+        <v>0</v>
+      </c>
+      <c r="S30" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" ht="6.95" customHeight="1">
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+    </row>
+    <row r="32" spans="3:19" s="23" customFormat="1">
+      <c r="C32" s="20"/>
+      <c r="D32" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="67">
+        <v>1253789</v>
+      </c>
+      <c r="I32" s="67">
+        <v>1240269</v>
+      </c>
+      <c r="J32" s="67">
+        <v>1246261</v>
+      </c>
+      <c r="K32" s="67">
+        <v>1236525</v>
+      </c>
+      <c r="L32" s="67">
+        <v>1221520</v>
+      </c>
+      <c r="M32" s="67">
+        <v>1218023</v>
+      </c>
+      <c r="N32" s="67">
+        <v>1208188</v>
+      </c>
+      <c r="O32" s="67">
+        <v>1214811</v>
+      </c>
+      <c r="P32" s="67">
+        <v>1243705</v>
+      </c>
+      <c r="Q32" s="67">
+        <v>1241133</v>
+      </c>
+      <c r="R32" s="67">
+        <v>1236608</v>
+      </c>
+      <c r="S32" s="67">
+        <v>1231424</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="C33" s="18"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="27"/>
+    </row>
+    <row r="34" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B34" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="75">
+        <f>+H35+H39</f>
+        <v>479485.24600000004</v>
+      </c>
+      <c r="I34" s="75">
+        <f>+I35+I39</f>
+        <v>474408</v>
+      </c>
+      <c r="J34" s="75">
+        <f>+J35+J39</f>
+        <v>471414.73700000002</v>
+      </c>
+      <c r="K34" s="75">
+        <f>+K35+K39</f>
+        <v>468128.36499999999</v>
+      </c>
+      <c r="L34" s="75">
+        <f>+L35+L39</f>
+        <v>464485</v>
+      </c>
+      <c r="M34" s="75">
+        <f t="shared" ref="M34:S34" si="9">+M35+M39</f>
+        <v>462246</v>
+      </c>
+      <c r="N34" s="75">
+        <f t="shared" si="9"/>
+        <v>456887</v>
+      </c>
+      <c r="O34" s="75">
+        <f t="shared" si="9"/>
+        <v>457226</v>
+      </c>
+      <c r="P34" s="75">
+        <f t="shared" si="9"/>
+        <v>456348</v>
+      </c>
+      <c r="Q34" s="75">
+        <f t="shared" si="9"/>
+        <v>446356</v>
+      </c>
+      <c r="R34" s="75">
+        <f t="shared" si="9"/>
+        <v>432222</v>
+      </c>
+      <c r="S34" s="75">
+        <f t="shared" si="9"/>
+        <v>551072</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" s="30" customFormat="1" ht="14.25" customHeight="1">
+      <c r="D35" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" s="29">
+        <f t="shared" ref="H35:S35" si="10">+H36+H37</f>
+        <v>131431</v>
+      </c>
+      <c r="I35" s="29">
+        <f t="shared" si="10"/>
+        <v>131244</v>
+      </c>
+      <c r="J35" s="29">
+        <f t="shared" si="10"/>
+        <v>131244</v>
+      </c>
+      <c r="K35" s="29">
+        <f t="shared" si="10"/>
+        <v>131244</v>
+      </c>
+      <c r="L35" s="29">
+        <f t="shared" si="10"/>
+        <v>131018</v>
+      </c>
+      <c r="M35" s="29">
+        <f t="shared" si="10"/>
+        <v>131019</v>
+      </c>
+      <c r="N35" s="29">
+        <f t="shared" si="10"/>
+        <v>131019</v>
+      </c>
+      <c r="O35" s="29">
+        <f t="shared" si="10"/>
+        <v>130794</v>
+      </c>
+      <c r="P35" s="29">
+        <f t="shared" si="10"/>
+        <v>130794</v>
+      </c>
+      <c r="Q35" s="29">
+        <f t="shared" si="10"/>
+        <v>121794</v>
+      </c>
+      <c r="R35" s="29">
+        <f t="shared" si="10"/>
+        <v>118294</v>
+      </c>
+      <c r="S35" s="29">
+        <f t="shared" si="10"/>
+        <v>242937</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" s="23" customFormat="1">
+      <c r="E36" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" s="31">
+        <v>131295</v>
+      </c>
+      <c r="I36" s="31">
+        <v>131108</v>
+      </c>
+      <c r="J36" s="31">
+        <v>131108</v>
+      </c>
+      <c r="K36" s="31">
+        <v>131108</v>
+      </c>
+      <c r="L36" s="31">
+        <v>130882</v>
+      </c>
+      <c r="M36" s="31">
+        <v>130883</v>
+      </c>
+      <c r="N36" s="31">
+        <v>130883</v>
+      </c>
+      <c r="O36" s="31">
+        <v>130658</v>
+      </c>
+      <c r="P36" s="31">
+        <v>130658</v>
+      </c>
+      <c r="Q36" s="31">
+        <v>121658</v>
+      </c>
+      <c r="R36" s="31">
+        <v>118158</v>
+      </c>
+      <c r="S36" s="31">
+        <f>117933+124868</f>
+        <v>242801</v>
+      </c>
+      <c r="T36" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" s="23" customFormat="1" ht="12.75" customHeight="1">
+      <c r="E37" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" s="31">
+        <v>136</v>
+      </c>
+      <c r="I37" s="31">
+        <v>136</v>
+      </c>
+      <c r="J37" s="31">
+        <v>136</v>
+      </c>
+      <c r="K37" s="31">
+        <v>136</v>
+      </c>
+      <c r="L37" s="31">
+        <v>136</v>
+      </c>
+      <c r="M37" s="31">
+        <v>136</v>
+      </c>
+      <c r="N37" s="31">
+        <v>136</v>
+      </c>
+      <c r="O37" s="31">
+        <v>136</v>
+      </c>
+      <c r="P37" s="31">
+        <v>136</v>
+      </c>
+      <c r="Q37" s="31">
+        <v>136</v>
+      </c>
+      <c r="R37" s="31">
+        <v>136</v>
+      </c>
+      <c r="S37" s="31">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="E38" s="15"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="32"/>
+      <c r="Q38" s="32"/>
+      <c r="R38" s="32"/>
+      <c r="S38" s="32"/>
+    </row>
+    <row r="39" spans="1:20" s="30" customFormat="1">
+      <c r="D39" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H39" s="29">
+        <f t="shared" ref="H39:S39" si="11">+H40+H41</f>
+        <v>348054.24600000004</v>
+      </c>
+      <c r="I39" s="29">
+        <f t="shared" si="11"/>
+        <v>343164</v>
+      </c>
+      <c r="J39" s="29">
+        <f t="shared" si="11"/>
+        <v>340170.73700000002</v>
+      </c>
+      <c r="K39" s="29">
+        <f t="shared" si="11"/>
+        <v>336884.36499999999</v>
+      </c>
+      <c r="L39" s="29">
+        <f t="shared" si="11"/>
+        <v>333467</v>
+      </c>
+      <c r="M39" s="29">
+        <f t="shared" si="11"/>
+        <v>331227</v>
+      </c>
+      <c r="N39" s="29">
+        <f t="shared" si="11"/>
+        <v>325868</v>
+      </c>
+      <c r="O39" s="29">
+        <f t="shared" si="11"/>
+        <v>326432</v>
+      </c>
+      <c r="P39" s="29">
+        <f t="shared" si="11"/>
+        <v>325554</v>
+      </c>
+      <c r="Q39" s="29">
+        <f t="shared" si="11"/>
+        <v>324562</v>
+      </c>
+      <c r="R39" s="29">
+        <f t="shared" si="11"/>
+        <v>313928</v>
+      </c>
+      <c r="S39" s="29">
+        <f t="shared" si="11"/>
+        <v>308135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" s="31" customFormat="1">
+      <c r="E40" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" s="31">
+        <v>344183.22100000002</v>
+      </c>
+      <c r="I40" s="31">
+        <v>339340</v>
+      </c>
+      <c r="J40" s="31">
+        <v>336325.73700000002</v>
+      </c>
+      <c r="K40" s="31">
+        <v>333072.886</v>
+      </c>
+      <c r="L40" s="31">
+        <v>329707</v>
+      </c>
+      <c r="M40" s="31">
+        <v>327480</v>
+      </c>
+      <c r="N40" s="31">
+        <v>322151</v>
+      </c>
+      <c r="O40" s="31">
+        <v>322690</v>
+      </c>
+      <c r="P40" s="31">
+        <v>321702</v>
+      </c>
+      <c r="Q40" s="31">
+        <v>320719</v>
+      </c>
+      <c r="R40" s="31">
+        <v>310089</v>
+      </c>
+      <c r="S40" s="31">
+        <v>304310</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" s="31" customFormat="1" ht="12.75" customHeight="1">
+      <c r="E41" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="H41" s="31">
+        <v>3871.0250000000001</v>
+      </c>
+      <c r="I41" s="31">
+        <v>3824</v>
+      </c>
+      <c r="J41" s="31">
+        <v>3845</v>
+      </c>
+      <c r="K41" s="31">
+        <v>3811.4789999999998</v>
+      </c>
+      <c r="L41" s="31">
+        <v>3760</v>
+      </c>
+      <c r="M41" s="31">
+        <v>3747</v>
+      </c>
+      <c r="N41" s="31">
+        <v>3717</v>
+      </c>
+      <c r="O41" s="31">
+        <v>3742</v>
+      </c>
+      <c r="P41" s="31">
+        <v>3852</v>
+      </c>
+      <c r="Q41" s="31">
+        <v>3843</v>
+      </c>
+      <c r="R41" s="31">
+        <v>3839</v>
+      </c>
+      <c r="S41" s="31">
+        <v>3825</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="33"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="A44" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="38"/>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="A45" s="37"/>
+      <c r="B45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="38"/>
+      <c r="D45" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="C46" s="34"/>
+    </row>
+    <row r="47" spans="1:20" s="35" customFormat="1" ht="12">
+      <c r="C47" s="36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" s="35" customFormat="1" ht="12">
+      <c r="C48" s="37"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" s="40" customFormat="1">
+      <c r="A49" s="39"/>
+      <c r="B49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="41"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="41"/>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" s="37"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="92"/>
+      <c r="B51" s="92"/>
+      <c r="C51" s="92"/>
+      <c r="D51" s="92"/>
+      <c r="E51" s="92"/>
+      <c r="F51" s="92"/>
+      <c r="G51" s="42"/>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="43"/>
+      <c r="B52" s="43"/>
+      <c r="I52" s="44"/>
+      <c r="J52" s="44"/>
+      <c r="K52" s="44"/>
+      <c r="L52" s="44"/>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="37"/>
+      <c r="B53" s="37"/>
+    </row>
+    <row r="181" spans="3:4" ht="15.75" hidden="1" customHeight="1">
+      <c r="C181" s="45" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="182" spans="3:4" ht="3.75" hidden="1" customHeight="1"/>
+    <row r="183" spans="3:4" hidden="1">
+      <c r="C183" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D183" s="15"/>
+    </row>
+    <row r="184" spans="3:4" ht="12.75" hidden="1" customHeight="1">
+      <c r="C184" s="15"/>
+      <c r="D184" s="15"/>
+    </row>
+    <row r="185" spans="3:4" s="23" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+      <c r="C185" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D185" s="46"/>
+    </row>
+    <row r="186" spans="3:4" hidden="1">
+      <c r="C186" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="187" spans="3:4" hidden="1">
+      <c r="C187" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:S5"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="A51:F51"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="97" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:T192"/>
   <sheetViews>
@@ -4764,7 +6276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:T192"/>
   <sheetViews>
@@ -6730,7 +8242,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:T190"/>
   <sheetViews>
@@ -8682,7 +10194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:T190"/>
   <sheetViews>
@@ -10634,7 +12146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:X190"/>
   <sheetViews>
@@ -12612,11 +14124,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9061F1E7-8550-4A80-8C52-E95CE64AC367}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50786131-2AB4-4B56-BC3B-96AAC9C5A935}">
   <dimension ref="A1:S189"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -12678,7 +14190,7 @@
         <v>4</v>
       </c>
       <c r="H5" s="79" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
@@ -12756,51 +14268,51 @@
       <c r="G8" s="82"/>
       <c r="H8" s="14">
         <f>+H10+H37</f>
-        <v>10783848</v>
+        <v>12452188</v>
       </c>
       <c r="I8" s="14">
         <f>+I10+I37</f>
-        <v>10852556</v>
+        <v>12509704</v>
       </c>
       <c r="J8" s="14">
         <f>+J10+J37</f>
-        <v>11209641</v>
+        <v>13090829</v>
       </c>
       <c r="K8" s="14">
         <f>+K10+K37</f>
-        <v>11426056</v>
+        <v>13176615</v>
       </c>
       <c r="L8" s="14">
         <f>+L10+L37</f>
-        <v>11497719</v>
+        <v>12895488</v>
       </c>
       <c r="M8" s="14">
         <f t="shared" ref="M8:S8" si="0">+M10+M37</f>
-        <v>11604633</v>
+        <v>13205756</v>
       </c>
       <c r="N8" s="14">
         <f t="shared" si="0"/>
-        <v>12054772</v>
+        <v>13295917</v>
       </c>
       <c r="O8" s="14">
         <f t="shared" si="0"/>
-        <v>12074737</v>
+        <v>13414313</v>
       </c>
       <c r="P8" s="14">
         <f t="shared" si="0"/>
-        <v>12349910</v>
+        <v>13914320</v>
       </c>
       <c r="Q8" s="14">
         <f t="shared" si="0"/>
-        <v>12397996</v>
+        <v>14027553</v>
       </c>
       <c r="R8" s="14">
         <f t="shared" si="0"/>
-        <v>12349675</v>
+        <v>14032164</v>
       </c>
       <c r="S8" s="14">
         <f t="shared" si="0"/>
-        <v>12152466</v>
+        <v>13817906</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="15" customFormat="1">
@@ -12828,51 +14340,51 @@
       <c r="G10" s="83"/>
       <c r="H10" s="72">
         <f>+H12+H27</f>
-        <v>10327461</v>
+        <v>12029672</v>
       </c>
       <c r="I10" s="72">
         <f>+I12+I27</f>
-        <v>10405834</v>
+        <v>12093500</v>
       </c>
       <c r="J10" s="72">
         <f>+J12+J27</f>
-        <v>10773830</v>
+        <v>12679785</v>
       </c>
       <c r="K10" s="72">
         <f>+K12+K27</f>
-        <v>10991316</v>
+        <v>12763187</v>
       </c>
       <c r="L10" s="72">
         <f>+L12+L27</f>
-        <v>11071128</v>
+        <v>12495772</v>
       </c>
       <c r="M10" s="72">
         <f t="shared" ref="M10:S10" si="1">+M12+M27</f>
-        <v>11166033</v>
+        <v>12791829</v>
       </c>
       <c r="N10" s="72">
         <f t="shared" si="1"/>
-        <v>11610465</v>
+        <v>12887918</v>
       </c>
       <c r="O10" s="72">
         <f t="shared" si="1"/>
-        <v>11642519</v>
+        <v>13021554</v>
       </c>
       <c r="P10" s="72">
         <f t="shared" si="1"/>
-        <v>11917047</v>
+        <v>13517100</v>
       </c>
       <c r="Q10" s="72">
         <f t="shared" si="1"/>
-        <v>11971532</v>
+        <v>13641019</v>
       </c>
       <c r="R10" s="72">
         <f t="shared" si="1"/>
-        <v>11931828</v>
+        <v>13644164</v>
       </c>
       <c r="S10" s="72">
         <f t="shared" si="1"/>
-        <v>11728549</v>
+        <v>13418860</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="6.95" customHeight="1">
@@ -12905,51 +14417,51 @@
       <c r="G12" s="18"/>
       <c r="H12" s="19">
         <f>+H13+H25</f>
-        <v>7325554</v>
+        <v>8367788</v>
       </c>
       <c r="I12" s="19">
         <f>+I13+I25</f>
-        <v>7363068</v>
+        <v>8413204</v>
       </c>
       <c r="J12" s="19">
         <f>+J13+J25</f>
-        <v>7744607</v>
+        <v>8868651</v>
       </c>
       <c r="K12" s="19">
         <f>+K13+K25</f>
-        <v>7812384</v>
+        <v>8935854</v>
       </c>
       <c r="L12" s="19">
         <f>+L13+L25</f>
-        <v>7915755</v>
+        <v>8665450</v>
       </c>
       <c r="M12" s="19">
         <f t="shared" ref="M12:S12" si="2">+M13+M25</f>
-        <v>7938557</v>
+        <v>8767110</v>
       </c>
       <c r="N12" s="19">
         <f t="shared" si="2"/>
-        <v>8119598</v>
+        <v>8832181</v>
       </c>
       <c r="O12" s="19">
         <f t="shared" si="2"/>
-        <v>8220304</v>
+        <v>8943389</v>
       </c>
       <c r="P12" s="19">
         <f t="shared" si="2"/>
-        <v>8387753</v>
+        <v>9300660</v>
       </c>
       <c r="Q12" s="19">
         <f t="shared" si="2"/>
-        <v>8468408</v>
+        <v>9355236</v>
       </c>
       <c r="R12" s="19">
         <f t="shared" si="2"/>
-        <v>8441502</v>
+        <v>9427967</v>
       </c>
       <c r="S12" s="19">
         <f t="shared" si="2"/>
-        <v>8170414</v>
+        <v>9208387</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -12962,47 +14474,47 @@
       <c r="G13" s="18"/>
       <c r="H13" s="19">
         <f>H14+H19</f>
-        <v>540948</v>
+        <v>300156</v>
       </c>
       <c r="I13" s="19">
         <f>I14+I19</f>
-        <v>540948</v>
+        <v>300156</v>
       </c>
       <c r="J13" s="19">
         <f>J14+J19</f>
-        <v>540948</v>
+        <v>300156</v>
       </c>
       <c r="K13" s="19">
         <f>K14+K19</f>
-        <v>540948</v>
+        <v>300156</v>
       </c>
       <c r="L13" s="19">
         <f>L14+L19</f>
-        <v>540156</v>
+        <v>156</v>
       </c>
       <c r="M13" s="19">
         <f t="shared" ref="M13:S13" si="3">M14+M19</f>
-        <v>540156</v>
+        <v>156</v>
       </c>
       <c r="N13" s="19">
         <f t="shared" si="3"/>
-        <v>540156</v>
+        <v>156</v>
       </c>
       <c r="O13" s="19">
         <f t="shared" si="3"/>
-        <v>540156</v>
+        <v>156</v>
       </c>
       <c r="P13" s="19">
         <f t="shared" si="3"/>
-        <v>540156</v>
+        <v>156</v>
       </c>
       <c r="Q13" s="19">
         <f t="shared" si="3"/>
-        <v>540156</v>
+        <v>156</v>
       </c>
       <c r="R13" s="19">
         <f t="shared" si="3"/>
-        <v>540156</v>
+        <v>156</v>
       </c>
       <c r="S13" s="19">
         <f t="shared" si="3"/>
@@ -13019,47 +14531,47 @@
       <c r="G14" s="20"/>
       <c r="H14" s="21">
         <f>H15+H18</f>
-        <v>540156</v>
+        <v>300156</v>
       </c>
       <c r="I14" s="21">
         <f>I15+I18</f>
-        <v>540156</v>
+        <v>300156</v>
       </c>
       <c r="J14" s="21">
         <f>J15+J18</f>
-        <v>540156</v>
+        <v>300156</v>
       </c>
       <c r="K14" s="21">
         <f>K15+K18</f>
-        <v>540156</v>
+        <v>300156</v>
       </c>
       <c r="L14" s="21">
         <f>L15+L18</f>
-        <v>540156</v>
+        <v>156</v>
       </c>
       <c r="M14" s="21">
         <f t="shared" ref="M14:S14" si="4">M15+M18</f>
-        <v>540156</v>
+        <v>156</v>
       </c>
       <c r="N14" s="21">
         <f t="shared" si="4"/>
-        <v>540156</v>
+        <v>156</v>
       </c>
       <c r="O14" s="21">
         <f t="shared" si="4"/>
-        <v>540156</v>
+        <v>156</v>
       </c>
       <c r="P14" s="21">
         <f t="shared" si="4"/>
-        <v>540156</v>
+        <v>156</v>
       </c>
       <c r="Q14" s="21">
         <f t="shared" si="4"/>
-        <v>540156</v>
+        <v>156</v>
       </c>
       <c r="R14" s="21">
         <f t="shared" si="4"/>
-        <v>540156</v>
+        <v>156</v>
       </c>
       <c r="S14" s="21">
         <f t="shared" si="4"/>
@@ -13075,37 +14587,37 @@
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="22">
-        <v>540156</v>
+        <v>300156</v>
       </c>
       <c r="I15" s="22">
-        <v>540156</v>
+        <v>300156</v>
       </c>
       <c r="J15" s="22">
-        <v>540156</v>
+        <v>300156</v>
       </c>
       <c r="K15" s="22">
-        <v>540156</v>
+        <v>300156</v>
       </c>
       <c r="L15" s="22">
-        <v>540156</v>
+        <v>156</v>
       </c>
       <c r="M15" s="22">
-        <v>540156</v>
+        <v>156</v>
       </c>
       <c r="N15" s="22">
-        <v>540156</v>
+        <v>156</v>
       </c>
       <c r="O15" s="22">
-        <v>540156</v>
+        <v>156</v>
       </c>
       <c r="P15" s="22">
-        <v>540156</v>
+        <v>156</v>
       </c>
       <c r="Q15" s="22">
-        <v>540156</v>
+        <v>156</v>
       </c>
       <c r="R15" s="22">
-        <v>540156</v>
+        <v>156</v>
       </c>
       <c r="S15" s="22">
         <v>156</v>
@@ -13165,37 +14677,37 @@
         <v>17</v>
       </c>
       <c r="H17" s="22">
-        <v>540000</v>
+        <v>300000</v>
       </c>
       <c r="I17" s="22">
-        <v>540000</v>
+        <v>300000</v>
       </c>
       <c r="J17" s="22">
-        <v>540000</v>
+        <v>300000</v>
       </c>
       <c r="K17" s="22">
-        <v>540000</v>
+        <v>300000</v>
       </c>
       <c r="L17" s="22">
-        <v>540000</v>
+        <v>0</v>
       </c>
       <c r="M17" s="22">
-        <v>540000</v>
+        <v>0</v>
       </c>
       <c r="N17" s="22">
-        <v>540000</v>
+        <v>0</v>
       </c>
       <c r="O17" s="22">
-        <v>540000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="22">
-        <v>540000</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="22">
-        <v>540000</v>
+        <v>0</v>
       </c>
       <c r="R17" s="22">
-        <v>540000</v>
+        <v>0</v>
       </c>
       <c r="S17" s="22">
         <v>0</v>
@@ -13255,51 +14767,39 @@
       <c r="F19" s="20"/>
       <c r="G19" s="20"/>
       <c r="H19" s="21">
-        <f>SUM(H20:H23)</f>
-        <v>792</v>
+        <v>0</v>
       </c>
       <c r="I19" s="21">
-        <f>SUM(I20:I23)</f>
-        <v>792</v>
+        <v>0</v>
       </c>
       <c r="J19" s="21">
-        <f>SUM(J20:J23)</f>
-        <v>792</v>
+        <v>0</v>
       </c>
       <c r="K19" s="21">
-        <f>SUM(K20:K23)</f>
-        <v>792</v>
+        <v>0</v>
       </c>
       <c r="L19" s="21">
-        <f>SUM(L20:L23)</f>
         <v>0</v>
       </c>
       <c r="M19" s="21">
-        <f t="shared" ref="M19:S19" si="5">SUM(M20:M23)</f>
         <v>0</v>
       </c>
       <c r="N19" s="21">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O19" s="21">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P19" s="21">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q19" s="21">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R19" s="21">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S19" s="21">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -13311,42 +14811,18 @@
         <v>20</v>
       </c>
       <c r="G20" s="20"/>
-      <c r="H20" s="22">
-        <v>350</v>
-      </c>
-      <c r="I20" s="22">
-        <v>350</v>
-      </c>
-      <c r="J20" s="22">
-        <v>350</v>
-      </c>
-      <c r="K20" s="22">
-        <v>350</v>
-      </c>
-      <c r="L20" s="22">
-        <v>0</v>
-      </c>
-      <c r="M20" s="22">
-        <v>0</v>
-      </c>
-      <c r="N20" s="22">
-        <v>0</v>
-      </c>
-      <c r="O20" s="22">
-        <v>0</v>
-      </c>
-      <c r="P20" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="22">
-        <v>0</v>
-      </c>
-      <c r="R20" s="22">
-        <v>0</v>
-      </c>
-      <c r="S20" s="22">
-        <v>0</v>
-      </c>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
     </row>
     <row r="21" spans="3:19">
       <c r="C21" s="20"/>
@@ -13356,42 +14832,18 @@
         <v>21</v>
       </c>
       <c r="G21" s="20"/>
-      <c r="H21" s="22">
-        <v>442</v>
-      </c>
-      <c r="I21" s="22">
-        <v>442</v>
-      </c>
-      <c r="J21" s="22">
-        <v>442</v>
-      </c>
-      <c r="K21" s="22">
-        <v>442</v>
-      </c>
-      <c r="L21" s="22">
-        <v>0</v>
-      </c>
-      <c r="M21" s="22">
-        <v>0</v>
-      </c>
-      <c r="N21" s="22">
-        <v>0</v>
-      </c>
-      <c r="O21" s="22">
-        <v>0</v>
-      </c>
-      <c r="P21" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="22">
-        <v>0</v>
-      </c>
-      <c r="R21" s="22">
-        <v>0</v>
-      </c>
-      <c r="S21" s="22">
-        <v>0</v>
-      </c>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
     </row>
     <row r="22" spans="3:19" hidden="1">
       <c r="C22" s="20"/>
@@ -13483,40 +14935,40 @@
       <c r="F25" s="20"/>
       <c r="G25" s="20"/>
       <c r="H25" s="22">
-        <v>6784606</v>
+        <v>8067632</v>
       </c>
       <c r="I25" s="22">
-        <v>6822120</v>
+        <v>8113048</v>
       </c>
       <c r="J25" s="24">
-        <v>7203659</v>
+        <v>8568495</v>
       </c>
       <c r="K25" s="24">
-        <v>7271436</v>
+        <v>8635698</v>
       </c>
       <c r="L25" s="24">
-        <v>7375599</v>
+        <v>8665294</v>
       </c>
       <c r="M25" s="24">
-        <v>7398401</v>
+        <v>8766954</v>
       </c>
       <c r="N25" s="24">
-        <v>7579442</v>
+        <v>8832025</v>
       </c>
       <c r="O25" s="24">
-        <v>7680148</v>
+        <v>8943233</v>
       </c>
       <c r="P25" s="24">
-        <v>7847597</v>
+        <v>9300504</v>
       </c>
       <c r="Q25" s="24">
-        <v>7928252</v>
+        <v>9355080</v>
       </c>
       <c r="R25" s="24">
-        <v>7901346</v>
+        <v>9427811</v>
       </c>
       <c r="S25" s="24">
-        <v>8170258</v>
+        <v>9208231</v>
       </c>
     </row>
     <row r="26" spans="3:19">
@@ -13548,51 +15000,51 @@
       <c r="G27" s="18"/>
       <c r="H27" s="19">
         <f>H28+H34</f>
-        <v>3001907</v>
+        <v>3661884</v>
       </c>
       <c r="I27" s="19">
         <f>I28+I34</f>
-        <v>3042766</v>
+        <v>3680296</v>
       </c>
       <c r="J27" s="19">
         <f>J28+J34</f>
-        <v>3029223</v>
+        <v>3811134</v>
       </c>
       <c r="K27" s="19">
         <f>K28+K34</f>
-        <v>3178932</v>
+        <v>3827333</v>
       </c>
       <c r="L27" s="19">
         <f>L28+L34</f>
-        <v>3155373</v>
+        <v>3830322</v>
       </c>
       <c r="M27" s="19">
-        <f t="shared" ref="M27:S27" si="6">M28+M34</f>
-        <v>3227476</v>
+        <f t="shared" ref="M27:S27" si="5">M28+M34</f>
+        <v>4024719</v>
       </c>
       <c r="N27" s="19">
-        <f t="shared" si="6"/>
-        <v>3490867</v>
+        <f t="shared" si="5"/>
+        <v>4055737</v>
       </c>
       <c r="O27" s="19">
-        <f t="shared" si="6"/>
-        <v>3422215</v>
+        <f t="shared" si="5"/>
+        <v>4078165</v>
       </c>
       <c r="P27" s="19">
-        <f t="shared" si="6"/>
-        <v>3529294</v>
+        <f t="shared" si="5"/>
+        <v>4216440</v>
       </c>
       <c r="Q27" s="19">
-        <f t="shared" si="6"/>
-        <v>3503124</v>
+        <f t="shared" si="5"/>
+        <v>4285783</v>
       </c>
       <c r="R27" s="19">
-        <f t="shared" si="6"/>
-        <v>3490326</v>
+        <f t="shared" si="5"/>
+        <v>4216197</v>
       </c>
       <c r="S27" s="19">
-        <f t="shared" si="6"/>
-        <v>3558135</v>
+        <f t="shared" si="5"/>
+        <v>4210473</v>
       </c>
     </row>
     <row r="28" spans="3:19" s="23" customFormat="1">
@@ -13605,51 +15057,51 @@
       <c r="G28" s="20"/>
       <c r="H28" s="21">
         <f>H29+H32</f>
-        <v>1335318</v>
+        <v>1673954</v>
       </c>
       <c r="I28" s="21">
         <f>I29+I32</f>
-        <v>1359864</v>
+        <v>1684137</v>
       </c>
       <c r="J28" s="21">
         <f>J29+J32</f>
-        <v>1368303</v>
+        <v>1686930</v>
       </c>
       <c r="K28" s="21">
         <f>K29+K32</f>
-        <v>1380529</v>
+        <v>1675248</v>
       </c>
       <c r="L28" s="21">
         <f>L29+L32</f>
-        <v>1368630</v>
+        <v>1690029</v>
       </c>
       <c r="M28" s="21">
-        <f t="shared" ref="M28:S28" si="7">M29+M32</f>
-        <v>1415064</v>
+        <f t="shared" ref="M28:S28" si="6">M29+M32</f>
+        <v>1795604</v>
       </c>
       <c r="N28" s="21">
-        <f t="shared" si="7"/>
-        <v>1471994</v>
+        <f t="shared" si="6"/>
+        <v>1816698</v>
       </c>
       <c r="O28" s="21">
-        <f t="shared" si="7"/>
-        <v>1471188</v>
+        <f t="shared" si="6"/>
+        <v>1826918</v>
       </c>
       <c r="P28" s="21">
-        <f t="shared" si="7"/>
-        <v>1542150</v>
+        <f t="shared" si="6"/>
+        <v>1890917</v>
       </c>
       <c r="Q28" s="21">
-        <f t="shared" si="7"/>
-        <v>1529576</v>
+        <f t="shared" si="6"/>
+        <v>1867412</v>
       </c>
       <c r="R28" s="21">
-        <f t="shared" si="7"/>
-        <v>1527793</v>
+        <f t="shared" si="6"/>
+        <v>1868100</v>
       </c>
       <c r="S28" s="21">
-        <f t="shared" si="7"/>
-        <v>1574246</v>
+        <f t="shared" si="6"/>
+        <v>1883023</v>
       </c>
     </row>
     <row r="29" spans="3:19">
@@ -13662,51 +15114,51 @@
       <c r="G29" s="20"/>
       <c r="H29" s="25">
         <f>+H30+H31</f>
-        <v>1335318</v>
+        <v>1673954</v>
       </c>
       <c r="I29" s="25">
         <f>+I30+I31</f>
-        <v>1359864</v>
+        <v>1684137</v>
       </c>
       <c r="J29" s="25">
         <f>+J30+J31</f>
-        <v>1368303</v>
+        <v>1686930</v>
       </c>
       <c r="K29" s="25">
         <f>+K30+K31</f>
-        <v>1380529</v>
+        <v>1675248</v>
       </c>
       <c r="L29" s="25">
         <f>+L30+L31</f>
-        <v>1368630</v>
+        <v>1690029</v>
       </c>
       <c r="M29" s="25">
-        <f t="shared" ref="M29:S29" si="8">+M30+M31</f>
-        <v>1415064</v>
+        <f t="shared" ref="M29:S29" si="7">+M30+M31</f>
+        <v>1795604</v>
       </c>
       <c r="N29" s="25">
-        <f t="shared" si="8"/>
-        <v>1471994</v>
+        <f t="shared" si="7"/>
+        <v>1816698</v>
       </c>
       <c r="O29" s="25">
-        <f t="shared" si="8"/>
-        <v>1471188</v>
+        <f t="shared" si="7"/>
+        <v>1826918</v>
       </c>
       <c r="P29" s="25">
-        <f t="shared" si="8"/>
-        <v>1542150</v>
+        <f t="shared" si="7"/>
+        <v>1890917</v>
       </c>
       <c r="Q29" s="25">
-        <f t="shared" si="8"/>
-        <v>1529576</v>
+        <f t="shared" si="7"/>
+        <v>1867412</v>
       </c>
       <c r="R29" s="25">
-        <f t="shared" si="8"/>
-        <v>1527793</v>
+        <f t="shared" si="7"/>
+        <v>1868100</v>
       </c>
       <c r="S29" s="25">
-        <f t="shared" si="8"/>
-        <v>1574246</v>
+        <f t="shared" si="7"/>
+        <v>1883023</v>
       </c>
     </row>
     <row r="30" spans="3:19">
@@ -13718,40 +15170,40 @@
       </c>
       <c r="G30" s="20"/>
       <c r="H30" s="22">
-        <v>1316574</v>
+        <v>1657745</v>
       </c>
       <c r="I30" s="22">
-        <v>1341423</v>
+        <v>1668100</v>
       </c>
       <c r="J30" s="24">
-        <v>1350970</v>
+        <v>1671980</v>
       </c>
       <c r="K30" s="24">
-        <v>1363322</v>
+        <v>1661314</v>
       </c>
       <c r="L30" s="24">
-        <v>1351618</v>
+        <v>1675941</v>
       </c>
       <c r="M30" s="24">
-        <v>1398146</v>
+        <v>1781701</v>
       </c>
       <c r="N30" s="24">
-        <v>1454336</v>
+        <v>1802465</v>
       </c>
       <c r="O30" s="24">
-        <v>1453960</v>
+        <v>1813260</v>
       </c>
       <c r="P30" s="24">
-        <v>1525143</v>
+        <v>1877554</v>
       </c>
       <c r="Q30" s="24">
-        <v>1513279</v>
+        <v>1854675</v>
       </c>
       <c r="R30" s="24">
-        <v>1511439</v>
+        <v>1854770</v>
       </c>
       <c r="S30" s="24">
-        <v>1558131</v>
+        <v>1869315</v>
       </c>
     </row>
     <row r="31" spans="3:19">
@@ -13763,40 +15215,40 @@
       </c>
       <c r="G31" s="20"/>
       <c r="H31" s="22">
-        <v>18744</v>
+        <v>16209</v>
       </c>
       <c r="I31" s="22">
-        <v>18441</v>
+        <v>16037</v>
       </c>
       <c r="J31" s="24">
-        <v>17333</v>
+        <v>14950</v>
       </c>
       <c r="K31" s="24">
-        <v>17207</v>
+        <v>13934</v>
       </c>
       <c r="L31" s="24">
-        <v>17012</v>
+        <v>14088</v>
       </c>
       <c r="M31" s="24">
-        <v>16918</v>
+        <v>13903</v>
       </c>
       <c r="N31" s="24">
-        <v>17658</v>
+        <v>14233</v>
       </c>
       <c r="O31" s="24">
-        <v>17228</v>
+        <v>13658</v>
       </c>
       <c r="P31" s="24">
-        <v>17007</v>
+        <v>13363</v>
       </c>
       <c r="Q31" s="24">
-        <v>16297</v>
+        <v>12737</v>
       </c>
       <c r="R31" s="24">
-        <v>16354</v>
+        <v>13330</v>
       </c>
       <c r="S31" s="24">
-        <v>16115</v>
+        <v>13708</v>
       </c>
     </row>
     <row r="32" spans="3:19">
@@ -13825,9 +15277,15 @@
       <c r="M32" s="21">
         <v>0</v>
       </c>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
+      <c r="N32" s="21">
+        <v>0</v>
+      </c>
+      <c r="O32" s="21">
+        <v>0</v>
+      </c>
+      <c r="P32" s="21">
+        <v>0</v>
+      </c>
       <c r="Q32" s="21">
         <v>0</v>
       </c>
@@ -13866,40 +15324,40 @@
       <c r="F34" s="20"/>
       <c r="G34" s="20"/>
       <c r="H34" s="22">
-        <v>1666589</v>
+        <v>1987930</v>
       </c>
       <c r="I34" s="22">
-        <v>1682902</v>
+        <v>1996159</v>
       </c>
       <c r="J34" s="24">
-        <v>1660920</v>
+        <v>2124204</v>
       </c>
       <c r="K34" s="24">
-        <v>1798403</v>
+        <v>2152085</v>
       </c>
       <c r="L34" s="24">
-        <v>1786743</v>
+        <v>2140293</v>
       </c>
       <c r="M34" s="24">
-        <v>1812412</v>
+        <v>2229115</v>
       </c>
       <c r="N34" s="24">
-        <v>2018873</v>
+        <v>2239039</v>
       </c>
       <c r="O34" s="24">
-        <v>1951027</v>
+        <v>2251247</v>
       </c>
       <c r="P34" s="24">
-        <v>1987144</v>
+        <v>2325523</v>
       </c>
       <c r="Q34" s="24">
-        <v>1973548</v>
+        <v>2418371</v>
       </c>
       <c r="R34" s="24">
-        <v>1962533</v>
+        <v>2348097</v>
       </c>
       <c r="S34" s="24">
-        <v>1983889</v>
+        <v>2327450</v>
       </c>
     </row>
     <row r="35" spans="1:19">
@@ -13933,51 +15391,51 @@
       <c r="G37" s="74"/>
       <c r="H37" s="75">
         <f>+H38+H42</f>
-        <v>456387</v>
+        <v>422516</v>
       </c>
       <c r="I37" s="75">
         <f>+I38+I42</f>
-        <v>446722</v>
+        <v>416204</v>
       </c>
       <c r="J37" s="75">
         <f>+J38+J42</f>
-        <v>435811</v>
+        <v>411044</v>
       </c>
       <c r="K37" s="75">
         <f>+K38+K42</f>
-        <v>434740</v>
+        <v>413428</v>
       </c>
       <c r="L37" s="75">
         <f>+L38+L42</f>
-        <v>426591</v>
+        <v>399716</v>
       </c>
       <c r="M37" s="75">
-        <f t="shared" ref="M37:S37" si="9">+M38+M42</f>
-        <v>438600</v>
+        <f t="shared" ref="M37:S37" si="8">+M38+M42</f>
+        <v>413927</v>
       </c>
       <c r="N37" s="75">
-        <f t="shared" si="9"/>
-        <v>444307</v>
+        <f t="shared" si="8"/>
+        <v>407999</v>
       </c>
       <c r="O37" s="75">
-        <f t="shared" si="9"/>
-        <v>432218</v>
+        <f t="shared" si="8"/>
+        <v>392759</v>
       </c>
       <c r="P37" s="75">
-        <f t="shared" si="9"/>
-        <v>432863</v>
+        <f t="shared" si="8"/>
+        <v>397220</v>
       </c>
       <c r="Q37" s="75">
-        <f t="shared" si="9"/>
-        <v>426464</v>
+        <f t="shared" si="8"/>
+        <v>386534</v>
       </c>
       <c r="R37" s="75">
-        <f t="shared" si="9"/>
-        <v>417847</v>
+        <f t="shared" si="8"/>
+        <v>388000</v>
       </c>
       <c r="S37" s="75">
-        <f t="shared" si="9"/>
-        <v>423917</v>
+        <f t="shared" si="8"/>
+        <v>399046</v>
       </c>
     </row>
     <row r="38" spans="1:19" s="30" customFormat="1" ht="14.25" customHeight="1">
@@ -13986,51 +15444,51 @@
       </c>
       <c r="H38" s="29">
         <f>+H39+H40</f>
-        <v>254107</v>
+        <v>192957</v>
       </c>
       <c r="I38" s="29">
         <f>+I39+I40</f>
-        <v>244122</v>
+        <v>188890</v>
       </c>
       <c r="J38" s="29">
         <f>+J39+J40</f>
-        <v>239281</v>
+        <v>188135</v>
       </c>
       <c r="K38" s="29">
         <f>+K39+K40</f>
-        <v>238530</v>
+        <v>194292</v>
       </c>
       <c r="L38" s="29">
         <f>+L39+L40</f>
-        <v>233010</v>
+        <v>185885</v>
       </c>
       <c r="M38" s="29">
-        <f t="shared" ref="M38:S38" si="10">+M39+M40</f>
-        <v>244076</v>
+        <f t="shared" ref="M38:S38" si="9">+M39+M40</f>
+        <v>195224</v>
       </c>
       <c r="N38" s="29">
-        <f t="shared" si="10"/>
-        <v>242653</v>
+        <f t="shared" si="9"/>
+        <v>186657</v>
       </c>
       <c r="O38" s="29">
-        <f t="shared" si="10"/>
-        <v>233113</v>
+        <f t="shared" si="9"/>
+        <v>182231</v>
       </c>
       <c r="P38" s="29">
-        <f t="shared" si="10"/>
-        <v>232969</v>
+        <f t="shared" si="9"/>
+        <v>182218</v>
       </c>
       <c r="Q38" s="29">
-        <f t="shared" si="10"/>
-        <v>194026</v>
+        <f t="shared" si="9"/>
+        <v>174920</v>
       </c>
       <c r="R38" s="29">
-        <f t="shared" si="10"/>
-        <v>189083</v>
+        <f t="shared" si="9"/>
+        <v>179579</v>
       </c>
       <c r="S38" s="29">
-        <f t="shared" si="10"/>
-        <v>195075</v>
+        <f t="shared" si="9"/>
+        <v>205765</v>
       </c>
     </row>
     <row r="39" spans="1:19" s="23" customFormat="1">
@@ -14038,40 +15496,40 @@
         <v>28</v>
       </c>
       <c r="H39" s="31">
-        <v>253971</v>
+        <v>192821</v>
       </c>
       <c r="I39" s="31">
-        <v>243986</v>
+        <v>188754</v>
       </c>
       <c r="J39" s="31">
-        <v>239145</v>
+        <v>187999</v>
       </c>
       <c r="K39" s="31">
-        <v>238394</v>
+        <v>194156</v>
       </c>
       <c r="L39" s="31">
-        <v>232874</v>
+        <v>185749</v>
       </c>
       <c r="M39" s="31">
-        <v>243940</v>
+        <v>195088</v>
       </c>
       <c r="N39" s="31">
-        <v>242517</v>
+        <v>186521</v>
       </c>
       <c r="O39" s="31">
-        <v>232977</v>
+        <v>182095</v>
       </c>
       <c r="P39" s="31">
-        <v>232833</v>
+        <v>182082</v>
       </c>
       <c r="Q39" s="31">
-        <v>193890</v>
+        <v>174784</v>
       </c>
       <c r="R39" s="31">
-        <v>188947</v>
+        <v>179443</v>
       </c>
       <c r="S39" s="31">
-        <v>194939</v>
+        <v>205629</v>
       </c>
     </row>
     <row r="40" spans="1:19" s="23" customFormat="1" ht="12.75" customHeight="1">
@@ -14138,51 +15596,51 @@
       </c>
       <c r="H42" s="29">
         <f>+H43+H44</f>
-        <v>202280</v>
+        <v>229559</v>
       </c>
       <c r="I42" s="29">
         <f>+I43+I44</f>
-        <v>202600</v>
+        <v>227314</v>
       </c>
       <c r="J42" s="29">
         <f>+J43+J44</f>
-        <v>196530</v>
+        <v>222909</v>
       </c>
       <c r="K42" s="29">
         <f>+K43+K44</f>
-        <v>196210</v>
+        <v>219136</v>
       </c>
       <c r="L42" s="29">
         <f>+L43+L44</f>
-        <v>193581</v>
+        <v>213831</v>
       </c>
       <c r="M42" s="29">
-        <f t="shared" ref="M42:S42" si="11">+M43+M44</f>
-        <v>194524</v>
+        <f t="shared" ref="M42:S42" si="10">+M43+M44</f>
+        <v>218703</v>
       </c>
       <c r="N42" s="29">
-        <f t="shared" si="11"/>
-        <v>201654</v>
+        <f t="shared" si="10"/>
+        <v>221342</v>
       </c>
       <c r="O42" s="29">
-        <f t="shared" si="11"/>
-        <v>199105</v>
+        <f t="shared" si="10"/>
+        <v>210528</v>
       </c>
       <c r="P42" s="29">
-        <f t="shared" si="11"/>
-        <v>199894</v>
+        <f t="shared" si="10"/>
+        <v>215002</v>
       </c>
       <c r="Q42" s="29">
-        <f t="shared" si="11"/>
-        <v>232438</v>
+        <f t="shared" si="10"/>
+        <v>211614</v>
       </c>
       <c r="R42" s="29">
-        <f t="shared" si="11"/>
-        <v>228764</v>
+        <f t="shared" si="10"/>
+        <v>208421</v>
       </c>
       <c r="S42" s="29">
-        <f t="shared" si="11"/>
-        <v>228842</v>
+        <f t="shared" si="10"/>
+        <v>193281</v>
       </c>
     </row>
     <row r="43" spans="1:19" s="31" customFormat="1">
@@ -14190,40 +15648,40 @@
         <v>28</v>
       </c>
       <c r="H43" s="31">
-        <v>198167</v>
+        <v>225185</v>
       </c>
       <c r="I43" s="31">
-        <v>198437</v>
+        <v>222919</v>
       </c>
       <c r="J43" s="31">
-        <v>192377</v>
+        <v>218470</v>
       </c>
       <c r="K43" s="31">
-        <v>192089</v>
+        <v>214661</v>
       </c>
       <c r="L43" s="31">
-        <v>189497</v>
+        <v>209349</v>
       </c>
       <c r="M43" s="31">
-        <v>190357</v>
+        <v>214003</v>
       </c>
       <c r="N43" s="31">
-        <v>197357</v>
+        <v>216613</v>
       </c>
       <c r="O43" s="31">
-        <v>194848</v>
+        <v>205727</v>
       </c>
       <c r="P43" s="31">
-        <v>195542</v>
+        <v>209991</v>
       </c>
       <c r="Q43" s="31">
-        <v>228113</v>
+        <v>206654</v>
       </c>
       <c r="R43" s="31">
-        <v>224455</v>
+        <v>203583</v>
       </c>
       <c r="S43" s="31">
-        <v>224482</v>
+        <v>188510</v>
       </c>
     </row>
     <row r="44" spans="1:19" s="31" customFormat="1" ht="12.75" customHeight="1">
@@ -14231,40 +15689,40 @@
         <v>29</v>
       </c>
       <c r="H44" s="31">
-        <v>4113</v>
+        <v>4374</v>
       </c>
       <c r="I44" s="31">
-        <v>4163</v>
+        <v>4395</v>
       </c>
       <c r="J44" s="31">
-        <v>4153</v>
+        <v>4439</v>
       </c>
       <c r="K44" s="31">
-        <v>4121</v>
+        <v>4475</v>
       </c>
       <c r="L44" s="31">
-        <v>4084</v>
+        <v>4482</v>
       </c>
       <c r="M44" s="31">
-        <v>4167</v>
+        <v>4700</v>
       </c>
       <c r="N44" s="31">
-        <v>4297</v>
+        <v>4729</v>
       </c>
       <c r="O44" s="31">
-        <v>4257</v>
+        <v>4801</v>
       </c>
       <c r="P44" s="31">
-        <v>4352</v>
+        <v>5011</v>
       </c>
       <c r="Q44" s="31">
-        <v>4325</v>
+        <v>4960</v>
       </c>
       <c r="R44" s="31">
-        <v>4309</v>
+        <v>4838</v>
       </c>
       <c r="S44" s="31">
-        <v>4360</v>
+        <v>4771</v>
       </c>
     </row>
     <row r="47" spans="1:19">
@@ -14360,11 +15818,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9061F1E7-8550-4A80-8C52-E95CE64AC367}">
   <dimension ref="A1:S189"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -14426,7 +15884,7 @@
         <v>4</v>
       </c>
       <c r="H5" s="79" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
@@ -14504,51 +15962,51 @@
       <c r="G8" s="82"/>
       <c r="H8" s="14">
         <f>+H10+H37</f>
-        <v>8251640</v>
+        <v>10783848</v>
       </c>
       <c r="I8" s="14">
         <f>+I10+I37</f>
-        <v>8649955</v>
+        <v>10852556</v>
       </c>
       <c r="J8" s="14">
         <f>+J10+J37</f>
-        <v>8959236</v>
+        <v>11209641</v>
       </c>
       <c r="K8" s="14">
         <f>+K10+K37</f>
-        <v>9077989</v>
+        <v>11426056</v>
       </c>
       <c r="L8" s="14">
         <f>+L10+L37</f>
-        <v>9356621</v>
+        <v>11497719</v>
       </c>
       <c r="M8" s="14">
         <f t="shared" ref="M8:S8" si="0">+M10+M37</f>
-        <v>9514072</v>
+        <v>11604633</v>
       </c>
       <c r="N8" s="14">
         <f t="shared" si="0"/>
-        <v>9622980</v>
+        <v>12054772</v>
       </c>
       <c r="O8" s="14">
         <f t="shared" si="0"/>
-        <v>10062026</v>
+        <v>12074737</v>
       </c>
       <c r="P8" s="14">
         <f t="shared" si="0"/>
-        <v>9814274</v>
+        <v>12349910</v>
       </c>
       <c r="Q8" s="14">
         <f t="shared" si="0"/>
-        <v>10475537</v>
+        <v>12397996</v>
       </c>
       <c r="R8" s="14">
         <f t="shared" si="0"/>
-        <v>10576881</v>
+        <v>12349675</v>
       </c>
       <c r="S8" s="14">
         <f t="shared" si="0"/>
-        <v>10253354</v>
+        <v>12152466</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="15" customFormat="1">
@@ -14576,51 +16034,51 @@
       <c r="G10" s="83"/>
       <c r="H10" s="72">
         <f>+H12+H27</f>
-        <v>7763346</v>
+        <v>10327461</v>
       </c>
       <c r="I10" s="72">
         <f>+I12+I27</f>
-        <v>8165600</v>
+        <v>10405834</v>
       </c>
       <c r="J10" s="72">
         <f>+J12+J27</f>
-        <v>8477415</v>
+        <v>10773830</v>
       </c>
       <c r="K10" s="72">
         <f>+K12+K27</f>
-        <v>8600307</v>
+        <v>10991316</v>
       </c>
       <c r="L10" s="72">
         <f>+L12+L27</f>
-        <v>8890744</v>
+        <v>11071128</v>
       </c>
       <c r="M10" s="72">
         <f t="shared" ref="M10:S10" si="1">+M12+M27</f>
-        <v>9054064</v>
+        <v>11166033</v>
       </c>
       <c r="N10" s="72">
         <f t="shared" si="1"/>
-        <v>9164149</v>
+        <v>11610465</v>
       </c>
       <c r="O10" s="72">
         <f t="shared" si="1"/>
-        <v>9615029</v>
+        <v>11642519</v>
       </c>
       <c r="P10" s="72">
         <f t="shared" si="1"/>
-        <v>9368876</v>
+        <v>11917047</v>
       </c>
       <c r="Q10" s="72">
         <f t="shared" si="1"/>
-        <v>10027689</v>
+        <v>11971532</v>
       </c>
       <c r="R10" s="72">
         <f t="shared" si="1"/>
-        <v>10134056</v>
+        <v>11931828</v>
       </c>
       <c r="S10" s="72">
         <f t="shared" si="1"/>
-        <v>9795006</v>
+        <v>11728549</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="6.95" customHeight="1">
@@ -14653,51 +16111,51 @@
       <c r="G12" s="18"/>
       <c r="H12" s="19">
         <f>+H13+H25</f>
-        <v>5123765</v>
+        <v>7325554</v>
       </c>
       <c r="I12" s="19">
         <f>+I13+I25</f>
-        <v>5449851</v>
+        <v>7363068</v>
       </c>
       <c r="J12" s="19">
         <f>+J13+J25</f>
-        <v>5812867</v>
+        <v>7744607</v>
       </c>
       <c r="K12" s="19">
         <f>+K13+K25</f>
-        <v>5863517</v>
+        <v>7812384</v>
       </c>
       <c r="L12" s="19">
         <f>+L13+L25</f>
-        <v>6034036</v>
+        <v>7915755</v>
       </c>
       <c r="M12" s="19">
         <f t="shared" ref="M12:S12" si="2">+M13+M25</f>
-        <v>6190040</v>
+        <v>7938557</v>
       </c>
       <c r="N12" s="19">
         <f t="shared" si="2"/>
-        <v>6256489</v>
+        <v>8119598</v>
       </c>
       <c r="O12" s="19">
         <f t="shared" si="2"/>
-        <v>6713020</v>
+        <v>8220304</v>
       </c>
       <c r="P12" s="19">
         <f t="shared" si="2"/>
-        <v>6438378</v>
+        <v>8387753</v>
       </c>
       <c r="Q12" s="19">
         <f t="shared" si="2"/>
-        <v>7077364</v>
+        <v>8468408</v>
       </c>
       <c r="R12" s="19">
         <f t="shared" si="2"/>
-        <v>7191922</v>
+        <v>8441502</v>
       </c>
       <c r="S12" s="19">
         <f t="shared" si="2"/>
-        <v>6694687</v>
+        <v>8170414</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -14710,51 +16168,51 @@
       <c r="G13" s="18"/>
       <c r="H13" s="19">
         <f>H14+H19</f>
-        <v>948</v>
+        <v>540948</v>
       </c>
       <c r="I13" s="19">
         <f>I14+I19</f>
-        <v>948</v>
+        <v>540948</v>
       </c>
       <c r="J13" s="19">
         <f>J14+J19</f>
-        <v>300948</v>
+        <v>540948</v>
       </c>
       <c r="K13" s="19">
         <f>K14+K19</f>
-        <v>300948</v>
+        <v>540948</v>
       </c>
       <c r="L13" s="19">
         <f>L14+L19</f>
-        <v>300948</v>
+        <v>540156</v>
       </c>
       <c r="M13" s="19">
-        <f t="shared" ref="M13:R13" si="3">M14+M19</f>
-        <v>300948</v>
+        <f t="shared" ref="M13:S13" si="3">M14+M19</f>
+        <v>540156</v>
       </c>
       <c r="N13" s="19">
         <f t="shared" si="3"/>
-        <v>300948</v>
+        <v>540156</v>
       </c>
       <c r="O13" s="19">
         <f t="shared" si="3"/>
-        <v>300948</v>
+        <v>540156</v>
       </c>
       <c r="P13" s="19">
         <f t="shared" si="3"/>
-        <v>948</v>
+        <v>540156</v>
       </c>
       <c r="Q13" s="19">
         <f t="shared" si="3"/>
-        <v>540948</v>
+        <v>540156</v>
       </c>
       <c r="R13" s="19">
         <f t="shared" si="3"/>
-        <v>540948</v>
+        <v>540156</v>
       </c>
       <c r="S13" s="19">
-        <f t="shared" ref="S13" si="4">S14+S19</f>
-        <v>948</v>
+        <f t="shared" si="3"/>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -14767,50 +16225,50 @@
       <c r="G14" s="20"/>
       <c r="H14" s="21">
         <f>H15+H18</f>
-        <v>156</v>
+        <v>540156</v>
       </c>
       <c r="I14" s="21">
         <f>I15+I18</f>
-        <v>156</v>
+        <v>540156</v>
       </c>
       <c r="J14" s="21">
         <f>J15+J18</f>
-        <v>300156</v>
+        <v>540156</v>
       </c>
       <c r="K14" s="21">
         <f>K15+K18</f>
-        <v>300156</v>
+        <v>540156</v>
       </c>
       <c r="L14" s="21">
         <f>L15+L18</f>
-        <v>300156</v>
+        <v>540156</v>
       </c>
       <c r="M14" s="21">
-        <f t="shared" ref="M14:R14" si="5">M15+M18</f>
-        <v>300156</v>
+        <f t="shared" ref="M14:S14" si="4">M15+M18</f>
+        <v>540156</v>
       </c>
       <c r="N14" s="21">
-        <f t="shared" si="5"/>
-        <v>300156</v>
+        <f t="shared" si="4"/>
+        <v>540156</v>
       </c>
       <c r="O14" s="21">
-        <f t="shared" si="5"/>
-        <v>300156</v>
+        <f t="shared" si="4"/>
+        <v>540156</v>
       </c>
       <c r="P14" s="21">
-        <f t="shared" si="5"/>
-        <v>156</v>
+        <f t="shared" si="4"/>
+        <v>540156</v>
       </c>
       <c r="Q14" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>540156</v>
       </c>
       <c r="R14" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>540156</v>
       </c>
       <c r="S14" s="21">
-        <f t="shared" ref="S14" si="6">S15+S18</f>
+        <f t="shared" si="4"/>
         <v>156</v>
       </c>
     </row>
@@ -14823,47 +16281,36 @@
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="22">
-        <f>+H16+H17</f>
-        <v>156</v>
+        <v>540156</v>
       </c>
       <c r="I15" s="22">
-        <f>+I16+I17</f>
-        <v>156</v>
+        <v>540156</v>
       </c>
       <c r="J15" s="22">
-        <f>+J16+J17</f>
-        <v>300156</v>
+        <v>540156</v>
       </c>
       <c r="K15" s="22">
-        <f>+K16+K17</f>
-        <v>300156</v>
+        <v>540156</v>
       </c>
       <c r="L15" s="22">
-        <f>+L16+L17</f>
-        <v>300156</v>
+        <v>540156</v>
       </c>
       <c r="M15" s="22">
-        <f t="shared" ref="M15:R15" si="7">+M16+M17</f>
-        <v>300156</v>
+        <v>540156</v>
       </c>
       <c r="N15" s="22">
-        <f t="shared" si="7"/>
-        <v>300156</v>
+        <v>540156</v>
       </c>
       <c r="O15" s="22">
-        <f t="shared" si="7"/>
-        <v>300156</v>
+        <v>540156</v>
       </c>
       <c r="P15" s="22">
-        <f t="shared" si="7"/>
-        <v>156</v>
+        <v>540156</v>
       </c>
       <c r="Q15" s="22">
-        <f t="shared" si="7"/>
         <v>540156</v>
       </c>
       <c r="R15" s="22">
-        <f t="shared" si="7"/>
         <v>540156</v>
       </c>
       <c r="S15" s="22">
@@ -14924,31 +16371,31 @@
         <v>17</v>
       </c>
       <c r="H17" s="22">
-        <v>0</v>
+        <v>540000</v>
       </c>
       <c r="I17" s="22">
-        <v>0</v>
+        <v>540000</v>
       </c>
       <c r="J17" s="22">
-        <v>300000</v>
+        <v>540000</v>
       </c>
       <c r="K17" s="22">
-        <v>300000</v>
+        <v>540000</v>
       </c>
       <c r="L17" s="22">
-        <v>300000</v>
+        <v>540000</v>
       </c>
       <c r="M17" s="22">
-        <v>300000</v>
+        <v>540000</v>
       </c>
       <c r="N17" s="22">
-        <v>300000</v>
+        <v>540000</v>
       </c>
       <c r="O17" s="22">
-        <v>300000</v>
+        <v>540000</v>
       </c>
       <c r="P17" s="22">
-        <v>0</v>
+        <v>540000</v>
       </c>
       <c r="Q17" s="22">
         <v>540000</v>
@@ -15031,35 +16478,35 @@
       </c>
       <c r="L19" s="21">
         <f>SUM(L20:L23)</f>
-        <v>792</v>
+        <v>0</v>
       </c>
       <c r="M19" s="21">
-        <f t="shared" ref="M19:S19" si="8">SUM(M20:M23)</f>
-        <v>792</v>
+        <f t="shared" ref="M19:S19" si="5">SUM(M20:M23)</f>
+        <v>0</v>
       </c>
       <c r="N19" s="21">
-        <f t="shared" si="8"/>
-        <v>792</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="O19" s="21">
-        <f t="shared" si="8"/>
-        <v>792</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="P19" s="21">
-        <f t="shared" si="8"/>
-        <v>792</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="Q19" s="21">
-        <f t="shared" si="8"/>
-        <v>792</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="R19" s="21">
-        <f t="shared" si="8"/>
-        <v>792</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="S19" s="21">
-        <f t="shared" si="8"/>
-        <v>792</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="3:19">
@@ -15083,28 +16530,28 @@
         <v>350</v>
       </c>
       <c r="L20" s="22">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="M20" s="22">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="N20" s="22">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="O20" s="22">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="P20" s="22">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="22">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="R20" s="22">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="S20" s="22">
-        <v>350</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="3:19">
@@ -15128,28 +16575,28 @@
         <v>442</v>
       </c>
       <c r="L21" s="22">
-        <v>442</v>
+        <v>0</v>
       </c>
       <c r="M21" s="22">
-        <v>442</v>
+        <v>0</v>
       </c>
       <c r="N21" s="22">
-        <v>442</v>
+        <v>0</v>
       </c>
       <c r="O21" s="22">
-        <v>442</v>
+        <v>0</v>
       </c>
       <c r="P21" s="22">
-        <v>442</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="22">
-        <v>442</v>
+        <v>0</v>
       </c>
       <c r="R21" s="22">
-        <v>442</v>
+        <v>0</v>
       </c>
       <c r="S21" s="22">
-        <v>442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="3:19" hidden="1">
@@ -15242,40 +16689,40 @@
       <c r="F25" s="20"/>
       <c r="G25" s="20"/>
       <c r="H25" s="22">
-        <v>5122817</v>
+        <v>6784606</v>
       </c>
       <c r="I25" s="22">
-        <v>5448903</v>
+        <v>6822120</v>
       </c>
       <c r="J25" s="24">
-        <v>5511919</v>
+        <v>7203659</v>
       </c>
       <c r="K25" s="24">
-        <v>5562569</v>
+        <v>7271436</v>
       </c>
       <c r="L25" s="24">
-        <v>5733088</v>
+        <v>7375599</v>
       </c>
       <c r="M25" s="24">
-        <v>5889092</v>
+        <v>7398401</v>
       </c>
       <c r="N25" s="24">
-        <v>5955541</v>
+        <v>7579442</v>
       </c>
       <c r="O25" s="24">
-        <v>6412072</v>
+        <v>7680148</v>
       </c>
       <c r="P25" s="24">
-        <v>6437430</v>
+        <v>7847597</v>
       </c>
       <c r="Q25" s="24">
-        <v>6536416</v>
+        <v>7928252</v>
       </c>
       <c r="R25" s="24">
-        <v>6650974</v>
+        <v>7901346</v>
       </c>
       <c r="S25" s="24">
-        <v>6693739</v>
+        <v>8170258</v>
       </c>
     </row>
     <row r="26" spans="3:19">
@@ -15307,51 +16754,51 @@
       <c r="G27" s="18"/>
       <c r="H27" s="19">
         <f>H28+H34</f>
-        <v>2639581</v>
+        <v>3001907</v>
       </c>
       <c r="I27" s="19">
         <f>I28+I34</f>
-        <v>2715749</v>
+        <v>3042766</v>
       </c>
       <c r="J27" s="19">
         <f>J28+J34</f>
-        <v>2664548</v>
+        <v>3029223</v>
       </c>
       <c r="K27" s="19">
         <f>K28+K34</f>
-        <v>2736790</v>
+        <v>3178932</v>
       </c>
       <c r="L27" s="19">
         <f>L28+L34</f>
-        <v>2856708</v>
+        <v>3155373</v>
       </c>
       <c r="M27" s="19">
-        <f t="shared" ref="M27:R27" si="9">M28+M34</f>
-        <v>2864024</v>
+        <f t="shared" ref="M27:S27" si="6">M28+M34</f>
+        <v>3227476</v>
       </c>
       <c r="N27" s="19">
-        <f t="shared" si="9"/>
-        <v>2907660</v>
+        <f t="shared" si="6"/>
+        <v>3490867</v>
       </c>
       <c r="O27" s="19">
-        <f t="shared" si="9"/>
-        <v>2902009</v>
+        <f t="shared" si="6"/>
+        <v>3422215</v>
       </c>
       <c r="P27" s="19">
-        <f t="shared" si="9"/>
-        <v>2930498</v>
+        <f t="shared" si="6"/>
+        <v>3529294</v>
       </c>
       <c r="Q27" s="19">
-        <f t="shared" si="9"/>
-        <v>2950325</v>
+        <f t="shared" si="6"/>
+        <v>3503124</v>
       </c>
       <c r="R27" s="19">
-        <f t="shared" si="9"/>
-        <v>2942134</v>
+        <f t="shared" si="6"/>
+        <v>3490326</v>
       </c>
       <c r="S27" s="19">
-        <f t="shared" ref="S27" si="10">S28+S34</f>
-        <v>3100319</v>
+        <f t="shared" si="6"/>
+        <v>3558135</v>
       </c>
     </row>
     <row r="28" spans="3:19" s="23" customFormat="1">
@@ -15364,51 +16811,51 @@
       <c r="G28" s="20"/>
       <c r="H28" s="21">
         <f>H29+H32</f>
-        <v>1052668</v>
+        <v>1335318</v>
       </c>
       <c r="I28" s="21">
         <f>I29+I32</f>
-        <v>1058900</v>
+        <v>1359864</v>
       </c>
       <c r="J28" s="21">
         <f>J29+J32</f>
-        <v>1059095</v>
+        <v>1368303</v>
       </c>
       <c r="K28" s="21">
         <f>K29+K32</f>
-        <v>1140958</v>
+        <v>1380529</v>
       </c>
       <c r="L28" s="21">
         <f>L29+L32</f>
-        <v>1137656</v>
+        <v>1368630</v>
       </c>
       <c r="M28" s="21">
-        <f t="shared" ref="M28:R28" si="11">M29+M32</f>
-        <v>1168813</v>
+        <f t="shared" ref="M28:S28" si="7">M29+M32</f>
+        <v>1415064</v>
       </c>
       <c r="N28" s="21">
-        <f t="shared" si="11"/>
-        <v>1225879</v>
+        <f t="shared" si="7"/>
+        <v>1471994</v>
       </c>
       <c r="O28" s="21">
-        <f t="shared" si="11"/>
-        <v>1238187</v>
+        <f t="shared" si="7"/>
+        <v>1471188</v>
       </c>
       <c r="P28" s="21">
-        <f t="shared" si="11"/>
-        <v>1270022</v>
+        <f t="shared" si="7"/>
+        <v>1542150</v>
       </c>
       <c r="Q28" s="21">
-        <f t="shared" si="11"/>
-        <v>1290155</v>
+        <f t="shared" si="7"/>
+        <v>1529576</v>
       </c>
       <c r="R28" s="21">
-        <f t="shared" si="11"/>
-        <v>1288139</v>
+        <f t="shared" si="7"/>
+        <v>1527793</v>
       </c>
       <c r="S28" s="21">
-        <f t="shared" ref="S28" si="12">S29+S32</f>
-        <v>1311888</v>
+        <f t="shared" si="7"/>
+        <v>1574246</v>
       </c>
     </row>
     <row r="29" spans="3:19">
@@ -15421,51 +16868,51 @@
       <c r="G29" s="20"/>
       <c r="H29" s="25">
         <f>+H30+H31</f>
-        <v>1052668</v>
+        <v>1335318</v>
       </c>
       <c r="I29" s="25">
         <f>+I30+I31</f>
-        <v>1058900</v>
+        <v>1359864</v>
       </c>
       <c r="J29" s="25">
         <f>+J30+J31</f>
-        <v>1059095</v>
+        <v>1368303</v>
       </c>
       <c r="K29" s="25">
         <f>+K30+K31</f>
-        <v>1140958</v>
+        <v>1380529</v>
       </c>
       <c r="L29" s="25">
         <f>+L30+L31</f>
-        <v>1137656</v>
+        <v>1368630</v>
       </c>
       <c r="M29" s="25">
-        <f t="shared" ref="M29:R29" si="13">+M30+M31</f>
-        <v>1168813</v>
+        <f t="shared" ref="M29:S29" si="8">+M30+M31</f>
+        <v>1415064</v>
       </c>
       <c r="N29" s="25">
-        <f t="shared" si="13"/>
-        <v>1225879</v>
+        <f t="shared" si="8"/>
+        <v>1471994</v>
       </c>
       <c r="O29" s="25">
-        <f t="shared" si="13"/>
-        <v>1238187</v>
+        <f t="shared" si="8"/>
+        <v>1471188</v>
       </c>
       <c r="P29" s="25">
-        <f t="shared" si="13"/>
-        <v>1270022</v>
+        <f t="shared" si="8"/>
+        <v>1542150</v>
       </c>
       <c r="Q29" s="25">
-        <f t="shared" si="13"/>
-        <v>1290155</v>
+        <f t="shared" si="8"/>
+        <v>1529576</v>
       </c>
       <c r="R29" s="25">
-        <f t="shared" si="13"/>
-        <v>1288139</v>
+        <f t="shared" si="8"/>
+        <v>1527793</v>
       </c>
       <c r="S29" s="25">
-        <f t="shared" ref="S29" si="14">+S30+S31</f>
-        <v>1311888</v>
+        <f t="shared" si="8"/>
+        <v>1574246</v>
       </c>
     </row>
     <row r="30" spans="3:19">
@@ -15477,40 +16924,40 @@
       </c>
       <c r="G30" s="20"/>
       <c r="H30" s="22">
-        <v>1031360</v>
+        <v>1316574</v>
       </c>
       <c r="I30" s="22">
-        <v>1037589</v>
+        <v>1341423</v>
       </c>
       <c r="J30" s="24">
-        <v>1038255</v>
+        <v>1350970</v>
       </c>
       <c r="K30" s="24">
-        <v>1120359</v>
+        <v>1363322</v>
       </c>
       <c r="L30" s="24">
-        <v>1117155</v>
+        <v>1351618</v>
       </c>
       <c r="M30" s="24">
-        <v>1148893</v>
+        <v>1398146</v>
       </c>
       <c r="N30" s="24">
-        <v>1205838</v>
+        <v>1454336</v>
       </c>
       <c r="O30" s="24">
-        <v>1218621</v>
+        <v>1453960</v>
       </c>
       <c r="P30" s="24">
-        <v>1250808</v>
+        <v>1525143</v>
       </c>
       <c r="Q30" s="24">
-        <v>1271045</v>
+        <v>1513279</v>
       </c>
       <c r="R30" s="24">
-        <v>1269065</v>
+        <v>1511439</v>
       </c>
       <c r="S30" s="24">
-        <v>1292872</v>
+        <v>1558131</v>
       </c>
     </row>
     <row r="31" spans="3:19">
@@ -15522,40 +16969,40 @@
       </c>
       <c r="G31" s="20"/>
       <c r="H31" s="22">
-        <v>21308</v>
+        <v>18744</v>
       </c>
       <c r="I31" s="22">
-        <v>21311</v>
+        <v>18441</v>
       </c>
       <c r="J31" s="24">
-        <v>20840</v>
+        <v>17333</v>
       </c>
       <c r="K31" s="24">
-        <v>20599</v>
+        <v>17207</v>
       </c>
       <c r="L31" s="24">
-        <v>20501</v>
+        <v>17012</v>
       </c>
       <c r="M31" s="24">
-        <v>19920</v>
+        <v>16918</v>
       </c>
       <c r="N31" s="24">
-        <v>20041</v>
+        <v>17658</v>
       </c>
       <c r="O31" s="24">
-        <v>19566</v>
+        <v>17228</v>
       </c>
       <c r="P31" s="24">
-        <v>19214</v>
+        <v>17007</v>
       </c>
       <c r="Q31" s="24">
-        <v>19110</v>
+        <v>16297</v>
       </c>
       <c r="R31" s="24">
-        <v>19074</v>
+        <v>16354</v>
       </c>
       <c r="S31" s="24">
-        <v>19016</v>
+        <v>16115</v>
       </c>
     </row>
     <row r="32" spans="3:19">
@@ -15584,15 +17031,9 @@
       <c r="M32" s="21">
         <v>0</v>
       </c>
-      <c r="N32" s="21">
-        <v>0</v>
-      </c>
-      <c r="O32" s="21">
-        <v>0</v>
-      </c>
-      <c r="P32" s="21">
-        <v>0</v>
-      </c>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
       <c r="Q32" s="21">
         <v>0</v>
       </c>
@@ -15631,40 +17072,40 @@
       <c r="F34" s="20"/>
       <c r="G34" s="20"/>
       <c r="H34" s="22">
-        <v>1586913</v>
+        <v>1666589</v>
       </c>
       <c r="I34" s="22">
-        <v>1656849</v>
+        <v>1682902</v>
       </c>
       <c r="J34" s="24">
-        <v>1605453</v>
+        <v>1660920</v>
       </c>
       <c r="K34" s="24">
-        <v>1595832</v>
+        <v>1798403</v>
       </c>
       <c r="L34" s="24">
-        <v>1719052</v>
+        <v>1786743</v>
       </c>
       <c r="M34" s="24">
-        <v>1695211</v>
+        <v>1812412</v>
       </c>
       <c r="N34" s="24">
-        <v>1681781</v>
+        <v>2018873</v>
       </c>
       <c r="O34" s="24">
-        <v>1663822</v>
+        <v>1951027</v>
       </c>
       <c r="P34" s="24">
-        <v>1660476</v>
+        <v>1987144</v>
       </c>
       <c r="Q34" s="24">
-        <v>1660170</v>
+        <v>1973548</v>
       </c>
       <c r="R34" s="24">
-        <v>1653995</v>
+        <v>1962533</v>
       </c>
       <c r="S34" s="24">
-        <v>1788431</v>
+        <v>1983889</v>
       </c>
     </row>
     <row r="35" spans="1:19">
@@ -15698,51 +17139,51 @@
       <c r="G37" s="74"/>
       <c r="H37" s="75">
         <f>+H38+H42</f>
-        <v>488294</v>
+        <v>456387</v>
       </c>
       <c r="I37" s="75">
         <f>+I38+I42</f>
-        <v>484355</v>
+        <v>446722</v>
       </c>
       <c r="J37" s="75">
         <f>+J38+J42</f>
-        <v>481821</v>
+        <v>435811</v>
       </c>
       <c r="K37" s="75">
         <f>+K38+K42</f>
-        <v>477682</v>
+        <v>434740</v>
       </c>
       <c r="L37" s="75">
         <f>+L38+L42</f>
-        <v>465877</v>
+        <v>426591</v>
       </c>
       <c r="M37" s="75">
-        <f t="shared" ref="M37:R37" si="15">+M38+M42</f>
-        <v>460008</v>
+        <f t="shared" ref="M37:S37" si="9">+M38+M42</f>
+        <v>438600</v>
       </c>
       <c r="N37" s="75">
-        <f t="shared" si="15"/>
-        <v>458831</v>
+        <f t="shared" si="9"/>
+        <v>444307</v>
       </c>
       <c r="O37" s="75">
-        <f t="shared" si="15"/>
-        <v>446997</v>
+        <f t="shared" si="9"/>
+        <v>432218</v>
       </c>
       <c r="P37" s="75">
-        <f t="shared" si="15"/>
-        <v>445398</v>
+        <f t="shared" si="9"/>
+        <v>432863</v>
       </c>
       <c r="Q37" s="75">
-        <f t="shared" si="15"/>
-        <v>447848</v>
+        <f t="shared" si="9"/>
+        <v>426464</v>
       </c>
       <c r="R37" s="75">
-        <f t="shared" si="15"/>
-        <v>442825</v>
+        <f t="shared" si="9"/>
+        <v>417847</v>
       </c>
       <c r="S37" s="75">
-        <f t="shared" ref="S37" si="16">+S38+S42</f>
-        <v>458348</v>
+        <f t="shared" si="9"/>
+        <v>423917</v>
       </c>
     </row>
     <row r="38" spans="1:19" s="30" customFormat="1" ht="14.25" customHeight="1">
@@ -15751,51 +17192,51 @@
       </c>
       <c r="H38" s="29">
         <f>+H39+H40</f>
-        <v>260301</v>
+        <v>254107</v>
       </c>
       <c r="I38" s="29">
         <f>+I39+I40</f>
-        <v>254996</v>
+        <v>244122</v>
       </c>
       <c r="J38" s="29">
         <f>+J39+J40</f>
-        <v>254832</v>
+        <v>239281</v>
       </c>
       <c r="K38" s="29">
         <f>+K39+K40</f>
-        <v>251592</v>
+        <v>238530</v>
       </c>
       <c r="L38" s="29">
         <f>+L39+L40</f>
-        <v>240800</v>
+        <v>233010</v>
       </c>
       <c r="M38" s="29">
-        <f t="shared" ref="M38:R38" si="17">+M39+M40</f>
-        <v>237748</v>
+        <f t="shared" ref="M38:S38" si="10">+M39+M40</f>
+        <v>244076</v>
       </c>
       <c r="N38" s="29">
-        <f t="shared" si="17"/>
-        <v>237423</v>
+        <f t="shared" si="10"/>
+        <v>242653</v>
       </c>
       <c r="O38" s="29">
-        <f t="shared" si="17"/>
-        <v>228827</v>
+        <f t="shared" si="10"/>
+        <v>233113</v>
       </c>
       <c r="P38" s="29">
-        <f t="shared" si="17"/>
-        <v>228673</v>
+        <f t="shared" si="10"/>
+        <v>232969</v>
       </c>
       <c r="Q38" s="29">
-        <f t="shared" si="17"/>
-        <v>230499</v>
+        <f t="shared" si="10"/>
+        <v>194026</v>
       </c>
       <c r="R38" s="29">
-        <f t="shared" si="17"/>
-        <v>226903</v>
+        <f t="shared" si="10"/>
+        <v>189083</v>
       </c>
       <c r="S38" s="29">
-        <f t="shared" ref="S38" si="18">+S39+S40</f>
-        <v>254423</v>
+        <f t="shared" si="10"/>
+        <v>195075</v>
       </c>
     </row>
     <row r="39" spans="1:19" s="23" customFormat="1">
@@ -15803,40 +17244,40 @@
         <v>28</v>
       </c>
       <c r="H39" s="31">
-        <v>260165</v>
+        <v>253971</v>
       </c>
       <c r="I39" s="31">
-        <v>254860</v>
+        <v>243986</v>
       </c>
       <c r="J39" s="31">
-        <v>254696</v>
+        <v>239145</v>
       </c>
       <c r="K39" s="31">
-        <v>251456</v>
+        <v>238394</v>
       </c>
       <c r="L39" s="31">
-        <v>240664</v>
+        <v>232874</v>
       </c>
       <c r="M39" s="31">
-        <v>237612</v>
+        <v>243940</v>
       </c>
       <c r="N39" s="31">
-        <v>237287</v>
+        <v>242517</v>
       </c>
       <c r="O39" s="31">
-        <v>228691</v>
+        <v>232977</v>
       </c>
       <c r="P39" s="31">
-        <v>228537</v>
+        <v>232833</v>
       </c>
       <c r="Q39" s="31">
-        <v>230363</v>
+        <v>193890</v>
       </c>
       <c r="R39" s="31">
-        <v>226767</v>
+        <v>188947</v>
       </c>
       <c r="S39" s="31">
-        <v>254287</v>
+        <v>194939</v>
       </c>
     </row>
     <row r="40" spans="1:19" s="23" customFormat="1" ht="12.75" customHeight="1">
@@ -15903,6 +17344,1771 @@
       </c>
       <c r="H42" s="29">
         <f>+H43+H44</f>
+        <v>202280</v>
+      </c>
+      <c r="I42" s="29">
+        <f>+I43+I44</f>
+        <v>202600</v>
+      </c>
+      <c r="J42" s="29">
+        <f>+J43+J44</f>
+        <v>196530</v>
+      </c>
+      <c r="K42" s="29">
+        <f>+K43+K44</f>
+        <v>196210</v>
+      </c>
+      <c r="L42" s="29">
+        <f>+L43+L44</f>
+        <v>193581</v>
+      </c>
+      <c r="M42" s="29">
+        <f t="shared" ref="M42:S42" si="11">+M43+M44</f>
+        <v>194524</v>
+      </c>
+      <c r="N42" s="29">
+        <f t="shared" si="11"/>
+        <v>201654</v>
+      </c>
+      <c r="O42" s="29">
+        <f t="shared" si="11"/>
+        <v>199105</v>
+      </c>
+      <c r="P42" s="29">
+        <f t="shared" si="11"/>
+        <v>199894</v>
+      </c>
+      <c r="Q42" s="29">
+        <f t="shared" si="11"/>
+        <v>232438</v>
+      </c>
+      <c r="R42" s="29">
+        <f t="shared" si="11"/>
+        <v>228764</v>
+      </c>
+      <c r="S42" s="29">
+        <f t="shared" si="11"/>
+        <v>228842</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" s="31" customFormat="1">
+      <c r="E43" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="H43" s="31">
+        <v>198167</v>
+      </c>
+      <c r="I43" s="31">
+        <v>198437</v>
+      </c>
+      <c r="J43" s="31">
+        <v>192377</v>
+      </c>
+      <c r="K43" s="31">
+        <v>192089</v>
+      </c>
+      <c r="L43" s="31">
+        <v>189497</v>
+      </c>
+      <c r="M43" s="31">
+        <v>190357</v>
+      </c>
+      <c r="N43" s="31">
+        <v>197357</v>
+      </c>
+      <c r="O43" s="31">
+        <v>194848</v>
+      </c>
+      <c r="P43" s="31">
+        <v>195542</v>
+      </c>
+      <c r="Q43" s="31">
+        <v>228113</v>
+      </c>
+      <c r="R43" s="31">
+        <v>224455</v>
+      </c>
+      <c r="S43" s="31">
+        <v>224482</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" s="31" customFormat="1" ht="12.75" customHeight="1">
+      <c r="E44" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="H44" s="31">
+        <v>4113</v>
+      </c>
+      <c r="I44" s="31">
+        <v>4163</v>
+      </c>
+      <c r="J44" s="31">
+        <v>4153</v>
+      </c>
+      <c r="K44" s="31">
+        <v>4121</v>
+      </c>
+      <c r="L44" s="31">
+        <v>4084</v>
+      </c>
+      <c r="M44" s="31">
+        <v>4167</v>
+      </c>
+      <c r="N44" s="31">
+        <v>4297</v>
+      </c>
+      <c r="O44" s="31">
+        <v>4257</v>
+      </c>
+      <c r="P44" s="31">
+        <v>4352</v>
+      </c>
+      <c r="Q44" s="31">
+        <v>4325</v>
+      </c>
+      <c r="R44" s="31">
+        <v>4309</v>
+      </c>
+      <c r="S44" s="31">
+        <v>4360</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
+      <c r="A47" s="33"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="C49" s="34"/>
+    </row>
+    <row r="50" spans="1:12" s="35" customFormat="1" ht="12">
+      <c r="C50" s="36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" s="35" customFormat="1" ht="12">
+      <c r="C51" s="37"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" s="40" customFormat="1">
+      <c r="A52" s="39"/>
+      <c r="B52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="I52" s="41"/>
+      <c r="J52" s="41"/>
+      <c r="K52" s="41"/>
+      <c r="L52" s="41"/>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" s="37"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="43"/>
+      <c r="B54" s="43"/>
+      <c r="I54" s="44"/>
+      <c r="J54" s="44"/>
+      <c r="K54" s="44"/>
+      <c r="L54" s="44"/>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="37"/>
+      <c r="B55" s="37"/>
+    </row>
+    <row r="183" spans="3:4" ht="15.75" hidden="1" customHeight="1">
+      <c r="C183" s="45" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="184" spans="3:4" ht="3.75" hidden="1" customHeight="1"/>
+    <row r="185" spans="3:4" hidden="1">
+      <c r="C185" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D185" s="15"/>
+    </row>
+    <row r="186" spans="3:4" ht="12.75" hidden="1" customHeight="1">
+      <c r="C186" s="15"/>
+      <c r="D186" s="15"/>
+    </row>
+    <row r="187" spans="3:4" s="23" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+      <c r="C187" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D187" s="46"/>
+    </row>
+    <row r="188" spans="3:4" hidden="1">
+      <c r="C188" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="189" spans="3:4" hidden="1">
+      <c r="C189" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:S5"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="B10:G10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="97" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S189"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="5" width="1.140625" customWidth="1"/>
+    <col min="6" max="6" width="2.5703125" customWidth="1"/>
+    <col min="7" max="7" width="31.7109375" customWidth="1"/>
+    <col min="8" max="19" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="15.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:19" ht="16.5" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:19" ht="24" customHeight="1">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:19" ht="18" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="81"/>
+    </row>
+    <row r="6" spans="1:19" ht="18" customHeight="1">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="9" customHeight="1">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="1:19" s="15" customFormat="1">
+      <c r="A8" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="14">
+        <f>+H10+H37</f>
+        <v>8251640</v>
+      </c>
+      <c r="I8" s="14">
+        <f>+I10+I37</f>
+        <v>8649955</v>
+      </c>
+      <c r="J8" s="14">
+        <f>+J10+J37</f>
+        <v>8959236</v>
+      </c>
+      <c r="K8" s="14">
+        <f>+K10+K37</f>
+        <v>9077989</v>
+      </c>
+      <c r="L8" s="14">
+        <f>+L10+L37</f>
+        <v>9356621</v>
+      </c>
+      <c r="M8" s="14">
+        <f t="shared" ref="M8:S8" si="0">+M10+M37</f>
+        <v>9514072</v>
+      </c>
+      <c r="N8" s="14">
+        <f t="shared" si="0"/>
+        <v>9622980</v>
+      </c>
+      <c r="O8" s="14">
+        <f t="shared" si="0"/>
+        <v>10062026</v>
+      </c>
+      <c r="P8" s="14">
+        <f t="shared" si="0"/>
+        <v>9814274</v>
+      </c>
+      <c r="Q8" s="14">
+        <f t="shared" si="0"/>
+        <v>10475537</v>
+      </c>
+      <c r="R8" s="14">
+        <f t="shared" si="0"/>
+        <v>10576881</v>
+      </c>
+      <c r="S8" s="14">
+        <f t="shared" si="0"/>
+        <v>10253354</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="15" customFormat="1">
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+    </row>
+    <row r="10" spans="1:19" ht="12.75" customHeight="1">
+      <c r="B10" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="72">
+        <f>+H12+H27</f>
+        <v>7763346</v>
+      </c>
+      <c r="I10" s="72">
+        <f>+I12+I27</f>
+        <v>8165600</v>
+      </c>
+      <c r="J10" s="72">
+        <f>+J12+J27</f>
+        <v>8477415</v>
+      </c>
+      <c r="K10" s="72">
+        <f>+K12+K27</f>
+        <v>8600307</v>
+      </c>
+      <c r="L10" s="72">
+        <f>+L12+L27</f>
+        <v>8890744</v>
+      </c>
+      <c r="M10" s="72">
+        <f t="shared" ref="M10:S10" si="1">+M12+M27</f>
+        <v>9054064</v>
+      </c>
+      <c r="N10" s="72">
+        <f t="shared" si="1"/>
+        <v>9164149</v>
+      </c>
+      <c r="O10" s="72">
+        <f t="shared" si="1"/>
+        <v>9615029</v>
+      </c>
+      <c r="P10" s="72">
+        <f t="shared" si="1"/>
+        <v>9368876</v>
+      </c>
+      <c r="Q10" s="72">
+        <f t="shared" si="1"/>
+        <v>10027689</v>
+      </c>
+      <c r="R10" s="72">
+        <f t="shared" si="1"/>
+        <v>10134056</v>
+      </c>
+      <c r="S10" s="72">
+        <f t="shared" si="1"/>
+        <v>9795006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="6.95" customHeight="1">
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="C12" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="19">
+        <f>+H13+H25</f>
+        <v>5123765</v>
+      </c>
+      <c r="I12" s="19">
+        <f>+I13+I25</f>
+        <v>5449851</v>
+      </c>
+      <c r="J12" s="19">
+        <f>+J13+J25</f>
+        <v>5812867</v>
+      </c>
+      <c r="K12" s="19">
+        <f>+K13+K25</f>
+        <v>5863517</v>
+      </c>
+      <c r="L12" s="19">
+        <f>+L13+L25</f>
+        <v>6034036</v>
+      </c>
+      <c r="M12" s="19">
+        <f t="shared" ref="M12:S12" si="2">+M13+M25</f>
+        <v>6190040</v>
+      </c>
+      <c r="N12" s="19">
+        <f t="shared" si="2"/>
+        <v>6256489</v>
+      </c>
+      <c r="O12" s="19">
+        <f t="shared" si="2"/>
+        <v>6713020</v>
+      </c>
+      <c r="P12" s="19">
+        <f t="shared" si="2"/>
+        <v>6438378</v>
+      </c>
+      <c r="Q12" s="19">
+        <f t="shared" si="2"/>
+        <v>7077364</v>
+      </c>
+      <c r="R12" s="19">
+        <f t="shared" si="2"/>
+        <v>7191922</v>
+      </c>
+      <c r="S12" s="19">
+        <f t="shared" si="2"/>
+        <v>6694687</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="C13" s="18"/>
+      <c r="D13" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19">
+        <f>H14+H19</f>
+        <v>948</v>
+      </c>
+      <c r="I13" s="19">
+        <f>I14+I19</f>
+        <v>948</v>
+      </c>
+      <c r="J13" s="19">
+        <f>J14+J19</f>
+        <v>300948</v>
+      </c>
+      <c r="K13" s="19">
+        <f>K14+K19</f>
+        <v>300948</v>
+      </c>
+      <c r="L13" s="19">
+        <f>L14+L19</f>
+        <v>300948</v>
+      </c>
+      <c r="M13" s="19">
+        <f t="shared" ref="M13:R13" si="3">M14+M19</f>
+        <v>300948</v>
+      </c>
+      <c r="N13" s="19">
+        <f t="shared" si="3"/>
+        <v>300948</v>
+      </c>
+      <c r="O13" s="19">
+        <f t="shared" si="3"/>
+        <v>300948</v>
+      </c>
+      <c r="P13" s="19">
+        <f t="shared" si="3"/>
+        <v>948</v>
+      </c>
+      <c r="Q13" s="19">
+        <f t="shared" si="3"/>
+        <v>540948</v>
+      </c>
+      <c r="R13" s="19">
+        <f t="shared" si="3"/>
+        <v>540948</v>
+      </c>
+      <c r="S13" s="19">
+        <f t="shared" ref="S13" si="4">S14+S19</f>
+        <v>948</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21">
+        <f>H15+H18</f>
+        <v>156</v>
+      </c>
+      <c r="I14" s="21">
+        <f>I15+I18</f>
+        <v>156</v>
+      </c>
+      <c r="J14" s="21">
+        <f>J15+J18</f>
+        <v>300156</v>
+      </c>
+      <c r="K14" s="21">
+        <f>K15+K18</f>
+        <v>300156</v>
+      </c>
+      <c r="L14" s="21">
+        <f>L15+L18</f>
+        <v>300156</v>
+      </c>
+      <c r="M14" s="21">
+        <f t="shared" ref="M14:R14" si="5">M15+M18</f>
+        <v>300156</v>
+      </c>
+      <c r="N14" s="21">
+        <f t="shared" si="5"/>
+        <v>300156</v>
+      </c>
+      <c r="O14" s="21">
+        <f t="shared" si="5"/>
+        <v>300156</v>
+      </c>
+      <c r="P14" s="21">
+        <f t="shared" si="5"/>
+        <v>156</v>
+      </c>
+      <c r="Q14" s="21">
+        <f t="shared" si="5"/>
+        <v>540156</v>
+      </c>
+      <c r="R14" s="21">
+        <f t="shared" si="5"/>
+        <v>540156</v>
+      </c>
+      <c r="S14" s="21">
+        <f t="shared" ref="S14" si="6">S15+S18</f>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="20"/>
+      <c r="H15" s="22">
+        <f>+H16+H17</f>
+        <v>156</v>
+      </c>
+      <c r="I15" s="22">
+        <f>+I16+I17</f>
+        <v>156</v>
+      </c>
+      <c r="J15" s="22">
+        <f>+J16+J17</f>
+        <v>300156</v>
+      </c>
+      <c r="K15" s="22">
+        <f>+K16+K17</f>
+        <v>300156</v>
+      </c>
+      <c r="L15" s="22">
+        <f>+L16+L17</f>
+        <v>300156</v>
+      </c>
+      <c r="M15" s="22">
+        <f t="shared" ref="M15:R15" si="7">+M16+M17</f>
+        <v>300156</v>
+      </c>
+      <c r="N15" s="22">
+        <f t="shared" si="7"/>
+        <v>300156</v>
+      </c>
+      <c r="O15" s="22">
+        <f t="shared" si="7"/>
+        <v>300156</v>
+      </c>
+      <c r="P15" s="22">
+        <f t="shared" si="7"/>
+        <v>156</v>
+      </c>
+      <c r="Q15" s="22">
+        <f t="shared" si="7"/>
+        <v>540156</v>
+      </c>
+      <c r="R15" s="22">
+        <f t="shared" si="7"/>
+        <v>540156</v>
+      </c>
+      <c r="S15" s="22">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="22">
+        <v>156</v>
+      </c>
+      <c r="I16" s="22">
+        <v>156</v>
+      </c>
+      <c r="J16" s="22">
+        <v>156</v>
+      </c>
+      <c r="K16" s="22">
+        <v>156</v>
+      </c>
+      <c r="L16" s="22">
+        <v>156</v>
+      </c>
+      <c r="M16" s="22">
+        <v>156</v>
+      </c>
+      <c r="N16" s="22">
+        <v>156</v>
+      </c>
+      <c r="O16" s="22">
+        <v>156</v>
+      </c>
+      <c r="P16" s="22">
+        <v>156</v>
+      </c>
+      <c r="Q16" s="22">
+        <v>156</v>
+      </c>
+      <c r="R16" s="22">
+        <v>156</v>
+      </c>
+      <c r="S16" s="22">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="3:19">
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="22">
+        <v>0</v>
+      </c>
+      <c r="I17" s="22">
+        <v>0</v>
+      </c>
+      <c r="J17" s="22">
+        <v>300000</v>
+      </c>
+      <c r="K17" s="22">
+        <v>300000</v>
+      </c>
+      <c r="L17" s="22">
+        <v>300000</v>
+      </c>
+      <c r="M17" s="22">
+        <v>300000</v>
+      </c>
+      <c r="N17" s="22">
+        <v>300000</v>
+      </c>
+      <c r="O17" s="22">
+        <v>300000</v>
+      </c>
+      <c r="P17" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="22">
+        <v>540000</v>
+      </c>
+      <c r="R17" s="22">
+        <v>540000</v>
+      </c>
+      <c r="S17" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19">
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="20"/>
+      <c r="H18" s="22">
+        <v>0</v>
+      </c>
+      <c r="I18" s="22">
+        <v>0</v>
+      </c>
+      <c r="J18" s="22">
+        <v>0</v>
+      </c>
+      <c r="K18" s="22">
+        <v>0</v>
+      </c>
+      <c r="L18" s="22">
+        <v>0</v>
+      </c>
+      <c r="M18" s="22">
+        <v>0</v>
+      </c>
+      <c r="N18" s="22">
+        <v>0</v>
+      </c>
+      <c r="O18" s="22">
+        <v>0</v>
+      </c>
+      <c r="P18" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="22">
+        <v>0</v>
+      </c>
+      <c r="R18" s="22">
+        <v>0</v>
+      </c>
+      <c r="S18" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19">
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="21">
+        <f>SUM(H20:H23)</f>
+        <v>792</v>
+      </c>
+      <c r="I19" s="21">
+        <f>SUM(I20:I23)</f>
+        <v>792</v>
+      </c>
+      <c r="J19" s="21">
+        <f>SUM(J20:J23)</f>
+        <v>792</v>
+      </c>
+      <c r="K19" s="21">
+        <f>SUM(K20:K23)</f>
+        <v>792</v>
+      </c>
+      <c r="L19" s="21">
+        <f>SUM(L20:L23)</f>
+        <v>792</v>
+      </c>
+      <c r="M19" s="21">
+        <f t="shared" ref="M19:S19" si="8">SUM(M20:M23)</f>
+        <v>792</v>
+      </c>
+      <c r="N19" s="21">
+        <f t="shared" si="8"/>
+        <v>792</v>
+      </c>
+      <c r="O19" s="21">
+        <f t="shared" si="8"/>
+        <v>792</v>
+      </c>
+      <c r="P19" s="21">
+        <f t="shared" si="8"/>
+        <v>792</v>
+      </c>
+      <c r="Q19" s="21">
+        <f t="shared" si="8"/>
+        <v>792</v>
+      </c>
+      <c r="R19" s="21">
+        <f t="shared" si="8"/>
+        <v>792</v>
+      </c>
+      <c r="S19" s="21">
+        <f t="shared" si="8"/>
+        <v>792</v>
+      </c>
+    </row>
+    <row r="20" spans="3:19">
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="20"/>
+      <c r="H20" s="22">
+        <v>350</v>
+      </c>
+      <c r="I20" s="22">
+        <v>350</v>
+      </c>
+      <c r="J20" s="22">
+        <v>350</v>
+      </c>
+      <c r="K20" s="22">
+        <v>350</v>
+      </c>
+      <c r="L20" s="22">
+        <v>350</v>
+      </c>
+      <c r="M20" s="22">
+        <v>350</v>
+      </c>
+      <c r="N20" s="22">
+        <v>350</v>
+      </c>
+      <c r="O20" s="22">
+        <v>350</v>
+      </c>
+      <c r="P20" s="22">
+        <v>350</v>
+      </c>
+      <c r="Q20" s="22">
+        <v>350</v>
+      </c>
+      <c r="R20" s="22">
+        <v>350</v>
+      </c>
+      <c r="S20" s="22">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19">
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="20"/>
+      <c r="H21" s="22">
+        <v>442</v>
+      </c>
+      <c r="I21" s="22">
+        <v>442</v>
+      </c>
+      <c r="J21" s="22">
+        <v>442</v>
+      </c>
+      <c r="K21" s="22">
+        <v>442</v>
+      </c>
+      <c r="L21" s="22">
+        <v>442</v>
+      </c>
+      <c r="M21" s="22">
+        <v>442</v>
+      </c>
+      <c r="N21" s="22">
+        <v>442</v>
+      </c>
+      <c r="O21" s="22">
+        <v>442</v>
+      </c>
+      <c r="P21" s="22">
+        <v>442</v>
+      </c>
+      <c r="Q21" s="22">
+        <v>442</v>
+      </c>
+      <c r="R21" s="22">
+        <v>442</v>
+      </c>
+      <c r="S21" s="22">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" hidden="1">
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="20"/>
+      <c r="H22" s="22">
+        <v>0</v>
+      </c>
+      <c r="I22" s="22">
+        <v>0</v>
+      </c>
+      <c r="J22" s="22">
+        <v>0</v>
+      </c>
+      <c r="K22" s="22">
+        <v>0</v>
+      </c>
+      <c r="L22" s="22">
+        <v>0</v>
+      </c>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+    </row>
+    <row r="23" spans="3:19" hidden="1">
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="20"/>
+      <c r="H23" s="22">
+        <v>0</v>
+      </c>
+      <c r="I23" s="22">
+        <v>0</v>
+      </c>
+      <c r="J23" s="22">
+        <v>0</v>
+      </c>
+      <c r="K23" s="22">
+        <v>0</v>
+      </c>
+      <c r="L23" s="22">
+        <v>0</v>
+      </c>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+    </row>
+    <row r="24" spans="3:19" ht="6.95" customHeight="1">
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+    </row>
+    <row r="25" spans="3:19" s="23" customFormat="1">
+      <c r="C25" s="20"/>
+      <c r="D25" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="22">
+        <v>5122817</v>
+      </c>
+      <c r="I25" s="22">
+        <v>5448903</v>
+      </c>
+      <c r="J25" s="24">
+        <v>5511919</v>
+      </c>
+      <c r="K25" s="24">
+        <v>5562569</v>
+      </c>
+      <c r="L25" s="24">
+        <v>5733088</v>
+      </c>
+      <c r="M25" s="24">
+        <v>5889092</v>
+      </c>
+      <c r="N25" s="24">
+        <v>5955541</v>
+      </c>
+      <c r="O25" s="24">
+        <v>6412072</v>
+      </c>
+      <c r="P25" s="24">
+        <v>6437430</v>
+      </c>
+      <c r="Q25" s="24">
+        <v>6536416</v>
+      </c>
+      <c r="R25" s="24">
+        <v>6650974</v>
+      </c>
+      <c r="S25" s="24">
+        <v>6693739</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19">
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+    </row>
+    <row r="27" spans="3:19">
+      <c r="C27" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="19">
+        <f>H28+H34</f>
+        <v>2639581</v>
+      </c>
+      <c r="I27" s="19">
+        <f>I28+I34</f>
+        <v>2715749</v>
+      </c>
+      <c r="J27" s="19">
+        <f>J28+J34</f>
+        <v>2664548</v>
+      </c>
+      <c r="K27" s="19">
+        <f>K28+K34</f>
+        <v>2736790</v>
+      </c>
+      <c r="L27" s="19">
+        <f>L28+L34</f>
+        <v>2856708</v>
+      </c>
+      <c r="M27" s="19">
+        <f t="shared" ref="M27:R27" si="9">M28+M34</f>
+        <v>2864024</v>
+      </c>
+      <c r="N27" s="19">
+        <f t="shared" si="9"/>
+        <v>2907660</v>
+      </c>
+      <c r="O27" s="19">
+        <f t="shared" si="9"/>
+        <v>2902009</v>
+      </c>
+      <c r="P27" s="19">
+        <f t="shared" si="9"/>
+        <v>2930498</v>
+      </c>
+      <c r="Q27" s="19">
+        <f t="shared" si="9"/>
+        <v>2950325</v>
+      </c>
+      <c r="R27" s="19">
+        <f t="shared" si="9"/>
+        <v>2942134</v>
+      </c>
+      <c r="S27" s="19">
+        <f t="shared" ref="S27" si="10">S28+S34</f>
+        <v>3100319</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" s="23" customFormat="1">
+      <c r="C28" s="20"/>
+      <c r="D28" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="21">
+        <f>H29+H32</f>
+        <v>1052668</v>
+      </c>
+      <c r="I28" s="21">
+        <f>I29+I32</f>
+        <v>1058900</v>
+      </c>
+      <c r="J28" s="21">
+        <f>J29+J32</f>
+        <v>1059095</v>
+      </c>
+      <c r="K28" s="21">
+        <f>K29+K32</f>
+        <v>1140958</v>
+      </c>
+      <c r="L28" s="21">
+        <f>L29+L32</f>
+        <v>1137656</v>
+      </c>
+      <c r="M28" s="21">
+        <f t="shared" ref="M28:R28" si="11">M29+M32</f>
+        <v>1168813</v>
+      </c>
+      <c r="N28" s="21">
+        <f t="shared" si="11"/>
+        <v>1225879</v>
+      </c>
+      <c r="O28" s="21">
+        <f t="shared" si="11"/>
+        <v>1238187</v>
+      </c>
+      <c r="P28" s="21">
+        <f t="shared" si="11"/>
+        <v>1270022</v>
+      </c>
+      <c r="Q28" s="21">
+        <f t="shared" si="11"/>
+        <v>1290155</v>
+      </c>
+      <c r="R28" s="21">
+        <f t="shared" si="11"/>
+        <v>1288139</v>
+      </c>
+      <c r="S28" s="21">
+        <f t="shared" ref="S28" si="12">S29+S32</f>
+        <v>1311888</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19">
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="25">
+        <f>+H30+H31</f>
+        <v>1052668</v>
+      </c>
+      <c r="I29" s="25">
+        <f>+I30+I31</f>
+        <v>1058900</v>
+      </c>
+      <c r="J29" s="25">
+        <f>+J30+J31</f>
+        <v>1059095</v>
+      </c>
+      <c r="K29" s="25">
+        <f>+K30+K31</f>
+        <v>1140958</v>
+      </c>
+      <c r="L29" s="25">
+        <f>+L30+L31</f>
+        <v>1137656</v>
+      </c>
+      <c r="M29" s="25">
+        <f t="shared" ref="M29:R29" si="13">+M30+M31</f>
+        <v>1168813</v>
+      </c>
+      <c r="N29" s="25">
+        <f t="shared" si="13"/>
+        <v>1225879</v>
+      </c>
+      <c r="O29" s="25">
+        <f t="shared" si="13"/>
+        <v>1238187</v>
+      </c>
+      <c r="P29" s="25">
+        <f t="shared" si="13"/>
+        <v>1270022</v>
+      </c>
+      <c r="Q29" s="25">
+        <f t="shared" si="13"/>
+        <v>1290155</v>
+      </c>
+      <c r="R29" s="25">
+        <f t="shared" si="13"/>
+        <v>1288139</v>
+      </c>
+      <c r="S29" s="25">
+        <f t="shared" ref="S29" si="14">+S30+S31</f>
+        <v>1311888</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19">
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="20"/>
+      <c r="H30" s="22">
+        <v>1031360</v>
+      </c>
+      <c r="I30" s="22">
+        <v>1037589</v>
+      </c>
+      <c r="J30" s="24">
+        <v>1038255</v>
+      </c>
+      <c r="K30" s="24">
+        <v>1120359</v>
+      </c>
+      <c r="L30" s="24">
+        <v>1117155</v>
+      </c>
+      <c r="M30" s="24">
+        <v>1148893</v>
+      </c>
+      <c r="N30" s="24">
+        <v>1205838</v>
+      </c>
+      <c r="O30" s="24">
+        <v>1218621</v>
+      </c>
+      <c r="P30" s="24">
+        <v>1250808</v>
+      </c>
+      <c r="Q30" s="24">
+        <v>1271045</v>
+      </c>
+      <c r="R30" s="24">
+        <v>1269065</v>
+      </c>
+      <c r="S30" s="24">
+        <v>1292872</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19">
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="20"/>
+      <c r="H31" s="22">
+        <v>21308</v>
+      </c>
+      <c r="I31" s="22">
+        <v>21311</v>
+      </c>
+      <c r="J31" s="24">
+        <v>20840</v>
+      </c>
+      <c r="K31" s="24">
+        <v>20599</v>
+      </c>
+      <c r="L31" s="24">
+        <v>20501</v>
+      </c>
+      <c r="M31" s="24">
+        <v>19920</v>
+      </c>
+      <c r="N31" s="24">
+        <v>20041</v>
+      </c>
+      <c r="O31" s="24">
+        <v>19566</v>
+      </c>
+      <c r="P31" s="24">
+        <v>19214</v>
+      </c>
+      <c r="Q31" s="24">
+        <v>19110</v>
+      </c>
+      <c r="R31" s="24">
+        <v>19074</v>
+      </c>
+      <c r="S31" s="24">
+        <v>19016</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19">
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="21">
+        <v>0</v>
+      </c>
+      <c r="I32" s="21">
+        <v>0</v>
+      </c>
+      <c r="J32" s="21">
+        <v>0</v>
+      </c>
+      <c r="K32" s="21">
+        <v>0</v>
+      </c>
+      <c r="L32" s="21">
+        <v>0</v>
+      </c>
+      <c r="M32" s="21">
+        <v>0</v>
+      </c>
+      <c r="N32" s="21">
+        <v>0</v>
+      </c>
+      <c r="O32" s="21">
+        <v>0</v>
+      </c>
+      <c r="P32" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="21">
+        <v>0</v>
+      </c>
+      <c r="R32" s="21">
+        <v>0</v>
+      </c>
+      <c r="S32" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="6.95" customHeight="1">
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
+    </row>
+    <row r="34" spans="1:19" s="23" customFormat="1">
+      <c r="C34" s="20"/>
+      <c r="D34" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="22">
+        <v>1586913</v>
+      </c>
+      <c r="I34" s="22">
+        <v>1656849</v>
+      </c>
+      <c r="J34" s="24">
+        <v>1605453</v>
+      </c>
+      <c r="K34" s="24">
+        <v>1595832</v>
+      </c>
+      <c r="L34" s="24">
+        <v>1719052</v>
+      </c>
+      <c r="M34" s="24">
+        <v>1695211</v>
+      </c>
+      <c r="N34" s="24">
+        <v>1681781</v>
+      </c>
+      <c r="O34" s="24">
+        <v>1663822</v>
+      </c>
+      <c r="P34" s="24">
+        <v>1660476</v>
+      </c>
+      <c r="Q34" s="24">
+        <v>1660170</v>
+      </c>
+      <c r="R34" s="24">
+        <v>1653995</v>
+      </c>
+      <c r="S34" s="24">
+        <v>1788431</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="C35" s="18"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="27"/>
+    </row>
+    <row r="36" spans="1:19" ht="9.75" customHeight="1"/>
+    <row r="37" spans="1:19" s="28" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B37" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="74"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="74"/>
+      <c r="H37" s="75">
+        <f>+H38+H42</f>
+        <v>488294</v>
+      </c>
+      <c r="I37" s="75">
+        <f>+I38+I42</f>
+        <v>484355</v>
+      </c>
+      <c r="J37" s="75">
+        <f>+J38+J42</f>
+        <v>481821</v>
+      </c>
+      <c r="K37" s="75">
+        <f>+K38+K42</f>
+        <v>477682</v>
+      </c>
+      <c r="L37" s="75">
+        <f>+L38+L42</f>
+        <v>465877</v>
+      </c>
+      <c r="M37" s="75">
+        <f t="shared" ref="M37:R37" si="15">+M38+M42</f>
+        <v>460008</v>
+      </c>
+      <c r="N37" s="75">
+        <f t="shared" si="15"/>
+        <v>458831</v>
+      </c>
+      <c r="O37" s="75">
+        <f t="shared" si="15"/>
+        <v>446997</v>
+      </c>
+      <c r="P37" s="75">
+        <f t="shared" si="15"/>
+        <v>445398</v>
+      </c>
+      <c r="Q37" s="75">
+        <f t="shared" si="15"/>
+        <v>447848</v>
+      </c>
+      <c r="R37" s="75">
+        <f t="shared" si="15"/>
+        <v>442825</v>
+      </c>
+      <c r="S37" s="75">
+        <f t="shared" ref="S37" si="16">+S38+S42</f>
+        <v>458348</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" s="30" customFormat="1" ht="14.25" customHeight="1">
+      <c r="D38" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" s="29">
+        <f>+H39+H40</f>
+        <v>260301</v>
+      </c>
+      <c r="I38" s="29">
+        <f>+I39+I40</f>
+        <v>254996</v>
+      </c>
+      <c r="J38" s="29">
+        <f>+J39+J40</f>
+        <v>254832</v>
+      </c>
+      <c r="K38" s="29">
+        <f>+K39+K40</f>
+        <v>251592</v>
+      </c>
+      <c r="L38" s="29">
+        <f>+L39+L40</f>
+        <v>240800</v>
+      </c>
+      <c r="M38" s="29">
+        <f t="shared" ref="M38:R38" si="17">+M39+M40</f>
+        <v>237748</v>
+      </c>
+      <c r="N38" s="29">
+        <f t="shared" si="17"/>
+        <v>237423</v>
+      </c>
+      <c r="O38" s="29">
+        <f t="shared" si="17"/>
+        <v>228827</v>
+      </c>
+      <c r="P38" s="29">
+        <f t="shared" si="17"/>
+        <v>228673</v>
+      </c>
+      <c r="Q38" s="29">
+        <f t="shared" si="17"/>
+        <v>230499</v>
+      </c>
+      <c r="R38" s="29">
+        <f t="shared" si="17"/>
+        <v>226903</v>
+      </c>
+      <c r="S38" s="29">
+        <f t="shared" ref="S38" si="18">+S39+S40</f>
+        <v>254423</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" s="23" customFormat="1">
+      <c r="E39" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" s="31">
+        <v>260165</v>
+      </c>
+      <c r="I39" s="31">
+        <v>254860</v>
+      </c>
+      <c r="J39" s="31">
+        <v>254696</v>
+      </c>
+      <c r="K39" s="31">
+        <v>251456</v>
+      </c>
+      <c r="L39" s="31">
+        <v>240664</v>
+      </c>
+      <c r="M39" s="31">
+        <v>237612</v>
+      </c>
+      <c r="N39" s="31">
+        <v>237287</v>
+      </c>
+      <c r="O39" s="31">
+        <v>228691</v>
+      </c>
+      <c r="P39" s="31">
+        <v>228537</v>
+      </c>
+      <c r="Q39" s="31">
+        <v>230363</v>
+      </c>
+      <c r="R39" s="31">
+        <v>226767</v>
+      </c>
+      <c r="S39" s="31">
+        <v>254287</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" s="23" customFormat="1" ht="12.75" customHeight="1">
+      <c r="E40" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H40" s="31">
+        <v>136</v>
+      </c>
+      <c r="I40" s="31">
+        <v>136</v>
+      </c>
+      <c r="J40" s="31">
+        <v>136</v>
+      </c>
+      <c r="K40" s="31">
+        <v>136</v>
+      </c>
+      <c r="L40" s="31">
+        <v>136</v>
+      </c>
+      <c r="M40" s="31">
+        <v>136</v>
+      </c>
+      <c r="N40" s="31">
+        <v>136</v>
+      </c>
+      <c r="O40" s="31">
+        <v>136</v>
+      </c>
+      <c r="P40" s="31">
+        <v>136</v>
+      </c>
+      <c r="Q40" s="31">
+        <v>136</v>
+      </c>
+      <c r="R40" s="31">
+        <v>136</v>
+      </c>
+      <c r="S40" s="31">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="E41" s="15"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="32"/>
+      <c r="N41" s="32"/>
+      <c r="O41" s="32"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="32"/>
+      <c r="R41" s="32"/>
+      <c r="S41" s="32"/>
+    </row>
+    <row r="42" spans="1:19" s="30" customFormat="1">
+      <c r="D42" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H42" s="29">
+        <f>+H43+H44</f>
         <v>227993</v>
       </c>
       <c r="I42" s="29">
@@ -16124,7 +19330,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R195"/>
   <sheetViews>
@@ -17985,7 +21191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S185"/>
   <sheetViews>
@@ -19687,7 +22893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S185"/>
   <sheetViews>
@@ -21392,7 +24598,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:S185"/>
   <sheetViews>
@@ -23096,7 +26302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:T187"/>
   <sheetViews>
@@ -24823,1733 +28029,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="97" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:T187"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:S34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="5" width="1.140625" customWidth="1"/>
-    <col min="6" max="6" width="2.5703125" customWidth="1"/>
-    <col min="7" max="7" width="31.7109375" customWidth="1"/>
-    <col min="8" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="11" width="9.85546875" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" customWidth="1"/>
-    <col min="18" max="19" width="10.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" ht="15.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:19" ht="12" customHeight="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:19" ht="18" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="77" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="93" t="s">
-        <v>64</v>
-      </c>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
-    </row>
-    <row r="6" spans="1:19" ht="18" customHeight="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="O6" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="P6" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q6" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="R6" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="S6" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="9" customHeight="1">
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="1:19" s="15" customFormat="1">
-      <c r="A8" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="14">
-        <f t="shared" ref="H8:S8" si="0">+H10+H34</f>
-        <v>6073233.2460000003</v>
-      </c>
-      <c r="I8" s="14">
-        <f t="shared" si="0"/>
-        <v>6065942</v>
-      </c>
-      <c r="J8" s="14">
-        <f t="shared" si="0"/>
-        <v>6099839.7369999997</v>
-      </c>
-      <c r="K8" s="14">
-        <f t="shared" si="0"/>
-        <v>6108352.3650000002</v>
-      </c>
-      <c r="L8" s="14">
-        <f t="shared" si="0"/>
-        <v>6097088</v>
-      </c>
-      <c r="M8" s="14">
-        <f t="shared" si="0"/>
-        <v>6113128</v>
-      </c>
-      <c r="N8" s="14">
-        <f t="shared" si="0"/>
-        <v>6139890</v>
-      </c>
-      <c r="O8" s="14">
-        <f t="shared" si="0"/>
-        <v>6170771</v>
-      </c>
-      <c r="P8" s="14">
-        <f t="shared" si="0"/>
-        <v>6179354</v>
-      </c>
-      <c r="Q8" s="14">
-        <f t="shared" si="0"/>
-        <v>6159960</v>
-      </c>
-      <c r="R8" s="14">
-        <f t="shared" si="0"/>
-        <v>6148521</v>
-      </c>
-      <c r="S8" s="14">
-        <f t="shared" si="0"/>
-        <v>6286314</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" s="15" customFormat="1">
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-    </row>
-    <row r="10" spans="1:19" ht="12.75" customHeight="1">
-      <c r="B10" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="72">
-        <f>+H12+H25+1</f>
-        <v>5593748</v>
-      </c>
-      <c r="I10" s="72">
-        <f t="shared" ref="I10:S10" si="1">+I12+I25</f>
-        <v>5591534</v>
-      </c>
-      <c r="J10" s="72">
-        <f t="shared" si="1"/>
-        <v>5628425</v>
-      </c>
-      <c r="K10" s="72">
-        <f t="shared" si="1"/>
-        <v>5640224</v>
-      </c>
-      <c r="L10" s="72">
-        <f t="shared" si="1"/>
-        <v>5632603</v>
-      </c>
-      <c r="M10" s="72">
-        <f t="shared" si="1"/>
-        <v>5650882</v>
-      </c>
-      <c r="N10" s="72">
-        <f t="shared" si="1"/>
-        <v>5683003</v>
-      </c>
-      <c r="O10" s="72">
-        <f t="shared" si="1"/>
-        <v>5713545</v>
-      </c>
-      <c r="P10" s="72">
-        <f t="shared" si="1"/>
-        <v>5723006</v>
-      </c>
-      <c r="Q10" s="72">
-        <f t="shared" si="1"/>
-        <v>5713604</v>
-      </c>
-      <c r="R10" s="72">
-        <f t="shared" si="1"/>
-        <v>5716299</v>
-      </c>
-      <c r="S10" s="72">
-        <f t="shared" si="1"/>
-        <v>5735242</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="6.95" customHeight="1">
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="C12" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19">
-        <f t="shared" ref="H12:S12" si="2">+H13+H23</f>
-        <v>3620441</v>
-      </c>
-      <c r="I12" s="19">
-        <f t="shared" si="2"/>
-        <v>3644286</v>
-      </c>
-      <c r="J12" s="19">
-        <f t="shared" si="2"/>
-        <v>3662321</v>
-      </c>
-      <c r="K12" s="19">
-        <f t="shared" si="2"/>
-        <v>3686262</v>
-      </c>
-      <c r="L12" s="19">
-        <f t="shared" si="2"/>
-        <v>3705871</v>
-      </c>
-      <c r="M12" s="19">
-        <f t="shared" si="2"/>
-        <v>3731795</v>
-      </c>
-      <c r="N12" s="19">
-        <f t="shared" si="2"/>
-        <v>3757031</v>
-      </c>
-      <c r="O12" s="19">
-        <f t="shared" si="2"/>
-        <v>3777846</v>
-      </c>
-      <c r="P12" s="19">
-        <f t="shared" si="2"/>
-        <v>3759345</v>
-      </c>
-      <c r="Q12" s="19">
-        <f t="shared" si="2"/>
-        <v>3756047</v>
-      </c>
-      <c r="R12" s="19">
-        <f t="shared" si="2"/>
-        <v>3789325</v>
-      </c>
-      <c r="S12" s="19">
-        <f t="shared" si="2"/>
-        <v>3820603</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="C13" s="18"/>
-      <c r="D13" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19">
-        <f t="shared" ref="H13:S13" si="3">H14+H17</f>
-        <v>598</v>
-      </c>
-      <c r="I13" s="19">
-        <f t="shared" si="3"/>
-        <v>598</v>
-      </c>
-      <c r="J13" s="19">
-        <f t="shared" si="3"/>
-        <v>598</v>
-      </c>
-      <c r="K13" s="19">
-        <f t="shared" si="3"/>
-        <v>598</v>
-      </c>
-      <c r="L13" s="19">
-        <f t="shared" si="3"/>
-        <v>598</v>
-      </c>
-      <c r="M13" s="19">
-        <f t="shared" si="3"/>
-        <v>598</v>
-      </c>
-      <c r="N13" s="19">
-        <f t="shared" si="3"/>
-        <v>598</v>
-      </c>
-      <c r="O13" s="19">
-        <f t="shared" si="3"/>
-        <v>598</v>
-      </c>
-      <c r="P13" s="19">
-        <f t="shared" si="3"/>
-        <v>598</v>
-      </c>
-      <c r="Q13" s="19">
-        <f t="shared" si="3"/>
-        <v>598</v>
-      </c>
-      <c r="R13" s="19">
-        <f t="shared" si="3"/>
-        <v>598</v>
-      </c>
-      <c r="S13" s="19">
-        <f t="shared" si="3"/>
-        <v>598</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21">
-        <f t="shared" ref="H14:S14" si="4">H15+H16</f>
-        <v>156</v>
-      </c>
-      <c r="I14" s="21">
-        <f t="shared" si="4"/>
-        <v>156</v>
-      </c>
-      <c r="J14" s="21">
-        <f t="shared" si="4"/>
-        <v>156</v>
-      </c>
-      <c r="K14" s="21">
-        <f t="shared" si="4"/>
-        <v>156</v>
-      </c>
-      <c r="L14" s="21">
-        <f t="shared" si="4"/>
-        <v>156</v>
-      </c>
-      <c r="M14" s="21">
-        <f t="shared" si="4"/>
-        <v>156</v>
-      </c>
-      <c r="N14" s="21">
-        <f t="shared" si="4"/>
-        <v>156</v>
-      </c>
-      <c r="O14" s="21">
-        <f t="shared" si="4"/>
-        <v>156</v>
-      </c>
-      <c r="P14" s="21">
-        <f t="shared" si="4"/>
-        <v>156</v>
-      </c>
-      <c r="Q14" s="21">
-        <f t="shared" si="4"/>
-        <v>156</v>
-      </c>
-      <c r="R14" s="21">
-        <f t="shared" si="4"/>
-        <v>156</v>
-      </c>
-      <c r="S14" s="21">
-        <f t="shared" si="4"/>
-        <v>156</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="22">
-        <v>156</v>
-      </c>
-      <c r="I15" s="22">
-        <v>156</v>
-      </c>
-      <c r="J15" s="22">
-        <v>156</v>
-      </c>
-      <c r="K15" s="22">
-        <v>156</v>
-      </c>
-      <c r="L15" s="22">
-        <v>156</v>
-      </c>
-      <c r="M15" s="22">
-        <v>156</v>
-      </c>
-      <c r="N15" s="22">
-        <v>156</v>
-      </c>
-      <c r="O15" s="22">
-        <v>156</v>
-      </c>
-      <c r="P15" s="22">
-        <v>156</v>
-      </c>
-      <c r="Q15" s="22">
-        <v>156</v>
-      </c>
-      <c r="R15" s="22">
-        <v>156</v>
-      </c>
-      <c r="S15" s="22">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="22">
-        <v>0</v>
-      </c>
-      <c r="I16" s="22">
-        <v>0</v>
-      </c>
-      <c r="J16" s="22">
-        <v>0</v>
-      </c>
-      <c r="K16" s="22">
-        <v>0</v>
-      </c>
-      <c r="L16" s="22">
-        <v>0</v>
-      </c>
-      <c r="M16" s="22">
-        <v>0</v>
-      </c>
-      <c r="N16" s="22">
-        <v>0</v>
-      </c>
-      <c r="O16" s="22">
-        <v>0</v>
-      </c>
-      <c r="P16" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="22">
-        <v>0</v>
-      </c>
-      <c r="R16" s="22">
-        <v>0</v>
-      </c>
-      <c r="S16" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="3:19">
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="21">
-        <f t="shared" ref="H17:S17" si="5">SUM(H18:H21)</f>
-        <v>442</v>
-      </c>
-      <c r="I17" s="21">
-        <f t="shared" si="5"/>
-        <v>442</v>
-      </c>
-      <c r="J17" s="21">
-        <f t="shared" si="5"/>
-        <v>442</v>
-      </c>
-      <c r="K17" s="21">
-        <f t="shared" si="5"/>
-        <v>442</v>
-      </c>
-      <c r="L17" s="21">
-        <f t="shared" si="5"/>
-        <v>442</v>
-      </c>
-      <c r="M17" s="21">
-        <f t="shared" si="5"/>
-        <v>442</v>
-      </c>
-      <c r="N17" s="21">
-        <f t="shared" si="5"/>
-        <v>442</v>
-      </c>
-      <c r="O17" s="21">
-        <f t="shared" si="5"/>
-        <v>442</v>
-      </c>
-      <c r="P17" s="21">
-        <f t="shared" si="5"/>
-        <v>442</v>
-      </c>
-      <c r="Q17" s="21">
-        <f t="shared" si="5"/>
-        <v>442</v>
-      </c>
-      <c r="R17" s="21">
-        <f t="shared" si="5"/>
-        <v>442</v>
-      </c>
-      <c r="S17" s="21">
-        <f t="shared" si="5"/>
-        <v>442</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19">
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="56">
-        <v>0</v>
-      </c>
-      <c r="I18" s="56">
-        <v>0</v>
-      </c>
-      <c r="J18" s="56">
-        <v>0</v>
-      </c>
-      <c r="K18" s="56">
-        <v>0</v>
-      </c>
-      <c r="L18" s="56">
-        <v>0</v>
-      </c>
-      <c r="M18" s="56">
-        <v>0</v>
-      </c>
-      <c r="N18" s="56">
-        <v>0</v>
-      </c>
-      <c r="O18" s="56">
-        <v>0</v>
-      </c>
-      <c r="P18" s="56">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="56">
-        <v>0</v>
-      </c>
-      <c r="R18" s="56">
-        <v>0</v>
-      </c>
-      <c r="S18" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19">
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="56">
-        <v>442</v>
-      </c>
-      <c r="I19" s="56">
-        <v>442</v>
-      </c>
-      <c r="J19" s="22">
-        <v>442</v>
-      </c>
-      <c r="K19" s="22">
-        <v>442</v>
-      </c>
-      <c r="L19" s="22">
-        <v>442</v>
-      </c>
-      <c r="M19" s="22">
-        <v>442</v>
-      </c>
-      <c r="N19" s="22">
-        <v>442</v>
-      </c>
-      <c r="O19" s="22">
-        <v>442</v>
-      </c>
-      <c r="P19" s="22">
-        <v>442</v>
-      </c>
-      <c r="Q19" s="22">
-        <v>442</v>
-      </c>
-      <c r="R19" s="22">
-        <v>442</v>
-      </c>
-      <c r="S19" s="22">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="20" spans="3:19" hidden="1">
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="22">
-        <v>0</v>
-      </c>
-      <c r="I20" s="22">
-        <v>0</v>
-      </c>
-      <c r="J20" s="22">
-        <v>0</v>
-      </c>
-      <c r="K20" s="22">
-        <v>0</v>
-      </c>
-      <c r="L20" s="22">
-        <v>0</v>
-      </c>
-      <c r="M20" s="22">
-        <v>0</v>
-      </c>
-      <c r="N20" s="22">
-        <v>0</v>
-      </c>
-      <c r="O20" s="22">
-        <v>0</v>
-      </c>
-      <c r="P20" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="22">
-        <v>0</v>
-      </c>
-      <c r="R20" s="22">
-        <v>0</v>
-      </c>
-      <c r="S20" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" hidden="1">
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="22">
-        <v>0</v>
-      </c>
-      <c r="I21" s="22">
-        <v>0</v>
-      </c>
-      <c r="J21" s="22">
-        <v>0</v>
-      </c>
-      <c r="K21" s="22">
-        <v>0</v>
-      </c>
-      <c r="L21" s="22">
-        <v>0</v>
-      </c>
-      <c r="M21" s="22">
-        <v>0</v>
-      </c>
-      <c r="N21" s="22">
-        <v>0</v>
-      </c>
-      <c r="O21" s="22">
-        <v>0</v>
-      </c>
-      <c r="P21" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="22">
-        <v>0</v>
-      </c>
-      <c r="R21" s="22">
-        <v>0</v>
-      </c>
-      <c r="S21" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" ht="6.95" customHeight="1">
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-    </row>
-    <row r="23" spans="3:19" s="23" customFormat="1">
-      <c r="C23" s="20"/>
-      <c r="D23" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="67">
-        <v>3619843</v>
-      </c>
-      <c r="I23" s="67">
-        <v>3643688</v>
-      </c>
-      <c r="J23" s="67">
-        <v>3661723</v>
-      </c>
-      <c r="K23" s="67">
-        <v>3685664</v>
-      </c>
-      <c r="L23" s="67">
-        <v>3705273</v>
-      </c>
-      <c r="M23" s="67">
-        <v>3731197</v>
-      </c>
-      <c r="N23" s="67">
-        <v>3756433</v>
-      </c>
-      <c r="O23" s="67">
-        <v>3777248</v>
-      </c>
-      <c r="P23" s="67">
-        <v>3758747</v>
-      </c>
-      <c r="Q23" s="67">
-        <v>3755449</v>
-      </c>
-      <c r="R23" s="67">
-        <v>3788727</v>
-      </c>
-      <c r="S23" s="67">
-        <v>3820005</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19">
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
-    </row>
-    <row r="25" spans="3:19">
-      <c r="C25" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="19">
-        <f>H26+H32</f>
-        <v>1973306</v>
-      </c>
-      <c r="I25" s="19">
-        <f>I26+I32</f>
-        <v>1947248</v>
-      </c>
-      <c r="J25" s="19">
-        <f>J26+J32</f>
-        <v>1966104</v>
-      </c>
-      <c r="K25" s="19">
-        <f>K26+K32</f>
-        <v>1953962</v>
-      </c>
-      <c r="L25" s="19">
-        <f>L26+L32</f>
-        <v>1926732</v>
-      </c>
-      <c r="M25" s="19">
-        <f t="shared" ref="M25:S25" si="6">M26+M32</f>
-        <v>1919087</v>
-      </c>
-      <c r="N25" s="19">
-        <f t="shared" si="6"/>
-        <v>1925972</v>
-      </c>
-      <c r="O25" s="19">
-        <f t="shared" si="6"/>
-        <v>1935699</v>
-      </c>
-      <c r="P25" s="19">
-        <f t="shared" si="6"/>
-        <v>1963661</v>
-      </c>
-      <c r="Q25" s="19">
-        <f t="shared" si="6"/>
-        <v>1957557</v>
-      </c>
-      <c r="R25" s="19">
-        <f t="shared" si="6"/>
-        <v>1926974</v>
-      </c>
-      <c r="S25" s="19">
-        <f t="shared" si="6"/>
-        <v>1914639</v>
-      </c>
-    </row>
-    <row r="26" spans="3:19" s="23" customFormat="1">
-      <c r="C26" s="20"/>
-      <c r="D26" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="21">
-        <f>H27+H30</f>
-        <v>719517</v>
-      </c>
-      <c r="I26" s="21">
-        <f t="shared" ref="I26:S26" si="7">I27+I30</f>
-        <v>706979</v>
-      </c>
-      <c r="J26" s="21">
-        <f t="shared" si="7"/>
-        <v>719843</v>
-      </c>
-      <c r="K26" s="21">
-        <f t="shared" si="7"/>
-        <v>717437</v>
-      </c>
-      <c r="L26" s="21">
-        <f t="shared" si="7"/>
-        <v>705212</v>
-      </c>
-      <c r="M26" s="21">
-        <f t="shared" si="7"/>
-        <v>701064</v>
-      </c>
-      <c r="N26" s="21">
-        <f t="shared" si="7"/>
-        <v>717784</v>
-      </c>
-      <c r="O26" s="21">
-        <f t="shared" si="7"/>
-        <v>720888</v>
-      </c>
-      <c r="P26" s="21">
-        <f t="shared" si="7"/>
-        <v>719956</v>
-      </c>
-      <c r="Q26" s="21">
-        <f t="shared" si="7"/>
-        <v>716424</v>
-      </c>
-      <c r="R26" s="21">
-        <f t="shared" si="7"/>
-        <v>690366</v>
-      </c>
-      <c r="S26" s="21">
-        <f t="shared" si="7"/>
-        <v>683215</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19">
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="25">
-        <f t="shared" ref="H27:S27" si="8">+H28+H29</f>
-        <v>719517</v>
-      </c>
-      <c r="I27" s="25">
-        <f t="shared" si="8"/>
-        <v>706979</v>
-      </c>
-      <c r="J27" s="25">
-        <f t="shared" si="8"/>
-        <v>719843</v>
-      </c>
-      <c r="K27" s="25">
-        <f t="shared" si="8"/>
-        <v>717437</v>
-      </c>
-      <c r="L27" s="25">
-        <f t="shared" si="8"/>
-        <v>705212</v>
-      </c>
-      <c r="M27" s="25">
-        <f t="shared" si="8"/>
-        <v>701064</v>
-      </c>
-      <c r="N27" s="25">
-        <f t="shared" si="8"/>
-        <v>717784</v>
-      </c>
-      <c r="O27" s="25">
-        <f t="shared" si="8"/>
-        <v>720888</v>
-      </c>
-      <c r="P27" s="25">
-        <f t="shared" si="8"/>
-        <v>719956</v>
-      </c>
-      <c r="Q27" s="25">
-        <f t="shared" si="8"/>
-        <v>716424</v>
-      </c>
-      <c r="R27" s="25">
-        <f t="shared" si="8"/>
-        <v>690366</v>
-      </c>
-      <c r="S27" s="25">
-        <f t="shared" si="8"/>
-        <v>683215</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19">
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="20"/>
-      <c r="H28" s="69">
-        <v>679732</v>
-      </c>
-      <c r="I28" s="69">
-        <v>668000</v>
-      </c>
-      <c r="J28" s="69">
-        <v>681297</v>
-      </c>
-      <c r="K28" s="69">
-        <v>679391</v>
-      </c>
-      <c r="L28" s="69">
-        <v>668233</v>
-      </c>
-      <c r="M28" s="69">
-        <v>664477</v>
-      </c>
-      <c r="N28" s="69">
-        <v>682078</v>
-      </c>
-      <c r="O28" s="69">
-        <v>685599</v>
-      </c>
-      <c r="P28" s="69">
-        <v>685804</v>
-      </c>
-      <c r="Q28" s="69">
-        <v>682532</v>
-      </c>
-      <c r="R28" s="69">
-        <v>658825</v>
-      </c>
-      <c r="S28" s="69">
-        <v>652675</v>
-      </c>
-    </row>
-    <row r="29" spans="3:19">
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="20"/>
-      <c r="H29" s="69">
-        <v>39785</v>
-      </c>
-      <c r="I29" s="69">
-        <v>38979</v>
-      </c>
-      <c r="J29" s="69">
-        <v>38546</v>
-      </c>
-      <c r="K29" s="69">
-        <v>38046</v>
-      </c>
-      <c r="L29" s="69">
-        <v>36979</v>
-      </c>
-      <c r="M29" s="69">
-        <v>36587</v>
-      </c>
-      <c r="N29" s="69">
-        <v>35706</v>
-      </c>
-      <c r="O29" s="69">
-        <v>35289</v>
-      </c>
-      <c r="P29" s="69">
-        <v>34152</v>
-      </c>
-      <c r="Q29" s="69">
-        <v>33892</v>
-      </c>
-      <c r="R29" s="69">
-        <v>31541</v>
-      </c>
-      <c r="S29" s="69">
-        <v>30540</v>
-      </c>
-    </row>
-    <row r="30" spans="3:19">
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="21">
-        <v>0</v>
-      </c>
-      <c r="I30" s="21">
-        <v>0</v>
-      </c>
-      <c r="J30" s="21">
-        <v>0</v>
-      </c>
-      <c r="K30" s="21">
-        <v>0</v>
-      </c>
-      <c r="L30" s="21">
-        <v>0</v>
-      </c>
-      <c r="M30" s="21">
-        <v>0</v>
-      </c>
-      <c r="N30" s="21">
-        <v>0</v>
-      </c>
-      <c r="O30" s="21">
-        <v>0</v>
-      </c>
-      <c r="P30" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="21">
-        <v>0</v>
-      </c>
-      <c r="R30" s="21">
-        <v>0</v>
-      </c>
-      <c r="S30" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="3:19" ht="6.95" customHeight="1">
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="20"/>
-    </row>
-    <row r="32" spans="3:19" s="23" customFormat="1">
-      <c r="C32" s="20"/>
-      <c r="D32" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="67">
-        <v>1253789</v>
-      </c>
-      <c r="I32" s="67">
-        <v>1240269</v>
-      </c>
-      <c r="J32" s="67">
-        <v>1246261</v>
-      </c>
-      <c r="K32" s="67">
-        <v>1236525</v>
-      </c>
-      <c r="L32" s="67">
-        <v>1221520</v>
-      </c>
-      <c r="M32" s="67">
-        <v>1218023</v>
-      </c>
-      <c r="N32" s="67">
-        <v>1208188</v>
-      </c>
-      <c r="O32" s="67">
-        <v>1214811</v>
-      </c>
-      <c r="P32" s="67">
-        <v>1243705</v>
-      </c>
-      <c r="Q32" s="67">
-        <v>1241133</v>
-      </c>
-      <c r="R32" s="67">
-        <v>1236608</v>
-      </c>
-      <c r="S32" s="67">
-        <v>1231424</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="C33" s="18"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="27"/>
-      <c r="S33" s="27"/>
-    </row>
-    <row r="34" spans="1:20" s="28" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B34" s="73" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="74"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="74"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="75">
-        <f>+H35+H39</f>
-        <v>479485.24600000004</v>
-      </c>
-      <c r="I34" s="75">
-        <f>+I35+I39</f>
-        <v>474408</v>
-      </c>
-      <c r="J34" s="75">
-        <f>+J35+J39</f>
-        <v>471414.73700000002</v>
-      </c>
-      <c r="K34" s="75">
-        <f>+K35+K39</f>
-        <v>468128.36499999999</v>
-      </c>
-      <c r="L34" s="75">
-        <f>+L35+L39</f>
-        <v>464485</v>
-      </c>
-      <c r="M34" s="75">
-        <f t="shared" ref="M34:S34" si="9">+M35+M39</f>
-        <v>462246</v>
-      </c>
-      <c r="N34" s="75">
-        <f t="shared" si="9"/>
-        <v>456887</v>
-      </c>
-      <c r="O34" s="75">
-        <f t="shared" si="9"/>
-        <v>457226</v>
-      </c>
-      <c r="P34" s="75">
-        <f t="shared" si="9"/>
-        <v>456348</v>
-      </c>
-      <c r="Q34" s="75">
-        <f t="shared" si="9"/>
-        <v>446356</v>
-      </c>
-      <c r="R34" s="75">
-        <f t="shared" si="9"/>
-        <v>432222</v>
-      </c>
-      <c r="S34" s="75">
-        <f t="shared" si="9"/>
-        <v>551072</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="D35" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H35" s="29">
-        <f t="shared" ref="H35:S35" si="10">+H36+H37</f>
-        <v>131431</v>
-      </c>
-      <c r="I35" s="29">
-        <f t="shared" si="10"/>
-        <v>131244</v>
-      </c>
-      <c r="J35" s="29">
-        <f t="shared" si="10"/>
-        <v>131244</v>
-      </c>
-      <c r="K35" s="29">
-        <f t="shared" si="10"/>
-        <v>131244</v>
-      </c>
-      <c r="L35" s="29">
-        <f t="shared" si="10"/>
-        <v>131018</v>
-      </c>
-      <c r="M35" s="29">
-        <f t="shared" si="10"/>
-        <v>131019</v>
-      </c>
-      <c r="N35" s="29">
-        <f t="shared" si="10"/>
-        <v>131019</v>
-      </c>
-      <c r="O35" s="29">
-        <f t="shared" si="10"/>
-        <v>130794</v>
-      </c>
-      <c r="P35" s="29">
-        <f t="shared" si="10"/>
-        <v>130794</v>
-      </c>
-      <c r="Q35" s="29">
-        <f t="shared" si="10"/>
-        <v>121794</v>
-      </c>
-      <c r="R35" s="29">
-        <f t="shared" si="10"/>
-        <v>118294</v>
-      </c>
-      <c r="S35" s="29">
-        <f t="shared" si="10"/>
-        <v>242937</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" s="23" customFormat="1">
-      <c r="E36" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H36" s="31">
-        <v>131295</v>
-      </c>
-      <c r="I36" s="31">
-        <v>131108</v>
-      </c>
-      <c r="J36" s="31">
-        <v>131108</v>
-      </c>
-      <c r="K36" s="31">
-        <v>131108</v>
-      </c>
-      <c r="L36" s="31">
-        <v>130882</v>
-      </c>
-      <c r="M36" s="31">
-        <v>130883</v>
-      </c>
-      <c r="N36" s="31">
-        <v>130883</v>
-      </c>
-      <c r="O36" s="31">
-        <v>130658</v>
-      </c>
-      <c r="P36" s="31">
-        <v>130658</v>
-      </c>
-      <c r="Q36" s="31">
-        <v>121658</v>
-      </c>
-      <c r="R36" s="31">
-        <v>118158</v>
-      </c>
-      <c r="S36" s="31">
-        <f>117933+124868</f>
-        <v>242801</v>
-      </c>
-      <c r="T36" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" s="23" customFormat="1" ht="12.75" customHeight="1">
-      <c r="E37" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="H37" s="31">
-        <v>136</v>
-      </c>
-      <c r="I37" s="31">
-        <v>136</v>
-      </c>
-      <c r="J37" s="31">
-        <v>136</v>
-      </c>
-      <c r="K37" s="31">
-        <v>136</v>
-      </c>
-      <c r="L37" s="31">
-        <v>136</v>
-      </c>
-      <c r="M37" s="31">
-        <v>136</v>
-      </c>
-      <c r="N37" s="31">
-        <v>136</v>
-      </c>
-      <c r="O37" s="31">
-        <v>136</v>
-      </c>
-      <c r="P37" s="31">
-        <v>136</v>
-      </c>
-      <c r="Q37" s="31">
-        <v>136</v>
-      </c>
-      <c r="R37" s="31">
-        <v>136</v>
-      </c>
-      <c r="S37" s="31">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20">
-      <c r="E38" s="15"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="32"/>
-      <c r="N38" s="32"/>
-      <c r="O38" s="32"/>
-      <c r="P38" s="32"/>
-      <c r="Q38" s="32"/>
-      <c r="R38" s="32"/>
-      <c r="S38" s="32"/>
-    </row>
-    <row r="39" spans="1:20" s="30" customFormat="1">
-      <c r="D39" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H39" s="29">
-        <f t="shared" ref="H39:S39" si="11">+H40+H41</f>
-        <v>348054.24600000004</v>
-      </c>
-      <c r="I39" s="29">
-        <f t="shared" si="11"/>
-        <v>343164</v>
-      </c>
-      <c r="J39" s="29">
-        <f t="shared" si="11"/>
-        <v>340170.73700000002</v>
-      </c>
-      <c r="K39" s="29">
-        <f t="shared" si="11"/>
-        <v>336884.36499999999</v>
-      </c>
-      <c r="L39" s="29">
-        <f t="shared" si="11"/>
-        <v>333467</v>
-      </c>
-      <c r="M39" s="29">
-        <f t="shared" si="11"/>
-        <v>331227</v>
-      </c>
-      <c r="N39" s="29">
-        <f t="shared" si="11"/>
-        <v>325868</v>
-      </c>
-      <c r="O39" s="29">
-        <f t="shared" si="11"/>
-        <v>326432</v>
-      </c>
-      <c r="P39" s="29">
-        <f t="shared" si="11"/>
-        <v>325554</v>
-      </c>
-      <c r="Q39" s="29">
-        <f t="shared" si="11"/>
-        <v>324562</v>
-      </c>
-      <c r="R39" s="29">
-        <f t="shared" si="11"/>
-        <v>313928</v>
-      </c>
-      <c r="S39" s="29">
-        <f t="shared" si="11"/>
-        <v>308135</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" s="31" customFormat="1">
-      <c r="E40" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="H40" s="31">
-        <v>344183.22100000002</v>
-      </c>
-      <c r="I40" s="31">
-        <v>339340</v>
-      </c>
-      <c r="J40" s="31">
-        <v>336325.73700000002</v>
-      </c>
-      <c r="K40" s="31">
-        <v>333072.886</v>
-      </c>
-      <c r="L40" s="31">
-        <v>329707</v>
-      </c>
-      <c r="M40" s="31">
-        <v>327480</v>
-      </c>
-      <c r="N40" s="31">
-        <v>322151</v>
-      </c>
-      <c r="O40" s="31">
-        <v>322690</v>
-      </c>
-      <c r="P40" s="31">
-        <v>321702</v>
-      </c>
-      <c r="Q40" s="31">
-        <v>320719</v>
-      </c>
-      <c r="R40" s="31">
-        <v>310089</v>
-      </c>
-      <c r="S40" s="31">
-        <v>304310</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" s="31" customFormat="1" ht="12.75" customHeight="1">
-      <c r="E41" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="H41" s="31">
-        <v>3871.0250000000001</v>
-      </c>
-      <c r="I41" s="31">
-        <v>3824</v>
-      </c>
-      <c r="J41" s="31">
-        <v>3845</v>
-      </c>
-      <c r="K41" s="31">
-        <v>3811.4789999999998</v>
-      </c>
-      <c r="L41" s="31">
-        <v>3760</v>
-      </c>
-      <c r="M41" s="31">
-        <v>3747</v>
-      </c>
-      <c r="N41" s="31">
-        <v>3717</v>
-      </c>
-      <c r="O41" s="31">
-        <v>3742</v>
-      </c>
-      <c r="P41" s="31">
-        <v>3852</v>
-      </c>
-      <c r="Q41" s="31">
-        <v>3843</v>
-      </c>
-      <c r="R41" s="31">
-        <v>3839</v>
-      </c>
-      <c r="S41" s="31">
-        <v>3825</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20">
-      <c r="A42" s="33"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-    </row>
-    <row r="44" spans="1:20">
-      <c r="A44" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="C44" s="38"/>
-    </row>
-    <row r="45" spans="1:20">
-      <c r="A45" s="37"/>
-      <c r="B45" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="38"/>
-      <c r="D45" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20">
-      <c r="C46" s="34"/>
-    </row>
-    <row r="47" spans="1:20" s="35" customFormat="1" ht="12">
-      <c r="C47" s="36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" s="35" customFormat="1" ht="12">
-      <c r="C48" s="37"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="35" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" s="40" customFormat="1">
-      <c r="A49" s="39"/>
-      <c r="B49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="I49" s="41"/>
-      <c r="J49" s="41"/>
-      <c r="K49" s="41"/>
-      <c r="L49" s="41"/>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="B50" s="37"/>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="92"/>
-      <c r="B51" s="92"/>
-      <c r="C51" s="92"/>
-      <c r="D51" s="92"/>
-      <c r="E51" s="92"/>
-      <c r="F51" s="92"/>
-      <c r="G51" s="42"/>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="A52" s="43"/>
-      <c r="B52" s="43"/>
-      <c r="I52" s="44"/>
-      <c r="J52" s="44"/>
-      <c r="K52" s="44"/>
-      <c r="L52" s="44"/>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="37"/>
-      <c r="B53" s="37"/>
-    </row>
-    <row r="181" spans="3:4" ht="15.75" hidden="1" customHeight="1">
-      <c r="C181" s="45" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="182" spans="3:4" ht="3.75" hidden="1" customHeight="1"/>
-    <row r="183" spans="3:4" hidden="1">
-      <c r="C183" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D183" s="15"/>
-    </row>
-    <row r="184" spans="3:4" ht="12.75" hidden="1" customHeight="1">
-      <c r="C184" s="15"/>
-      <c r="D184" s="15"/>
-    </row>
-    <row r="185" spans="3:4" s="23" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="C185" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D185" s="46"/>
-    </row>
-    <row r="186" spans="3:4" hidden="1">
-      <c r="C186" s="34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="187" spans="3:4" hidden="1">
-      <c r="C187" s="34"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:S5"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="A51:F51"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="97" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Data/Fiscal Data/BTr-Monthly-Debt-Stock-2009-to-current.xlsx
+++ b/Data/Fiscal Data/BTr-Monthly-Debt-Stock-2009-to-current.xlsx
@@ -1444,15 +1444,15 @@
       </c>
       <c r="N8" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14607685</v>
       </c>
       <c r="O8" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14716151</v>
       </c>
       <c r="P8" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14630888</v>
       </c>
       <c r="Q8" s="21">
         <f t="shared" si="0"/>
@@ -1516,15 +1516,15 @@
       </c>
       <c r="N10" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14244293</v>
       </c>
       <c r="O10" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14349581</v>
       </c>
       <c r="P10" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14268670</v>
       </c>
       <c r="Q10" s="23">
         <f t="shared" si="1"/>
@@ -1593,15 +1593,15 @@
       </c>
       <c r="N12" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9812367</v>
       </c>
       <c r="O12" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9791126</v>
       </c>
       <c r="P12" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9734356</v>
       </c>
       <c r="Q12" s="26">
         <f t="shared" si="2"/>
@@ -1650,15 +1650,15 @@
       </c>
       <c r="N13" s="26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="O13" s="26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="P13" s="26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="Q13" s="26">
         <f t="shared" si="3"/>
@@ -1707,15 +1707,15 @@
       </c>
       <c r="N14" s="28">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="O14" s="28">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="P14" s="28">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="Q14" s="28">
         <f t="shared" si="4"/>
@@ -1756,9 +1756,15 @@
       <c r="M15" s="29">
         <v>156</v>
       </c>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
+      <c r="N15" s="29">
+        <v>156</v>
+      </c>
+      <c r="O15" s="29">
+        <v>156</v>
+      </c>
+      <c r="P15" s="29">
+        <v>156</v>
+      </c>
       <c r="Q15" s="29"/>
       <c r="R15" s="29"/>
       <c r="S15" s="29"/>
@@ -1789,9 +1795,15 @@
       <c r="M16" s="29">
         <v>156</v>
       </c>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
+      <c r="N16" s="29">
+        <v>156</v>
+      </c>
+      <c r="O16" s="29">
+        <v>156</v>
+      </c>
+      <c r="P16" s="29">
+        <v>156</v>
+      </c>
       <c r="Q16" s="29"/>
       <c r="R16" s="29"/>
       <c r="S16" s="29"/>
@@ -1822,9 +1834,15 @@
       <c r="M17" s="29">
         <v>0</v>
       </c>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
+      <c r="N17" s="29">
+        <v>0</v>
+      </c>
+      <c r="O17" s="29">
+        <v>0</v>
+      </c>
+      <c r="P17" s="29">
+        <v>0</v>
+      </c>
       <c r="Q17" s="29"/>
       <c r="R17" s="29"/>
       <c r="S17" s="29"/>
@@ -1855,9 +1873,15 @@
       <c r="M18" s="29">
         <v>0</v>
       </c>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
+      <c r="N18" s="29">
+        <v>0</v>
+      </c>
+      <c r="O18" s="29">
+        <v>0</v>
+      </c>
+      <c r="P18" s="29">
+        <v>0</v>
+      </c>
       <c r="Q18" s="29"/>
       <c r="R18" s="29"/>
       <c r="S18" s="29"/>
@@ -1933,9 +1957,15 @@
       <c r="M20" s="29">
         <v>0</v>
       </c>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
+      <c r="N20" s="29">
+        <v>0</v>
+      </c>
+      <c r="O20" s="29">
+        <v>0</v>
+      </c>
+      <c r="P20" s="29">
+        <v>0</v>
+      </c>
       <c r="Q20" s="29"/>
       <c r="R20" s="29"/>
       <c r="S20" s="29"/>
@@ -1966,9 +1996,15 @@
       <c r="M21" s="29">
         <v>0</v>
       </c>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
+      <c r="N21" s="29">
+        <v>0</v>
+      </c>
+      <c r="O21" s="29">
+        <v>0</v>
+      </c>
+      <c r="P21" s="29">
+        <v>0</v>
+      </c>
       <c r="Q21" s="29"/>
       <c r="R21" s="29"/>
       <c r="S21" s="29"/>
@@ -2062,10 +2098,10 @@
       <c r="E25" s="27"/>
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
-      <c r="H25" s="29">
+      <c r="H25" s="31">
         <v>9384785</v>
       </c>
-      <c r="I25" s="29">
+      <c r="I25" s="31">
         <v>9442006</v>
       </c>
       <c r="J25" s="31">
@@ -2080,9 +2116,15 @@
       <c r="M25" s="31">
         <v>9702673</v>
       </c>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
+      <c r="N25" s="31">
+        <v>9812211</v>
+      </c>
+      <c r="O25" s="31">
+        <v>9790970</v>
+      </c>
+      <c r="P25" s="31">
+        <v>9734200</v>
+      </c>
       <c r="Q25" s="31"/>
       <c r="R25" s="31"/>
       <c r="S25" s="31"/>
@@ -2140,15 +2182,15 @@
       </c>
       <c r="N27" s="26">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4431926</v>
       </c>
       <c r="O27" s="26">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4558455</v>
       </c>
       <c r="P27" s="26">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4534314</v>
       </c>
       <c r="Q27" s="26">
         <f t="shared" si="5"/>
@@ -2197,15 +2239,15 @@
       </c>
       <c r="N28" s="28">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2016650</v>
       </c>
       <c r="O28" s="28">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2074242</v>
       </c>
       <c r="P28" s="28">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2066565</v>
       </c>
       <c r="Q28" s="28">
         <f t="shared" si="6"/>
@@ -2254,15 +2296,15 @@
       </c>
       <c r="N29" s="32">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2016650</v>
       </c>
       <c r="O29" s="32">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2074242</v>
       </c>
       <c r="P29" s="32">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2066565</v>
       </c>
       <c r="Q29" s="32">
         <f t="shared" si="7"/>
@@ -2285,10 +2327,10 @@
         <v>23</v>
       </c>
       <c r="G30" s="27"/>
-      <c r="H30" s="29">
+      <c r="H30" s="31">
         <v>1854710</v>
       </c>
-      <c r="I30" s="29">
+      <c r="I30" s="31">
         <v>1870244</v>
       </c>
       <c r="J30" s="31">
@@ -2303,9 +2345,15 @@
       <c r="M30" s="31">
         <v>1998173</v>
       </c>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
+      <c r="N30" s="31">
+        <v>2005059</v>
+      </c>
+      <c r="O30" s="31">
+        <v>2062769</v>
+      </c>
+      <c r="P30" s="31">
+        <v>2055666</v>
+      </c>
       <c r="Q30" s="31"/>
       <c r="R30" s="31"/>
       <c r="S30" s="31"/>
@@ -2318,10 +2366,10 @@
         <v>26</v>
       </c>
       <c r="G31" s="27"/>
-      <c r="H31" s="29">
+      <c r="H31" s="31">
         <v>13473</v>
       </c>
-      <c r="I31" s="29">
+      <c r="I31" s="31">
         <v>12834</v>
       </c>
       <c r="J31" s="31">
@@ -2336,9 +2384,15 @@
       <c r="M31" s="31">
         <v>11552</v>
       </c>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="31"/>
+      <c r="N31" s="31">
+        <v>11591</v>
+      </c>
+      <c r="O31" s="31">
+        <v>11473</v>
+      </c>
+      <c r="P31" s="31">
+        <v>10899</v>
+      </c>
       <c r="Q31" s="31"/>
       <c r="R31" s="31"/>
       <c r="S31" s="31"/>
@@ -2415,10 +2469,10 @@
       <c r="E34" s="27"/>
       <c r="F34" s="27"/>
       <c r="G34" s="27"/>
-      <c r="H34" s="29">
+      <c r="H34" s="31">
         <v>2445370</v>
       </c>
-      <c r="I34" s="29">
+      <c r="I34" s="31">
         <v>2427514</v>
       </c>
       <c r="J34" s="31">
@@ -2433,9 +2487,15 @@
       <c r="M34" s="31">
         <v>2435296</v>
       </c>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="31"/>
+      <c r="N34" s="31">
+        <v>2415276</v>
+      </c>
+      <c r="O34" s="31">
+        <v>2484213</v>
+      </c>
+      <c r="P34" s="31">
+        <v>2467749</v>
+      </c>
       <c r="Q34" s="31"/>
       <c r="R34" s="31"/>
       <c r="S34" s="31"/>
@@ -2495,15 +2555,15 @@
       </c>
       <c r="N37" s="38">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>363392</v>
       </c>
       <c r="O37" s="38">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>366570</v>
       </c>
       <c r="P37" s="38">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>362218</v>
       </c>
       <c r="Q37" s="38">
         <f t="shared" si="8"/>
@@ -2548,15 +2608,15 @@
       </c>
       <c r="N38" s="40">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>191076</v>
       </c>
       <c r="O38" s="40">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>193515</v>
       </c>
       <c r="P38" s="40">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>191893</v>
       </c>
       <c r="Q38" s="40">
         <f t="shared" si="9"/>
@@ -2593,9 +2653,15 @@
       <c r="M39" s="41">
         <v>196235</v>
       </c>
-      <c r="N39" s="41"/>
-      <c r="O39" s="41"/>
-      <c r="P39" s="41"/>
+      <c r="N39" s="41">
+        <v>190940</v>
+      </c>
+      <c r="O39" s="41">
+        <v>193379</v>
+      </c>
+      <c r="P39" s="41">
+        <v>191757</v>
+      </c>
       <c r="Q39" s="41"/>
       <c r="R39" s="41"/>
       <c r="S39" s="41"/>
@@ -2622,9 +2688,15 @@
       <c r="M40" s="41">
         <v>136</v>
       </c>
-      <c r="N40" s="41"/>
-      <c r="O40" s="41"/>
-      <c r="P40" s="41"/>
+      <c r="N40" s="41">
+        <v>136</v>
+      </c>
+      <c r="O40" s="41">
+        <v>136</v>
+      </c>
+      <c r="P40" s="41">
+        <v>136</v>
+      </c>
       <c r="Q40" s="41"/>
       <c r="R40" s="41"/>
       <c r="S40" s="41"/>
@@ -2676,15 +2748,15 @@
       </c>
       <c r="N42" s="40">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>172316</v>
       </c>
       <c r="O42" s="40">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>173055</v>
       </c>
       <c r="P42" s="40">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>170325</v>
       </c>
       <c r="Q42" s="40">
         <f t="shared" si="9"/>
@@ -2721,6 +2793,15 @@
       <c r="M43" s="41">
         <v>168622</v>
       </c>
+      <c r="N43" s="41">
+        <v>167627</v>
+      </c>
+      <c r="O43" s="41">
+        <v>168212</v>
+      </c>
+      <c r="P43" s="41">
+        <v>165481</v>
+      </c>
     </row>
     <row r="44" s="41" customFormat="1" ht="12.75" customHeight="1">
       <c r="E44" s="41" t="s">
@@ -2743,6 +2824,15 @@
       </c>
       <c r="M44" s="41">
         <v>4734</v>
+      </c>
+      <c r="N44" s="41">
+        <v>4689</v>
+      </c>
+      <c r="O44" s="41">
+        <v>4843</v>
+      </c>
+      <c r="P44" s="41">
+        <v>4844</v>
       </c>
     </row>
     <row r="47">

--- a/Data/Fiscal Data/BTr-Monthly-Debt-Stock-2009-to-current.xlsx
+++ b/Data/Fiscal Data/BTr-Monthly-Debt-Stock-2009-to-current.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJ\GitHub Repositories\PH-Econ-Data\Data\Fiscal Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA4CE49-95EA-4490-B8CB-1B316E5F5767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03738C3-32D6-47C5-B6DB-99FD63DD49E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2265" yWindow="3840" windowWidth="11145" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="16" r:id="rId1"/>
@@ -1029,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE4D0018-5634-44D5-B16B-720E758CF0F4}">
   <dimension ref="A1:S189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1182,15 +1182,15 @@
       </c>
       <c r="K8" s="16">
         <f>+K10+K37</f>
-        <v>0</v>
+        <v>15373268</v>
       </c>
       <c r="L8" s="16">
         <f>+L10+L37</f>
-        <v>0</v>
+        <v>15697807</v>
       </c>
       <c r="M8" s="16">
         <f t="shared" ref="M8:S8" si="0">+M10+M37</f>
-        <v>0</v>
+        <v>15827146</v>
       </c>
       <c r="N8" s="16">
         <f t="shared" si="0"/>
@@ -1254,15 +1254,15 @@
       </c>
       <c r="K10" s="17">
         <f>+K12+K27</f>
-        <v>0</v>
+        <v>15017211</v>
       </c>
       <c r="L10" s="17">
         <f>+L12+L27</f>
-        <v>0</v>
+        <v>15347604</v>
       </c>
       <c r="M10" s="17">
         <f t="shared" ref="M10:S10" si="1">+M12+M27</f>
-        <v>0</v>
+        <v>15483499</v>
       </c>
       <c r="N10" s="17">
         <f t="shared" si="1"/>
@@ -1331,15 +1331,15 @@
       </c>
       <c r="K12" s="20">
         <f>+K13+K25</f>
-        <v>0</v>
+        <v>10308495</v>
       </c>
       <c r="L12" s="20">
         <f>+L13+L25</f>
-        <v>0</v>
+        <v>10442843</v>
       </c>
       <c r="M12" s="20">
         <f t="shared" ref="M12:S12" si="2">+M13+M25</f>
-        <v>0</v>
+        <v>10573116</v>
       </c>
       <c r="N12" s="20">
         <f t="shared" si="2"/>
@@ -1388,15 +1388,15 @@
       </c>
       <c r="K13" s="20">
         <f>K14+K19</f>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="L13" s="20">
         <f>L14+L19</f>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="M13" s="20">
         <f t="shared" ref="M13:S13" si="3">M14+M19</f>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="N13" s="20">
         <f t="shared" si="3"/>
@@ -1445,15 +1445,15 @@
       </c>
       <c r="K14" s="22">
         <f>K15+K18</f>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="L14" s="22">
         <f>L15+L18</f>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="M14" s="22">
         <f t="shared" ref="M14:S14" si="4">M15+M18</f>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="N14" s="22">
         <f t="shared" si="4"/>
@@ -1497,9 +1497,15 @@
       <c r="J15" s="23">
         <v>156</v>
       </c>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
+      <c r="K15" s="23">
+        <v>156</v>
+      </c>
+      <c r="L15" s="23">
+        <v>156</v>
+      </c>
+      <c r="M15" s="23">
+        <v>156</v>
+      </c>
       <c r="N15" s="23"/>
       <c r="O15" s="23"/>
       <c r="P15" s="23"/>
@@ -1524,9 +1530,15 @@
       <c r="J16" s="23">
         <v>156</v>
       </c>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
+      <c r="K16" s="23">
+        <v>156</v>
+      </c>
+      <c r="L16" s="23">
+        <v>156</v>
+      </c>
+      <c r="M16" s="23">
+        <v>156</v>
+      </c>
       <c r="N16" s="23"/>
       <c r="O16" s="23"/>
       <c r="P16" s="23"/>
@@ -1857,9 +1869,15 @@
       <c r="J25" s="25">
         <v>10277333</v>
       </c>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
+      <c r="K25" s="25">
+        <v>10308339</v>
+      </c>
+      <c r="L25" s="25">
+        <v>10442687</v>
+      </c>
+      <c r="M25" s="25">
+        <v>10572960</v>
+      </c>
       <c r="N25" s="25"/>
       <c r="O25" s="25"/>
       <c r="P25" s="25"/>
@@ -1908,15 +1926,15 @@
       </c>
       <c r="K27" s="20">
         <f>K28+K34</f>
-        <v>0</v>
+        <v>4708716</v>
       </c>
       <c r="L27" s="20">
         <f>L28+L34</f>
-        <v>0</v>
+        <v>4904761</v>
       </c>
       <c r="M27" s="20">
         <f t="shared" ref="M27:S27" si="5">M28+M34</f>
-        <v>0</v>
+        <v>4910383</v>
       </c>
       <c r="N27" s="20">
         <f t="shared" si="5"/>
@@ -1965,15 +1983,15 @@
       </c>
       <c r="K28" s="22">
         <f>K29+K32</f>
-        <v>0</v>
+        <v>2251208</v>
       </c>
       <c r="L28" s="22">
         <f>L29+L32</f>
-        <v>0</v>
+        <v>2289032</v>
       </c>
       <c r="M28" s="22">
         <f t="shared" ref="M28:S28" si="6">M29+M32</f>
-        <v>0</v>
+        <v>2292443</v>
       </c>
       <c r="N28" s="22">
         <f t="shared" si="6"/>
@@ -2022,15 +2040,15 @@
       </c>
       <c r="K29" s="26">
         <f>+K30+K31</f>
-        <v>0</v>
+        <v>2251208</v>
       </c>
       <c r="L29" s="26">
         <f>+L30+L31</f>
-        <v>0</v>
+        <v>2289032</v>
       </c>
       <c r="M29" s="26">
         <f t="shared" ref="M29:S29" si="7">+M30+M31</f>
-        <v>0</v>
+        <v>2292443</v>
       </c>
       <c r="N29" s="26">
         <f t="shared" si="7"/>
@@ -2074,9 +2092,15 @@
       <c r="J30" s="25">
         <v>2212290</v>
       </c>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
+      <c r="K30" s="25">
+        <v>2241324</v>
+      </c>
+      <c r="L30" s="25">
+        <v>2279112</v>
+      </c>
+      <c r="M30" s="25">
+        <v>2282825</v>
+      </c>
       <c r="N30" s="25"/>
       <c r="O30" s="25"/>
       <c r="P30" s="25"/>
@@ -2101,9 +2125,15 @@
       <c r="J31" s="25">
         <v>10072</v>
       </c>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
+      <c r="K31" s="25">
+        <v>9884</v>
+      </c>
+      <c r="L31" s="25">
+        <v>9920</v>
+      </c>
+      <c r="M31" s="25">
+        <v>9618</v>
+      </c>
       <c r="N31" s="25"/>
       <c r="O31" s="25"/>
       <c r="P31" s="25"/>
@@ -2192,9 +2222,15 @@
       <c r="J34" s="25">
         <v>2425869</v>
       </c>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
+      <c r="K34" s="25">
+        <v>2457508</v>
+      </c>
+      <c r="L34" s="25">
+        <v>2615729</v>
+      </c>
+      <c r="M34" s="25">
+        <v>2617940</v>
+      </c>
       <c r="N34" s="25"/>
       <c r="O34" s="25"/>
       <c r="P34" s="25"/>
@@ -2245,15 +2281,15 @@
       </c>
       <c r="K37" s="32">
         <f>+K38+K42</f>
-        <v>0</v>
+        <v>356057</v>
       </c>
       <c r="L37" s="32">
         <f>+L38+L42</f>
-        <v>0</v>
+        <v>350203</v>
       </c>
       <c r="M37" s="32">
         <f t="shared" ref="M37:S37" si="8">+M38+M42</f>
-        <v>0</v>
+        <v>343647</v>
       </c>
       <c r="N37" s="32">
         <f t="shared" si="8"/>
@@ -2298,15 +2334,15 @@
       </c>
       <c r="K38" s="34">
         <f>+K39+K40</f>
-        <v>0</v>
+        <v>191951</v>
       </c>
       <c r="L38" s="34">
         <f>+L39+L40</f>
-        <v>0</v>
+        <v>187587</v>
       </c>
       <c r="M38" s="34">
         <f t="shared" ref="M38:S42" si="9">+M39+M40</f>
-        <v>0</v>
+        <v>182571</v>
       </c>
       <c r="N38" s="34">
         <f t="shared" si="9"/>
@@ -2346,9 +2382,15 @@
       <c r="J39" s="35">
         <v>184278</v>
       </c>
-      <c r="K39" s="35"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="35"/>
+      <c r="K39" s="35">
+        <v>191815</v>
+      </c>
+      <c r="L39" s="35">
+        <v>187451</v>
+      </c>
+      <c r="M39" s="35">
+        <v>182435</v>
+      </c>
       <c r="N39" s="35"/>
       <c r="O39" s="35"/>
       <c r="P39" s="35"/>
@@ -2369,9 +2411,15 @@
       <c r="J40" s="35">
         <v>136</v>
       </c>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
+      <c r="K40" s="35">
+        <v>136</v>
+      </c>
+      <c r="L40" s="35">
+        <v>136</v>
+      </c>
+      <c r="M40" s="35">
+        <v>136</v>
+      </c>
       <c r="N40" s="35"/>
       <c r="O40" s="35"/>
       <c r="P40" s="35"/>
@@ -2414,15 +2462,15 @@
       </c>
       <c r="K42" s="34">
         <f>+K43+K44</f>
-        <v>0</v>
+        <v>164106</v>
       </c>
       <c r="L42" s="34">
         <f>+L43+L44</f>
-        <v>0</v>
+        <v>162616</v>
       </c>
       <c r="M42" s="34">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>161076</v>
       </c>
       <c r="N42" s="34">
         <f t="shared" si="9"/>
@@ -2462,6 +2510,15 @@
       <c r="J43" s="35">
         <v>156817</v>
       </c>
+      <c r="K43" s="35">
+        <v>159183</v>
+      </c>
+      <c r="L43" s="35">
+        <v>157612</v>
+      </c>
+      <c r="M43" s="35">
+        <v>156061</v>
+      </c>
     </row>
     <row r="44" spans="1:19" s="35" customFormat="1" ht="12.75" customHeight="1">
       <c r="E44" s="35" t="s">
@@ -2475,6 +2532,15 @@
       </c>
       <c r="J44" s="35">
         <v>4810</v>
+      </c>
+      <c r="K44" s="35">
+        <v>4923</v>
+      </c>
+      <c r="L44" s="35">
+        <v>5004</v>
+      </c>
+      <c r="M44" s="35">
+        <v>5015</v>
       </c>
     </row>
     <row r="47" spans="1:19">

--- a/Data/Fiscal Data/BTr-Monthly-Debt-Stock-2009-to-current.xlsx
+++ b/Data/Fiscal Data/BTr-Monthly-Debt-Stock-2009-to-current.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJ\GitHub Repositories\PH-Econ-Data\Data\Fiscal Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03738C3-32D6-47C5-B6DB-99FD63DD49E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA2D1D3-DD1C-4A7B-B2C8-BCC343FF905F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2265" yWindow="3840" windowWidth="11145" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="16" r:id="rId1"/>
@@ -1030,7 +1030,7 @@
   <dimension ref="A1:S189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1194,15 +1194,15 @@
       </c>
       <c r="N8" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16034777</v>
       </c>
       <c r="O8" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15914225</v>
       </c>
       <c r="P8" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16266167</v>
       </c>
       <c r="Q8" s="16">
         <f t="shared" si="0"/>
@@ -1266,15 +1266,15 @@
       </c>
       <c r="N10" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15689987</v>
       </c>
       <c r="O10" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15550200</v>
       </c>
       <c r="P10" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15893305</v>
       </c>
       <c r="Q10" s="17">
         <f t="shared" si="1"/>
@@ -1343,15 +1343,15 @@
       </c>
       <c r="N12" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10753150</v>
       </c>
       <c r="O12" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10791608</v>
       </c>
       <c r="P12" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10936258</v>
       </c>
       <c r="Q12" s="20">
         <f t="shared" si="2"/>
@@ -1400,15 +1400,15 @@
       </c>
       <c r="N13" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="O13" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="P13" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="Q13" s="20">
         <f t="shared" si="3"/>
@@ -1457,15 +1457,15 @@
       </c>
       <c r="N14" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="O14" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="P14" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="Q14" s="22">
         <f t="shared" si="4"/>
@@ -1506,9 +1506,15 @@
       <c r="M15" s="23">
         <v>156</v>
       </c>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
+      <c r="N15" s="23">
+        <v>156</v>
+      </c>
+      <c r="O15" s="23">
+        <v>156</v>
+      </c>
+      <c r="P15" s="23">
+        <v>156</v>
+      </c>
       <c r="Q15" s="23"/>
       <c r="R15" s="23"/>
       <c r="S15" s="23"/>
@@ -1539,9 +1545,15 @@
       <c r="M16" s="23">
         <v>156</v>
       </c>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
+      <c r="N16" s="23">
+        <v>156</v>
+      </c>
+      <c r="O16" s="23">
+        <v>156</v>
+      </c>
+      <c r="P16" s="23">
+        <v>156</v>
+      </c>
       <c r="Q16" s="23"/>
       <c r="R16" s="23"/>
       <c r="S16" s="23"/>
@@ -1878,9 +1890,15 @@
       <c r="M25" s="25">
         <v>10572960</v>
       </c>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
+      <c r="N25" s="25">
+        <v>10752994</v>
+      </c>
+      <c r="O25" s="25">
+        <v>10791452</v>
+      </c>
+      <c r="P25" s="25">
+        <v>10936102</v>
+      </c>
       <c r="Q25" s="25"/>
       <c r="R25" s="25"/>
       <c r="S25" s="25"/>
@@ -1938,15 +1956,15 @@
       </c>
       <c r="N27" s="20">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4936837</v>
       </c>
       <c r="O27" s="20">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4758592</v>
       </c>
       <c r="P27" s="20">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4957047</v>
       </c>
       <c r="Q27" s="20">
         <f t="shared" si="5"/>
@@ -1995,15 +2013,15 @@
       </c>
       <c r="N28" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2320010</v>
       </c>
       <c r="O28" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2245024</v>
       </c>
       <c r="P28" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2318595</v>
       </c>
       <c r="Q28" s="22">
         <f t="shared" si="6"/>
@@ -2052,15 +2070,15 @@
       </c>
       <c r="N29" s="26">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2320010</v>
       </c>
       <c r="O29" s="26">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2245024</v>
       </c>
       <c r="P29" s="26">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2318595</v>
       </c>
       <c r="Q29" s="26">
         <f t="shared" si="7"/>
@@ -2101,9 +2119,15 @@
       <c r="M30" s="25">
         <v>2282825</v>
       </c>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25"/>
+      <c r="N30" s="25">
+        <v>2309746</v>
+      </c>
+      <c r="O30" s="25">
+        <v>2234914</v>
+      </c>
+      <c r="P30" s="25">
+        <v>2308672</v>
+      </c>
       <c r="Q30" s="25"/>
       <c r="R30" s="25"/>
       <c r="S30" s="25"/>
@@ -2134,9 +2158,15 @@
       <c r="M31" s="25">
         <v>9618</v>
       </c>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="25"/>
+      <c r="N31" s="25">
+        <v>10264</v>
+      </c>
+      <c r="O31" s="25">
+        <v>10110</v>
+      </c>
+      <c r="P31" s="25">
+        <v>9923</v>
+      </c>
       <c r="Q31" s="25"/>
       <c r="R31" s="25"/>
       <c r="S31" s="25"/>
@@ -2231,9 +2261,15 @@
       <c r="M34" s="25">
         <v>2617940</v>
       </c>
-      <c r="N34" s="25"/>
-      <c r="O34" s="25"/>
-      <c r="P34" s="25"/>
+      <c r="N34" s="25">
+        <v>2616827</v>
+      </c>
+      <c r="O34" s="25">
+        <v>2513568</v>
+      </c>
+      <c r="P34" s="25">
+        <v>2638452</v>
+      </c>
       <c r="Q34" s="25"/>
       <c r="R34" s="25"/>
       <c r="S34" s="25"/>
@@ -2293,15 +2329,15 @@
       </c>
       <c r="N37" s="32">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>344790</v>
       </c>
       <c r="O37" s="32">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>364025</v>
       </c>
       <c r="P37" s="32">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>372862</v>
       </c>
       <c r="Q37" s="32">
         <f t="shared" si="8"/>
@@ -2346,15 +2382,15 @@
       </c>
       <c r="N38" s="34">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>180859</v>
       </c>
       <c r="O38" s="34">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>205158</v>
       </c>
       <c r="P38" s="34">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>214958</v>
       </c>
       <c r="Q38" s="34">
         <f t="shared" si="9"/>
@@ -2391,9 +2427,15 @@
       <c r="M39" s="35">
         <v>182435</v>
       </c>
-      <c r="N39" s="35"/>
-      <c r="O39" s="35"/>
-      <c r="P39" s="35"/>
+      <c r="N39" s="35">
+        <v>180723</v>
+      </c>
+      <c r="O39" s="35">
+        <v>205022</v>
+      </c>
+      <c r="P39" s="35">
+        <v>214822</v>
+      </c>
       <c r="Q39" s="35"/>
       <c r="R39" s="35"/>
       <c r="S39" s="35"/>
@@ -2420,9 +2462,15 @@
       <c r="M40" s="35">
         <v>136</v>
       </c>
-      <c r="N40" s="35"/>
-      <c r="O40" s="35"/>
-      <c r="P40" s="35"/>
+      <c r="N40" s="35">
+        <v>136</v>
+      </c>
+      <c r="O40" s="35">
+        <v>136</v>
+      </c>
+      <c r="P40" s="35">
+        <v>136</v>
+      </c>
       <c r="Q40" s="35"/>
       <c r="R40" s="35"/>
       <c r="S40" s="35"/>
@@ -2474,15 +2522,15 @@
       </c>
       <c r="N42" s="34">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>163931</v>
       </c>
       <c r="O42" s="34">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>158867</v>
       </c>
       <c r="P42" s="34">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>157904</v>
       </c>
       <c r="Q42" s="34">
         <f t="shared" si="9"/>
@@ -2519,6 +2567,15 @@
       <c r="M43" s="35">
         <v>156061</v>
       </c>
+      <c r="N43" s="35">
+        <v>158931</v>
+      </c>
+      <c r="O43" s="35">
+        <v>154064</v>
+      </c>
+      <c r="P43" s="35">
+        <v>153114</v>
+      </c>
     </row>
     <row r="44" spans="1:19" s="35" customFormat="1" ht="12.75" customHeight="1">
       <c r="E44" s="35" t="s">
@@ -2541,6 +2598,15 @@
       </c>
       <c r="M44" s="35">
         <v>5015</v>
+      </c>
+      <c r="N44" s="35">
+        <v>5000</v>
+      </c>
+      <c r="O44" s="35">
+        <v>4803</v>
+      </c>
+      <c r="P44" s="35">
+        <v>4790</v>
       </c>
     </row>
     <row r="47" spans="1:19">

--- a/Data/Fiscal Data/BTr-Monthly-Debt-Stock-2009-to-current.xlsx
+++ b/Data/Fiscal Data/BTr-Monthly-Debt-Stock-2009-to-current.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJ\GitHub Repositories\PH-Econ-Data\Data\Fiscal Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA2D1D3-DD1C-4A7B-B2C8-BCC343FF905F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA0449E-732F-49CE-A2B8-46B0B9A9C47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="16" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="77">
   <si>
     <t xml:space="preserve">National Government Outstanding Debt Stock </t>
   </si>
@@ -293,6 +293,9 @@
   </si>
   <si>
     <t>CY 2009</t>
+  </si>
+  <si>
+    <t>CY 2024</t>
   </si>
 </sst>
 </file>
@@ -1029,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE4D0018-5634-44D5-B16B-720E758CF0F4}">
   <dimension ref="A1:S189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1092,7 +1095,7 @@
         <v>4</v>
       </c>
       <c r="H5" s="78" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="I5" s="79"/>
       <c r="J5" s="79"/>
@@ -1206,15 +1209,15 @@
       </c>
       <c r="Q8" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16432017</v>
       </c>
       <c r="R8" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16513000</v>
       </c>
       <c r="S8" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16397961</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="14" customFormat="1">
@@ -1278,15 +1281,15 @@
       </c>
       <c r="Q10" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16020258</v>
       </c>
       <c r="R10" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16090966</v>
       </c>
       <c r="S10" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16051302</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="6.95" customHeight="1">
@@ -1355,15 +1358,15 @@
       </c>
       <c r="Q12" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10889837</v>
       </c>
       <c r="R12" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10921662</v>
       </c>
       <c r="S12" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10930415</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1412,15 +1415,15 @@
       </c>
       <c r="Q13" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="R13" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="S13" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1469,15 +1472,15 @@
       </c>
       <c r="Q14" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="R14" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="S14" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1515,9 +1518,15 @@
       <c r="P15" s="23">
         <v>156</v>
       </c>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
+      <c r="Q15" s="23">
+        <v>156</v>
+      </c>
+      <c r="R15" s="23">
+        <v>156</v>
+      </c>
+      <c r="S15" s="23">
+        <v>156</v>
+      </c>
     </row>
     <row r="16" spans="1:19">
       <c r="C16" s="21"/>
@@ -1554,9 +1563,15 @@
       <c r="P16" s="23">
         <v>156</v>
       </c>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
+      <c r="Q16" s="23">
+        <v>156</v>
+      </c>
+      <c r="R16" s="23">
+        <v>156</v>
+      </c>
+      <c r="S16" s="23">
+        <v>156</v>
+      </c>
     </row>
     <row r="17" spans="3:19">
       <c r="C17" s="21"/>
@@ -1899,9 +1914,15 @@
       <c r="P25" s="25">
         <v>10936102</v>
       </c>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
+      <c r="Q25" s="25">
+        <v>10889681</v>
+      </c>
+      <c r="R25" s="25">
+        <v>10921506</v>
+      </c>
+      <c r="S25" s="25">
+        <v>10930259</v>
+      </c>
     </row>
     <row r="26" spans="3:19">
       <c r="C26" s="21"/>
@@ -1968,15 +1989,15 @@
       </c>
       <c r="Q27" s="20">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5130421</v>
       </c>
       <c r="R27" s="20">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5169304</v>
       </c>
       <c r="S27" s="20">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5120887</v>
       </c>
     </row>
     <row r="28" spans="3:19" s="24" customFormat="1">
@@ -2025,15 +2046,15 @@
       </c>
       <c r="Q28" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2420218</v>
       </c>
       <c r="R28" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2445960</v>
       </c>
       <c r="S28" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2438865</v>
       </c>
     </row>
     <row r="29" spans="3:19">
@@ -2082,15 +2103,15 @@
       </c>
       <c r="Q29" s="26">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2420218</v>
       </c>
       <c r="R29" s="26">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2445960</v>
       </c>
       <c r="S29" s="26">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2438865</v>
       </c>
     </row>
     <row r="30" spans="3:19">
@@ -2128,9 +2149,15 @@
       <c r="P30" s="25">
         <v>2308672</v>
       </c>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="25"/>
+      <c r="Q30" s="25">
+        <v>2410665</v>
+      </c>
+      <c r="R30" s="25">
+        <v>2436188</v>
+      </c>
+      <c r="S30" s="25">
+        <v>2429789</v>
+      </c>
     </row>
     <row r="31" spans="3:19">
       <c r="C31" s="21"/>
@@ -2167,9 +2194,15 @@
       <c r="P31" s="25">
         <v>9923</v>
       </c>
-      <c r="Q31" s="25"/>
-      <c r="R31" s="25"/>
-      <c r="S31" s="25"/>
+      <c r="Q31" s="25">
+        <v>9553</v>
+      </c>
+      <c r="R31" s="25">
+        <v>9772</v>
+      </c>
+      <c r="S31" s="25">
+        <v>9076</v>
+      </c>
     </row>
     <row r="32" spans="3:19">
       <c r="C32" s="21"/>
@@ -2270,9 +2303,15 @@
       <c r="P34" s="25">
         <v>2638452</v>
       </c>
-      <c r="Q34" s="25"/>
-      <c r="R34" s="25"/>
-      <c r="S34" s="25"/>
+      <c r="Q34" s="25">
+        <v>2710203</v>
+      </c>
+      <c r="R34" s="25">
+        <v>2723344</v>
+      </c>
+      <c r="S34" s="25">
+        <v>2682022</v>
+      </c>
     </row>
     <row r="35" spans="1:19">
       <c r="C35" s="19"/>
@@ -2341,15 +2380,15 @@
       </c>
       <c r="Q37" s="32">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>411759</v>
       </c>
       <c r="R37" s="32">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>422034</v>
       </c>
       <c r="S37" s="32">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>346659</v>
       </c>
     </row>
     <row r="38" spans="1:19" s="33" customFormat="1" ht="14.25" customHeight="1">
@@ -2394,15 +2433,15 @@
       </c>
       <c r="Q38" s="34">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>250807</v>
       </c>
       <c r="R38" s="34">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>259756</v>
       </c>
       <c r="S38" s="34">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>255506</v>
       </c>
     </row>
     <row r="39" spans="1:19" s="24" customFormat="1">
@@ -2436,9 +2475,15 @@
       <c r="P39" s="35">
         <v>214822</v>
       </c>
-      <c r="Q39" s="35"/>
-      <c r="R39" s="35"/>
-      <c r="S39" s="35"/>
+      <c r="Q39" s="35">
+        <v>250671</v>
+      </c>
+      <c r="R39" s="35">
+        <v>259620</v>
+      </c>
+      <c r="S39" s="35">
+        <v>255370</v>
+      </c>
     </row>
     <row r="40" spans="1:19" s="24" customFormat="1" ht="12.75" customHeight="1">
       <c r="E40" s="24" t="s">
@@ -2471,9 +2516,15 @@
       <c r="P40" s="35">
         <v>136</v>
       </c>
-      <c r="Q40" s="35"/>
-      <c r="R40" s="35"/>
-      <c r="S40" s="35"/>
+      <c r="Q40" s="35">
+        <v>136</v>
+      </c>
+      <c r="R40" s="35">
+        <v>136</v>
+      </c>
+      <c r="S40" s="35">
+        <v>136</v>
+      </c>
     </row>
     <row r="41" spans="1:19">
       <c r="E41" s="14"/>
@@ -2534,15 +2585,15 @@
       </c>
       <c r="Q42" s="34">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>160952</v>
       </c>
       <c r="R42" s="34">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>162278</v>
       </c>
       <c r="S42" s="34">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>91153</v>
       </c>
     </row>
     <row r="43" spans="1:19" s="35" customFormat="1">
@@ -2576,6 +2627,15 @@
       <c r="P43" s="35">
         <v>153114</v>
       </c>
+      <c r="Q43" s="35">
+        <v>155977</v>
+      </c>
+      <c r="R43" s="35">
+        <v>157269</v>
+      </c>
+      <c r="S43" s="35">
+        <v>86210</v>
+      </c>
     </row>
     <row r="44" spans="1:19" s="35" customFormat="1" ht="12.75" customHeight="1">
       <c r="E44" s="35" t="s">
@@ -2607,6 +2667,15 @@
       </c>
       <c r="P44" s="35">
         <v>4790</v>
+      </c>
+      <c r="Q44" s="35">
+        <v>4975</v>
+      </c>
+      <c r="R44" s="35">
+        <v>5009</v>
+      </c>
+      <c r="S44" s="35">
+        <v>4943</v>
       </c>
     </row>
     <row r="47" spans="1:19">

--- a/Data/Fiscal Data/BTr-Monthly-Debt-Stock-2009-to-current.xlsx
+++ b/Data/Fiscal Data/BTr-Monthly-Debt-Stock-2009-to-current.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJ\GitHub Repositories\PH-Econ-Data\Data\Fiscal Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2059A03E-7C7A-4A3B-83FF-C77256301804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF76AD3-AA1D-476F-A8EF-AFCD24681BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="1905" windowWidth="15270" windowHeight="11610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="17" r:id="rId1"/>
@@ -313,11 +313,18 @@
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="33">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -471,6 +478,11 @@
       <i/>
       <sz val="8"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -642,175 +654,179 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="38" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="37" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="37" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2 2" xfId="5" xr:uid="{19C30A91-F072-4922-A132-42DEAD7F215A}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{CC0D16C9-9BB4-4E07-AF9D-1803D9292C33}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1037,8 +1053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3273FFF-38CF-4648-BAF5-82868DEFDB4E}">
   <dimension ref="A1:S189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1178,7 +1194,7 @@
       <c r="G8" s="81"/>
       <c r="H8" s="16">
         <f>+H10+H37</f>
-        <v>16659042.630000001</v>
+        <v>16659043</v>
       </c>
       <c r="I8" s="16">
         <f>+I10+I37</f>
@@ -1194,11 +1210,11 @@
       </c>
       <c r="L8" s="16">
         <f>+L10+L37</f>
-        <v>0</v>
+        <v>17262457</v>
       </c>
       <c r="M8" s="16">
         <f t="shared" ref="M8:S8" si="0">+M10+M37</f>
-        <v>0</v>
+        <v>17612435</v>
       </c>
       <c r="N8" s="16">
         <f t="shared" si="0"/>
@@ -1250,7 +1266,7 @@
       <c r="G10" s="82"/>
       <c r="H10" s="17">
         <f>+H12+H27</f>
-        <v>16312771.630000001</v>
+        <v>16312772</v>
       </c>
       <c r="I10" s="17">
         <f>+I12+I27</f>
@@ -1266,11 +1282,11 @@
       </c>
       <c r="L10" s="17">
         <f>+L12+L27</f>
-        <v>0</v>
+        <v>16918881</v>
       </c>
       <c r="M10" s="17">
         <f t="shared" ref="M10:S10" si="1">+M12+M27</f>
-        <v>0</v>
+        <v>17267328</v>
       </c>
       <c r="N10" s="17">
         <f t="shared" si="1"/>
@@ -1327,7 +1343,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="20">
         <f>+H13+H25</f>
-        <v>11084089.630000001</v>
+        <v>11084090</v>
       </c>
       <c r="I12" s="20">
         <f>+I13+I25</f>
@@ -1343,11 +1359,11 @@
       </c>
       <c r="L12" s="20">
         <f>+L13+L25</f>
-        <v>0</v>
+        <v>11780519</v>
       </c>
       <c r="M12" s="20">
         <f t="shared" ref="M12:S12" si="2">+M13+M25</f>
-        <v>0</v>
+        <v>11950406</v>
       </c>
       <c r="N12" s="20">
         <f t="shared" si="2"/>
@@ -1400,11 +1416,11 @@
       </c>
       <c r="L13" s="20">
         <f>L14+L19</f>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="M13" s="20">
         <f t="shared" ref="M13:S13" si="3">M14+M19</f>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="N13" s="20">
         <f t="shared" si="3"/>
@@ -1457,11 +1473,11 @@
       </c>
       <c r="L14" s="22">
         <f>L15+L18</f>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="M14" s="22">
         <f t="shared" ref="M14:S14" si="4">M15+M18</f>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="N14" s="22">
         <f t="shared" si="4"/>
@@ -1508,8 +1524,12 @@
       <c r="K15" s="23">
         <v>156</v>
       </c>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
+      <c r="L15" s="23">
+        <v>156</v>
+      </c>
+      <c r="M15" s="23">
+        <v>156</v>
+      </c>
       <c r="N15" s="23"/>
       <c r="O15" s="23"/>
       <c r="P15" s="23"/>
@@ -1537,8 +1557,12 @@
       <c r="K16" s="23">
         <v>156</v>
       </c>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
+      <c r="L16" s="23">
+        <v>156</v>
+      </c>
+      <c r="M16" s="23">
+        <v>156</v>
+      </c>
       <c r="N16" s="23"/>
       <c r="O16" s="23"/>
       <c r="P16" s="23"/>
@@ -1566,8 +1590,12 @@
       <c r="K17" s="23">
         <v>0</v>
       </c>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
+      <c r="L17" s="23">
+        <v>0</v>
+      </c>
+      <c r="M17" s="23">
+        <v>0</v>
+      </c>
       <c r="N17" s="23"/>
       <c r="O17" s="23"/>
       <c r="P17" s="23"/>
@@ -1595,8 +1623,12 @@
       <c r="K18" s="23">
         <v>0</v>
       </c>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
+      <c r="L18" s="23">
+        <v>0</v>
+      </c>
+      <c r="M18" s="23">
+        <v>0</v>
+      </c>
       <c r="N18" s="23"/>
       <c r="O18" s="23"/>
       <c r="P18" s="23"/>
@@ -1624,8 +1656,12 @@
       <c r="K19" s="22">
         <v>0</v>
       </c>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
+      <c r="L19" s="22">
+        <v>0</v>
+      </c>
+      <c r="M19" s="22">
+        <v>0</v>
+      </c>
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
       <c r="P19" s="22"/>
@@ -1765,7 +1801,7 @@
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
       <c r="H25" s="25">
-        <v>11083933.630000001</v>
+        <v>11083934</v>
       </c>
       <c r="I25" s="25">
         <v>11223553</v>
@@ -1776,8 +1812,12 @@
       <c r="K25" s="25">
         <v>11590402</v>
       </c>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
+      <c r="L25" s="25">
+        <v>11780363</v>
+      </c>
+      <c r="M25" s="25">
+        <v>11950250</v>
+      </c>
       <c r="N25" s="25"/>
       <c r="O25" s="25"/>
       <c r="P25" s="25"/>
@@ -1830,11 +1870,11 @@
       </c>
       <c r="L27" s="20">
         <f>L28+L34</f>
-        <v>0</v>
+        <v>5138362</v>
       </c>
       <c r="M27" s="20">
         <f t="shared" ref="M27:S27" si="5">M28+M34</f>
-        <v>0</v>
+        <v>5316922</v>
       </c>
       <c r="N27" s="20">
         <f t="shared" si="5"/>
@@ -1887,11 +1927,11 @@
       </c>
       <c r="L28" s="22">
         <f>L29+L32</f>
-        <v>0</v>
+        <v>2468786</v>
       </c>
       <c r="M28" s="22">
         <f t="shared" ref="M28:S28" si="6">M29+M32</f>
-        <v>0</v>
+        <v>2602397</v>
       </c>
       <c r="N28" s="22">
         <f t="shared" si="6"/>
@@ -1944,11 +1984,11 @@
       </c>
       <c r="L29" s="26">
         <f>+L30+L31</f>
-        <v>0</v>
+        <v>2468786</v>
       </c>
       <c r="M29" s="26">
         <f t="shared" ref="M29:S29" si="7">+M30+M31</f>
-        <v>0</v>
+        <v>2602397</v>
       </c>
       <c r="N29" s="26">
         <f t="shared" si="7"/>
@@ -1995,8 +2035,12 @@
       <c r="K30" s="25">
         <v>2470606</v>
       </c>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
+      <c r="L30" s="25">
+        <v>2459779</v>
+      </c>
+      <c r="M30" s="25">
+        <v>2593272</v>
+      </c>
       <c r="N30" s="25"/>
       <c r="O30" s="25"/>
       <c r="P30" s="25"/>
@@ -2024,8 +2068,12 @@
       <c r="K31" s="25">
         <v>8967</v>
       </c>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
+      <c r="L31" s="25">
+        <v>9007</v>
+      </c>
+      <c r="M31" s="25">
+        <v>9125</v>
+      </c>
       <c r="N31" s="25"/>
       <c r="O31" s="25"/>
       <c r="P31" s="25"/>
@@ -2053,8 +2101,12 @@
       <c r="K32" s="22">
         <v>0</v>
       </c>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
+      <c r="L32" s="22">
+        <v>0</v>
+      </c>
+      <c r="M32" s="22">
+        <v>0</v>
+      </c>
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
       <c r="P32" s="22"/>
@@ -2101,8 +2153,12 @@
       <c r="K34" s="25">
         <v>2682544</v>
       </c>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
+      <c r="L34" s="25">
+        <v>2669576</v>
+      </c>
+      <c r="M34" s="25">
+        <v>2714525</v>
+      </c>
       <c r="N34" s="25"/>
       <c r="O34" s="25"/>
       <c r="P34" s="25"/>
@@ -2157,11 +2213,11 @@
       </c>
       <c r="L37" s="32">
         <f>+L38+L42</f>
-        <v>0</v>
+        <v>343576</v>
       </c>
       <c r="M37" s="32">
         <f t="shared" ref="M37:S37" si="8">+M38+M42</f>
-        <v>0</v>
+        <v>345107</v>
       </c>
       <c r="N37" s="32">
         <f t="shared" si="8"/>
@@ -2210,11 +2266,11 @@
       </c>
       <c r="L38" s="34">
         <f>+L39+L40</f>
-        <v>0</v>
+        <v>253675</v>
       </c>
       <c r="M38" s="34">
         <f t="shared" ref="M38:S42" si="9">+M39+M40</f>
-        <v>0</v>
+        <v>254472</v>
       </c>
       <c r="N38" s="34">
         <f t="shared" si="9"/>
@@ -2257,8 +2313,12 @@
       <c r="K39" s="35">
         <v>247011</v>
       </c>
-      <c r="L39" s="35"/>
-      <c r="M39" s="35"/>
+      <c r="L39" s="35">
+        <v>253539</v>
+      </c>
+      <c r="M39" s="35">
+        <v>254336</v>
+      </c>
       <c r="N39" s="35"/>
       <c r="O39" s="35"/>
       <c r="P39" s="35"/>
@@ -2282,8 +2342,12 @@
       <c r="K40" s="35">
         <v>136</v>
       </c>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
+      <c r="L40" s="35">
+        <v>136</v>
+      </c>
+      <c r="M40" s="35">
+        <v>136</v>
+      </c>
       <c r="N40" s="35"/>
       <c r="O40" s="35"/>
       <c r="P40" s="35"/>
@@ -2330,11 +2394,11 @@
       </c>
       <c r="L42" s="34">
         <f>+L43+L44</f>
-        <v>0</v>
+        <v>89901</v>
       </c>
       <c r="M42" s="34">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>90635</v>
       </c>
       <c r="N42" s="34">
         <f t="shared" si="9"/>
@@ -2377,6 +2441,12 @@
       <c r="K43" s="35">
         <v>85610</v>
       </c>
+      <c r="L43" s="35">
+        <v>85145</v>
+      </c>
+      <c r="M43" s="35">
+        <v>85813</v>
+      </c>
     </row>
     <row r="44" spans="1:19" s="35" customFormat="1" ht="12.75" customHeight="1">
       <c r="E44" s="35" t="s">
@@ -2393,6 +2463,12 @@
       </c>
       <c r="K44" s="35">
         <v>4783</v>
+      </c>
+      <c r="L44" s="35">
+        <v>4756</v>
+      </c>
+      <c r="M44" s="35">
+        <v>4822</v>
       </c>
     </row>
     <row r="47" spans="1:19">

--- a/Data/Fiscal Data/BTr-Monthly-Debt-Stock-2009-to-current.xlsx
+++ b/Data/Fiscal Data/BTr-Monthly-Debt-Stock-2009-to-current.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJ\GitHub Repositories\PH-Econ-Data\Data\Fiscal Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF76AD3-AA1D-476F-A8EF-AFCD24681BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F5817F-ADCD-41C9-BB61-A965D01458E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="1890" windowWidth="14715" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="17" r:id="rId1"/>
@@ -1054,7 +1054,7 @@
   <dimension ref="A1:S189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1194,7 +1194,7 @@
       <c r="G8" s="81"/>
       <c r="H8" s="16">
         <f>+H10+H37</f>
-        <v>16659043</v>
+        <v>16659042.630000001</v>
       </c>
       <c r="I8" s="16">
         <f>+I10+I37</f>
@@ -1214,19 +1214,19 @@
       </c>
       <c r="M8" s="16">
         <f t="shared" ref="M8:S8" si="0">+M10+M37</f>
-        <v>17612435</v>
+        <v>17612435.009999998</v>
       </c>
       <c r="N8" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17916491</v>
       </c>
       <c r="O8" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17814905</v>
       </c>
       <c r="P8" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17801987</v>
       </c>
       <c r="Q8" s="16">
         <f t="shared" si="0"/>
@@ -1266,7 +1266,7 @@
       <c r="G10" s="82"/>
       <c r="H10" s="17">
         <f>+H12+H27</f>
-        <v>16312772</v>
+        <v>16312771.630000001</v>
       </c>
       <c r="I10" s="17">
         <f>+I12+I27</f>
@@ -1286,19 +1286,19 @@
       </c>
       <c r="M10" s="17">
         <f t="shared" ref="M10:S10" si="1">+M12+M27</f>
-        <v>17267328</v>
+        <v>17267328.009999998</v>
       </c>
       <c r="N10" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17563521</v>
       </c>
       <c r="O10" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17468448</v>
       </c>
       <c r="P10" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17455359</v>
       </c>
       <c r="Q10" s="17">
         <f t="shared" si="1"/>
@@ -1343,7 +1343,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="20">
         <f>+H13+H25</f>
-        <v>11084090</v>
+        <v>11084089.630000001</v>
       </c>
       <c r="I12" s="20">
         <f>+I13+I25</f>
@@ -1367,15 +1367,15 @@
       </c>
       <c r="N12" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12108421</v>
       </c>
       <c r="O12" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12087031</v>
       </c>
       <c r="P12" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11972900</v>
       </c>
       <c r="Q12" s="20">
         <f t="shared" si="2"/>
@@ -1424,15 +1424,15 @@
       </c>
       <c r="N13" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="O13" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="P13" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="Q13" s="20">
         <f t="shared" si="3"/>
@@ -1481,15 +1481,15 @@
       </c>
       <c r="N14" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="O14" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="P14" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="Q14" s="22">
         <f t="shared" si="4"/>
@@ -1530,9 +1530,15 @@
       <c r="M15" s="23">
         <v>156</v>
       </c>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
+      <c r="N15" s="23">
+        <v>156</v>
+      </c>
+      <c r="O15" s="23">
+        <v>156</v>
+      </c>
+      <c r="P15" s="23">
+        <v>156</v>
+      </c>
       <c r="Q15" s="23"/>
       <c r="R15" s="23"/>
       <c r="S15" s="23"/>
@@ -1563,9 +1569,15 @@
       <c r="M16" s="23">
         <v>156</v>
       </c>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
+      <c r="N16" s="23">
+        <v>156</v>
+      </c>
+      <c r="O16" s="23">
+        <v>156</v>
+      </c>
+      <c r="P16" s="23">
+        <v>156</v>
+      </c>
       <c r="Q16" s="23"/>
       <c r="R16" s="23"/>
       <c r="S16" s="23"/>
@@ -1596,9 +1608,15 @@
       <c r="M17" s="23">
         <v>0</v>
       </c>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
+      <c r="N17" s="23">
+        <v>0</v>
+      </c>
+      <c r="O17" s="23">
+        <v>0</v>
+      </c>
+      <c r="P17" s="23">
+        <v>0</v>
+      </c>
       <c r="Q17" s="23"/>
       <c r="R17" s="23"/>
       <c r="S17" s="23"/>
@@ -1629,9 +1647,15 @@
       <c r="M18" s="23">
         <v>0</v>
       </c>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
+      <c r="N18" s="23">
+        <v>0</v>
+      </c>
+      <c r="O18" s="23">
+        <v>0</v>
+      </c>
+      <c r="P18" s="23">
+        <v>0</v>
+      </c>
       <c r="Q18" s="23"/>
       <c r="R18" s="23"/>
       <c r="S18" s="23"/>
@@ -1662,9 +1686,15 @@
       <c r="M19" s="22">
         <v>0</v>
       </c>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
+      <c r="N19" s="22">
+        <v>0</v>
+      </c>
+      <c r="O19" s="22">
+        <v>0</v>
+      </c>
+      <c r="P19" s="22">
+        <v>0</v>
+      </c>
       <c r="Q19" s="22"/>
       <c r="R19" s="22"/>
       <c r="S19" s="22"/>
@@ -1801,7 +1831,7 @@
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
       <c r="H25" s="25">
-        <v>11083934</v>
+        <v>11083933.630000001</v>
       </c>
       <c r="I25" s="25">
         <v>11223553</v>
@@ -1818,9 +1848,15 @@
       <c r="M25" s="25">
         <v>11950250</v>
       </c>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
+      <c r="N25" s="25">
+        <v>12108265</v>
+      </c>
+      <c r="O25" s="25">
+        <v>12086875</v>
+      </c>
+      <c r="P25" s="25">
+        <v>11972744</v>
+      </c>
       <c r="Q25" s="25"/>
       <c r="R25" s="25"/>
       <c r="S25" s="25"/>
@@ -1874,19 +1910,19 @@
       </c>
       <c r="M27" s="20">
         <f t="shared" ref="M27:S27" si="5">M28+M34</f>
-        <v>5316922</v>
+        <v>5316922.01</v>
       </c>
       <c r="N27" s="20">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5455100</v>
       </c>
       <c r="O27" s="20">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5381417</v>
       </c>
       <c r="P27" s="20">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5482459</v>
       </c>
       <c r="Q27" s="20">
         <f t="shared" si="5"/>
@@ -1931,19 +1967,19 @@
       </c>
       <c r="M28" s="22">
         <f t="shared" ref="M28:S28" si="6">M29+M32</f>
-        <v>2602397</v>
+        <v>2602397.4</v>
       </c>
       <c r="N28" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2666074</v>
       </c>
       <c r="O28" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2638810</v>
       </c>
       <c r="P28" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2686973</v>
       </c>
       <c r="Q28" s="22">
         <f t="shared" si="6"/>
@@ -1988,19 +2024,19 @@
       </c>
       <c r="M29" s="26">
         <f t="shared" ref="M29:S29" si="7">+M30+M31</f>
-        <v>2602397</v>
+        <v>2602397.4</v>
       </c>
       <c r="N29" s="26">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2666074</v>
       </c>
       <c r="O29" s="26">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2638810</v>
       </c>
       <c r="P29" s="26">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2686973</v>
       </c>
       <c r="Q29" s="26">
         <f t="shared" si="7"/>
@@ -2041,9 +2077,15 @@
       <c r="M30" s="25">
         <v>2593272</v>
       </c>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25"/>
+      <c r="N30" s="25">
+        <v>2657082</v>
+      </c>
+      <c r="O30" s="25">
+        <v>2629773</v>
+      </c>
+      <c r="P30" s="25">
+        <v>2678149</v>
+      </c>
       <c r="Q30" s="25"/>
       <c r="R30" s="25"/>
       <c r="S30" s="25"/>
@@ -2072,11 +2114,17 @@
         <v>9007</v>
       </c>
       <c r="M31" s="25">
-        <v>9125</v>
-      </c>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="25"/>
+        <v>9125.4</v>
+      </c>
+      <c r="N31" s="25">
+        <v>8992</v>
+      </c>
+      <c r="O31" s="25">
+        <v>9037</v>
+      </c>
+      <c r="P31" s="25">
+        <v>8824</v>
+      </c>
       <c r="Q31" s="25"/>
       <c r="R31" s="25"/>
       <c r="S31" s="25"/>
@@ -2107,9 +2155,15 @@
       <c r="M32" s="22">
         <v>0</v>
       </c>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
+      <c r="N32" s="22">
+        <v>0</v>
+      </c>
+      <c r="O32" s="22">
+        <v>0</v>
+      </c>
+      <c r="P32" s="22">
+        <v>0</v>
+      </c>
       <c r="Q32" s="22"/>
       <c r="R32" s="22"/>
       <c r="S32" s="22"/>
@@ -2157,11 +2211,17 @@
         <v>2669576</v>
       </c>
       <c r="M34" s="25">
-        <v>2714525</v>
-      </c>
-      <c r="N34" s="25"/>
-      <c r="O34" s="25"/>
-      <c r="P34" s="25"/>
+        <v>2714524.61</v>
+      </c>
+      <c r="N34" s="25">
+        <v>2789026</v>
+      </c>
+      <c r="O34" s="25">
+        <v>2742607</v>
+      </c>
+      <c r="P34" s="25">
+        <v>2795486</v>
+      </c>
       <c r="Q34" s="25"/>
       <c r="R34" s="25"/>
       <c r="S34" s="25"/>
@@ -2221,15 +2281,15 @@
       </c>
       <c r="N37" s="32">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>352970</v>
       </c>
       <c r="O37" s="32">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>346457</v>
       </c>
       <c r="P37" s="32">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>346628</v>
       </c>
       <c r="Q37" s="32">
         <f t="shared" si="8"/>
@@ -2274,15 +2334,15 @@
       </c>
       <c r="N38" s="34">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>261996</v>
       </c>
       <c r="O38" s="34">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>256175</v>
       </c>
       <c r="P38" s="34">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>256172</v>
       </c>
       <c r="Q38" s="34">
         <f t="shared" si="9"/>
@@ -2319,9 +2379,15 @@
       <c r="M39" s="35">
         <v>254336</v>
       </c>
-      <c r="N39" s="35"/>
-      <c r="O39" s="35"/>
-      <c r="P39" s="35"/>
+      <c r="N39" s="35">
+        <v>261860</v>
+      </c>
+      <c r="O39" s="35">
+        <v>256039</v>
+      </c>
+      <c r="P39" s="35">
+        <v>256036</v>
+      </c>
       <c r="Q39" s="35"/>
       <c r="R39" s="35"/>
       <c r="S39" s="35"/>
@@ -2348,9 +2414,15 @@
       <c r="M40" s="35">
         <v>136</v>
       </c>
-      <c r="N40" s="35"/>
-      <c r="O40" s="35"/>
-      <c r="P40" s="35"/>
+      <c r="N40" s="35">
+        <v>136</v>
+      </c>
+      <c r="O40" s="35">
+        <v>136</v>
+      </c>
+      <c r="P40" s="35">
+        <v>136</v>
+      </c>
       <c r="Q40" s="35"/>
       <c r="R40" s="35"/>
       <c r="S40" s="35"/>
@@ -2402,15 +2474,15 @@
       </c>
       <c r="N42" s="34">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>90974</v>
       </c>
       <c r="O42" s="34">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>90282</v>
       </c>
       <c r="P42" s="34">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>90456</v>
       </c>
       <c r="Q42" s="34">
         <f t="shared" si="9"/>
@@ -2447,6 +2519,15 @@
       <c r="M43" s="35">
         <v>85813</v>
       </c>
+      <c r="N43" s="35">
+        <v>85998</v>
+      </c>
+      <c r="O43" s="35">
+        <v>85404</v>
+      </c>
+      <c r="P43" s="35">
+        <v>85483</v>
+      </c>
     </row>
     <row r="44" spans="1:19" s="35" customFormat="1" ht="12.75" customHeight="1">
       <c r="E44" s="35" t="s">
@@ -2469,6 +2550,15 @@
       </c>
       <c r="M44" s="35">
         <v>4822</v>
+      </c>
+      <c r="N44" s="35">
+        <v>4976</v>
+      </c>
+      <c r="O44" s="35">
+        <v>4878</v>
+      </c>
+      <c r="P44" s="35">
+        <v>4973</v>
       </c>
     </row>
     <row r="47" spans="1:19">

--- a/Data/Fiscal Data/BTr-Monthly-Debt-Stock-2009-to-current.xlsx
+++ b/Data/Fiscal Data/BTr-Monthly-Debt-Stock-2009-to-current.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJ\GitHub Repositories\PH-Econ-Data\Data\Fiscal Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F5817F-ADCD-41C9-BB61-A965D01458E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3137061-85DE-4180-B2FE-BC2DB3013E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="1890" windowWidth="14715" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-510" yWindow="360" windowWidth="14715" windowHeight="13245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="17" r:id="rId1"/>
@@ -1053,8 +1053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3273FFF-38CF-4648-BAF5-82868DEFDB4E}">
   <dimension ref="A1:S189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="I6" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42:S42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1230,15 +1230,15 @@
       </c>
       <c r="Q8" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17906552</v>
       </c>
       <c r="R8" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18004021</v>
       </c>
       <c r="S8" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18052386</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="14" customFormat="1">
@@ -1302,15 +1302,15 @@
       </c>
       <c r="Q10" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17562138</v>
       </c>
       <c r="R10" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17647979</v>
       </c>
       <c r="S10" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17707814</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="6.95" customHeight="1">
@@ -1379,15 +1379,15 @@
       </c>
       <c r="Q12" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12045325</v>
       </c>
       <c r="R12" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12117056</v>
       </c>
       <c r="S12" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12116253</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1436,15 +1436,15 @@
       </c>
       <c r="Q13" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="R13" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="S13" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1493,15 +1493,15 @@
       </c>
       <c r="Q14" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="R14" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="S14" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1539,9 +1539,15 @@
       <c r="P15" s="23">
         <v>156</v>
       </c>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
+      <c r="Q15" s="23">
+        <v>156</v>
+      </c>
+      <c r="R15" s="23">
+        <v>156</v>
+      </c>
+      <c r="S15" s="23">
+        <v>156</v>
+      </c>
     </row>
     <row r="16" spans="1:19">
       <c r="C16" s="21"/>
@@ -1578,9 +1584,15 @@
       <c r="P16" s="23">
         <v>156</v>
       </c>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
+      <c r="Q16" s="23">
+        <v>156</v>
+      </c>
+      <c r="R16" s="23">
+        <v>156</v>
+      </c>
+      <c r="S16" s="23">
+        <v>156</v>
+      </c>
     </row>
     <row r="17" spans="3:19">
       <c r="C17" s="21"/>
@@ -1617,9 +1629,15 @@
       <c r="P17" s="23">
         <v>0</v>
       </c>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
+      <c r="Q17" s="23">
+        <v>0</v>
+      </c>
+      <c r="R17" s="23">
+        <v>0</v>
+      </c>
+      <c r="S17" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="3:19">
       <c r="C18" s="21"/>
@@ -1656,9 +1674,15 @@
       <c r="P18" s="23">
         <v>0</v>
       </c>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
+      <c r="Q18" s="23">
+        <v>0</v>
+      </c>
+      <c r="R18" s="23">
+        <v>0</v>
+      </c>
+      <c r="S18" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="3:19">
       <c r="C19" s="21"/>
@@ -1695,9 +1719,15 @@
       <c r="P19" s="22">
         <v>0</v>
       </c>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
+      <c r="Q19" s="22">
+        <v>0</v>
+      </c>
+      <c r="R19" s="22">
+        <v>0</v>
+      </c>
+      <c r="S19" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="3:19">
       <c r="C20" s="21"/>
@@ -1857,9 +1887,15 @@
       <c r="P25" s="25">
         <v>11972744</v>
       </c>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
+      <c r="Q25" s="25">
+        <v>12045169</v>
+      </c>
+      <c r="R25" s="25">
+        <v>12116900</v>
+      </c>
+      <c r="S25" s="25">
+        <v>12116097</v>
+      </c>
     </row>
     <row r="26" spans="3:19">
       <c r="C26" s="21"/>
@@ -1926,15 +1962,15 @@
       </c>
       <c r="Q27" s="20">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5516813</v>
       </c>
       <c r="R27" s="20">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5530923</v>
       </c>
       <c r="S27" s="20">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5591561</v>
       </c>
     </row>
     <row r="28" spans="3:19" s="24" customFormat="1">
@@ -1983,15 +2019,15 @@
       </c>
       <c r="Q28" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2698939</v>
       </c>
       <c r="R28" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2714467</v>
       </c>
       <c r="S28" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2769078</v>
       </c>
     </row>
     <row r="29" spans="3:19">
@@ -2040,15 +2076,15 @@
       </c>
       <c r="Q29" s="26">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2698939</v>
       </c>
       <c r="R29" s="26">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2714467</v>
       </c>
       <c r="S29" s="26">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2769078</v>
       </c>
     </row>
     <row r="30" spans="3:19">
@@ -2086,9 +2122,15 @@
       <c r="P30" s="25">
         <v>2678149</v>
       </c>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="25"/>
+      <c r="Q30" s="25">
+        <v>2690550</v>
+      </c>
+      <c r="R30" s="25">
+        <v>2706193</v>
+      </c>
+      <c r="S30" s="25">
+        <v>2760856</v>
+      </c>
     </row>
     <row r="31" spans="3:19">
       <c r="C31" s="21"/>
@@ -2125,9 +2167,15 @@
       <c r="P31" s="25">
         <v>8824</v>
       </c>
-      <c r="Q31" s="25"/>
-      <c r="R31" s="25"/>
-      <c r="S31" s="25"/>
+      <c r="Q31" s="25">
+        <v>8389</v>
+      </c>
+      <c r="R31" s="25">
+        <v>8274</v>
+      </c>
+      <c r="S31" s="25">
+        <v>8222</v>
+      </c>
     </row>
     <row r="32" spans="3:19">
       <c r="C32" s="21"/>
@@ -2164,9 +2212,15 @@
       <c r="P32" s="22">
         <v>0</v>
       </c>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="22"/>
-      <c r="S32" s="22"/>
+      <c r="Q32" s="22">
+        <v>0</v>
+      </c>
+      <c r="R32" s="22">
+        <v>0</v>
+      </c>
+      <c r="S32" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:19" ht="6.95" customHeight="1">
       <c r="C33" s="21"/>
@@ -2222,9 +2276,15 @@
       <c r="P34" s="25">
         <v>2795486</v>
       </c>
-      <c r="Q34" s="25"/>
-      <c r="R34" s="25"/>
-      <c r="S34" s="25"/>
+      <c r="Q34" s="25">
+        <v>2817874</v>
+      </c>
+      <c r="R34" s="25">
+        <v>2816456</v>
+      </c>
+      <c r="S34" s="25">
+        <v>2822483</v>
+      </c>
     </row>
     <row r="35" spans="1:19">
       <c r="C35" s="19"/>
@@ -2293,15 +2353,15 @@
       </c>
       <c r="Q37" s="32">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>344414</v>
       </c>
       <c r="R37" s="32">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>356042</v>
       </c>
       <c r="S37" s="32">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>344572</v>
       </c>
     </row>
     <row r="38" spans="1:19" s="33" customFormat="1" ht="14.25" customHeight="1">
@@ -2346,15 +2406,15 @@
       </c>
       <c r="Q38" s="34">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>254920</v>
       </c>
       <c r="R38" s="34">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>267628</v>
       </c>
       <c r="S38" s="34">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>256732</v>
       </c>
     </row>
     <row r="39" spans="1:19" s="24" customFormat="1">
@@ -2388,9 +2448,15 @@
       <c r="P39" s="35">
         <v>256036</v>
       </c>
-      <c r="Q39" s="35"/>
-      <c r="R39" s="35"/>
-      <c r="S39" s="35"/>
+      <c r="Q39" s="35">
+        <v>254784</v>
+      </c>
+      <c r="R39" s="35">
+        <v>267492</v>
+      </c>
+      <c r="S39" s="35">
+        <v>256596</v>
+      </c>
     </row>
     <row r="40" spans="1:19" s="24" customFormat="1" ht="12.75" customHeight="1">
       <c r="E40" s="24" t="s">
@@ -2423,9 +2489,15 @@
       <c r="P40" s="35">
         <v>136</v>
       </c>
-      <c r="Q40" s="35"/>
-      <c r="R40" s="35"/>
-      <c r="S40" s="35"/>
+      <c r="Q40" s="35">
+        <v>136</v>
+      </c>
+      <c r="R40" s="35">
+        <v>136</v>
+      </c>
+      <c r="S40" s="35">
+        <v>136</v>
+      </c>
     </row>
     <row r="41" spans="1:19">
       <c r="E41" s="14"/>
@@ -2486,15 +2558,15 @@
       </c>
       <c r="Q42" s="34">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>89494</v>
       </c>
       <c r="R42" s="34">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>88414</v>
       </c>
       <c r="S42" s="34">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>87840</v>
       </c>
     </row>
     <row r="43" spans="1:19" s="35" customFormat="1">
@@ -2528,6 +2600,15 @@
       <c r="P43" s="35">
         <v>85483</v>
       </c>
+      <c r="Q43" s="35">
+        <v>84468</v>
+      </c>
+      <c r="R43" s="35">
+        <v>83392</v>
+      </c>
+      <c r="S43" s="35">
+        <v>82812</v>
+      </c>
     </row>
     <row r="44" spans="1:19" s="35" customFormat="1" ht="12.75" customHeight="1">
       <c r="E44" s="35" t="s">
@@ -2559,6 +2640,15 @@
       </c>
       <c r="P44" s="35">
         <v>4973</v>
+      </c>
+      <c r="Q44" s="35">
+        <v>5026</v>
+      </c>
+      <c r="R44" s="35">
+        <v>5022</v>
+      </c>
+      <c r="S44" s="35">
+        <v>5028</v>
       </c>
     </row>
     <row r="47" spans="1:19">
